--- a/templates_xlsx/template_full.xlsx
+++ b/templates_xlsx/template_full.xlsx
@@ -1,27 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MichaelChen\AppData\Local\Programs\Python\Python312\budget_proposal\templates_xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MichaelChen\AppData\Local\Programs\Python\Python312\budget_proposal - Copy\templates_xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{321C64CC-EA8A-4107-A0D8-12C0FCA9BD33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0313B19-2C4B-4A0B-BEBB-E25C43DC8E8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{20B4707C-B100-4A46-8BB4-CCB0641CFCE7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{20B4707C-B100-4A46-8BB4-CCB0641CFCE7}"/>
   </bookViews>
   <sheets>
     <sheet name="Study Information" sheetId="2" r:id="rId1"/>
-    <sheet name="Biostatistics and Programming" sheetId="3" r:id="rId2"/>
-    <sheet name="Clinical Data Management" sheetId="5" r:id="rId3"/>
-    <sheet name="Project Management" sheetId="7" r:id="rId4"/>
-    <sheet name="CONFORM Informatics" sheetId="9" r:id="rId5"/>
+    <sheet name="Budget Summary" sheetId="11" r:id="rId2"/>
+    <sheet name="Biostatistics and Programming" sheetId="3" r:id="rId3"/>
+    <sheet name="eClinical Setup" sheetId="10" r:id="rId4"/>
+    <sheet name="Clinical Data Management" sheetId="5" r:id="rId5"/>
+    <sheet name="Project Management" sheetId="7" r:id="rId6"/>
+    <sheet name="CONFORM Informatics" sheetId="9" r:id="rId7"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId6"/>
-  </externalReferences>
   <definedNames>
     <definedName name="adam_compl">'Study Information'!$B$41</definedName>
     <definedName name="ADaM_Creation">#REF!</definedName>
@@ -29,50 +28,55 @@
     <definedName name="adam_fr">'Study Information'!$B$43</definedName>
     <definedName name="adam_simp">'Study Information'!$B$40</definedName>
     <definedName name="analysis_dur">'Study Information'!$B$25</definedName>
-    <definedName name="auto_queries_complete">'Study Information'!$B$80</definedName>
-    <definedName name="auto_queries_screen_fail">'Study Information'!$B$81</definedName>
-    <definedName name="auto_queries_total">'Study Information'!$B$83</definedName>
-    <definedName name="auto_queries_withdrawn">'Study Information'!$B$82</definedName>
+    <definedName name="auto_queries_complete">'Study Information'!$B$81</definedName>
+    <definedName name="auto_queries_screen_fail">'Study Information'!$B$82</definedName>
+    <definedName name="auto_queries_total">'Study Information'!$B$84</definedName>
+    <definedName name="auto_queries_withdrawn">'Study Information'!$B$83</definedName>
     <definedName name="Bostatistical_Support">#REF!</definedName>
     <definedName name="close_dur">'Study Information'!$B$24</definedName>
-    <definedName name="crf_pages_complete">'Study Information'!$B$74</definedName>
-    <definedName name="crf_pages_screen_fail">'Study Information'!$B$73</definedName>
-    <definedName name="crf_pages_total">'Study Information'!$B$76</definedName>
-    <definedName name="crf_pages_withdrawn">'Study Information'!$B$75</definedName>
+    <definedName name="crf_pages_complete">'Study Information'!$B$75</definedName>
+    <definedName name="crf_pages_screen_fail">'Study Information'!$B$74</definedName>
+    <definedName name="crf_pages_total">'Study Information'!$B$77</definedName>
+    <definedName name="crf_pages_withdrawn">'Study Information'!$B$76</definedName>
     <definedName name="CSR_TLF">#REF!</definedName>
-    <definedName name="data_review_listings">'Study Information'!$B$71</definedName>
+    <definedName name="data_review_listings">'Study Information'!$B$72</definedName>
     <definedName name="dropout_rate">#REF!</definedName>
     <definedName name="DSUR">#REF!</definedName>
-    <definedName name="dsur_report_listings">'Study Information'!$B$57</definedName>
-    <definedName name="dsur_report_tables">'Study Information'!$B$56</definedName>
-    <definedName name="dsur_years">'Study Information'!$B$58</definedName>
+    <definedName name="dsur_report_listings">'Study Information'!$B$58</definedName>
+    <definedName name="dsur_report_tables">'Study Information'!$B$57</definedName>
+    <definedName name="dsur_years">'Study Information'!$B$59</definedName>
     <definedName name="enroll_dur">'Study Information'!$B$22</definedName>
-    <definedName name="external_data_reconcilation">'Study Information'!$B$89</definedName>
+    <definedName name="external_data_reconcilation">'Study Information'!$B$90</definedName>
     <definedName name="IA_TLF">#REF!</definedName>
-    <definedName name="investigator_listings">'Study Information'!$B$61</definedName>
-    <definedName name="investigator_tables">'Study Information'!$B$60</definedName>
-    <definedName name="investigator_years">'Study Information'!$B$62</definedName>
-    <definedName name="manual_queries_complete">'Study Information'!$B$77</definedName>
-    <definedName name="manual_queries_total">'Study Information'!$B$79</definedName>
-    <definedName name="manual_queries_withdrawn">'Study Information'!$B$78</definedName>
+    <definedName name="investigator_listings">'Study Information'!$B$62</definedName>
+    <definedName name="investigator_tables">'Study Information'!$B$61</definedName>
+    <definedName name="investigator_years">'Study Information'!$B$63</definedName>
+    <definedName name="manual_queries_complete">'Study Information'!$B$78</definedName>
+    <definedName name="manual_queries_total">'Study Information'!$B$80</definedName>
+    <definedName name="manual_queries_withdrawn">'Study Information'!$B$79</definedName>
     <definedName name="num_complete">'Study Information'!$B$18</definedName>
     <definedName name="num_countries">'Study Information'!$B$11</definedName>
-    <definedName name="num_data_metrics_report">'Study Information'!$B$93</definedName>
+    <definedName name="num_custom_functions">'Study Information'!$B4</definedName>
+    <definedName name="num_data_metrics_report">'Study Information'!$B$94</definedName>
     <definedName name="num_dmc_meet">'Study Information'!$B$31</definedName>
-    <definedName name="num_external_data_source">'Study Information'!$B$88</definedName>
-    <definedName name="num_lab_panel">'Study Information'!$B$91</definedName>
-    <definedName name="num_local_lab">'Study Information'!$B$90</definedName>
-    <definedName name="num_sae">'Study Information'!$B$84</definedName>
+    <definedName name="num_dynamics">'Study Information'!$B$101</definedName>
+    <definedName name="num_external_data_source">'Study Information'!$B$89</definedName>
+    <definedName name="num_lab_panel">'Study Information'!$B$92</definedName>
+    <definedName name="num_local_lab">'Study Information'!$B$91</definedName>
+    <definedName name="num_meetings">'Study Information'!$B$70</definedName>
+    <definedName name="num_sae">'Study Information'!$B$85</definedName>
     <definedName name="num_screen_fail">'Study Information'!$B$16</definedName>
     <definedName name="num_screened_subj">'Study Information'!$B$15</definedName>
     <definedName name="num_sites">'Study Information'!$B$12</definedName>
     <definedName name="num_subj">'Study Information'!$B$17</definedName>
-    <definedName name="num_unique_terms_aemh">'Study Information'!$B$85</definedName>
-    <definedName name="num_unique_terms_cm">'Study Information'!$B$86</definedName>
+    <definedName name="num_unique_crf_pages">'Study Information'!$B$99</definedName>
+    <definedName name="num_unique_edit_checks">'Study Information'!$B$100</definedName>
+    <definedName name="num_unique_terms_aemh">'Study Information'!$B$86</definedName>
+    <definedName name="num_unique_terms_cm">'Study Information'!$B$87</definedName>
     <definedName name="num_withdrawn">'Study Information'!$B$19</definedName>
-    <definedName name="patient_profile">'Study Information'!$B$64</definedName>
-    <definedName name="prog_support_requests">'Study Information'!$B$67</definedName>
-    <definedName name="protocol_deviation_check">'Study Information'!$B$72</definedName>
+    <definedName name="patient_profile">'Study Information'!$B$65</definedName>
+    <definedName name="prog_support_requests">'Study Information'!$B$68</definedName>
+    <definedName name="protocol_deviation_check">'Study Information'!$B$73</definedName>
     <definedName name="screen_failure_rate">#REF!</definedName>
     <definedName name="sdtm_dmc_fr">'Study Information'!$B$36</definedName>
     <definedName name="sdtm_fr">'Study Information'!$B$37</definedName>
@@ -81,16 +85,17 @@
     <definedName name="sdtm_tdd">'Study Information'!$B$34</definedName>
     <definedName name="SRT_Adhoc">#REF!</definedName>
     <definedName name="start_dur">'Study Information'!$B$21</definedName>
-    <definedName name="stat_support_requests">'Study Information'!$B$66</definedName>
+    <definedName name="stat_support_requests">'Study Information'!$B$67</definedName>
     <definedName name="subj_dur">'Study Information'!$B$23</definedName>
     <definedName name="tlf_dmc_fr">'Study Information'!$B$53</definedName>
-    <definedName name="tlf_final_fr">'Study Information'!$B$54</definedName>
+    <definedName name="tlf_final_fr">'Study Information'!$B$55</definedName>
     <definedName name="tlf_final_repeat_figures">'Study Information'!$B$50</definedName>
     <definedName name="tlf_final_repeat_listings">'Study Information'!$B$52</definedName>
     <definedName name="tlf_final_repeat_tables">'Study Information'!$B$48</definedName>
     <definedName name="tlf_final_unique_figures">'Study Information'!$B$49</definedName>
     <definedName name="tlf_final_unique_listings">'Study Information'!$B$51</definedName>
     <definedName name="tlf_final_unique_tables">'Study Information'!$B$47</definedName>
+    <definedName name="tlf_ia_fr">'Study Information'!$B$54</definedName>
     <definedName name="total_dur">'Study Information'!$B$27</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -113,8 +118,33 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Michael Chen</author>
+  </authors>
+  <commentList>
+    <comment ref="D29" authorId="0" shapeId="0" xr:uid="{9F6655F6-4C2D-44D0-96BC-FB5F9FE3391C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Assuming IA price is half of TLF base
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="421">
   <si>
     <t>Study Assumptions</t>
   </si>
@@ -911,16 +941,7 @@
 3. Ensure the study packages are insepection and submission ready.</t>
   </si>
   <si>
-    <t>CONFORM Pricing Proposal for Olema</t>
-  </si>
-  <si>
     <t>CONFORM™ Informatics</t>
-  </si>
-  <si>
-    <t>Studies:</t>
-  </si>
-  <si>
-    <t>Olema OP-3136</t>
   </si>
   <si>
     <t xml:space="preserve">Prerequisites: </t>
@@ -961,12 +982,6 @@
   </si>
   <si>
     <t>Per Client</t>
-  </si>
-  <si>
-    <t>Waived</t>
-  </si>
-  <si>
-    <t>Includes the following: (Olema has already paid one-time setup fee with the Opera-01 study)</t>
   </si>
   <si>
     <t>Creation of one client-specific division in the CONFORM Platform</t>
@@ -1031,9 +1046,6 @@
     <t xml:space="preserve">Setup standard study profiles   </t>
   </si>
   <si>
-    <t>Study Profiles</t>
-  </si>
-  <si>
     <t>Subject Matter Expert Support, as needed</t>
   </si>
   <si>
@@ -1058,9 +1070,6 @@
     <t>1st Study, Month</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>For multi-study contracts, subsequent studies will be discounted</t>
   </si>
   <si>
@@ -1206,21 +1215,250 @@
   </si>
   <si>
     <t>Total Budget</t>
+  </si>
+  <si>
+    <t>eCRF Development</t>
+  </si>
+  <si>
+    <t>Number of Unique CRF Pages</t>
+  </si>
+  <si>
+    <t>Number of Unique Edit Checks</t>
+  </si>
+  <si>
+    <t>Number of Dynamics</t>
+  </si>
+  <si>
+    <t>Number of Custom Functions</t>
+  </si>
+  <si>
+    <t>eClinical System Setup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Project Implementation/EDC Configuration </t>
+  </si>
+  <si>
+    <t>eCRF Design, eClinical Configuration</t>
+  </si>
+  <si>
+    <t>Unique Page</t>
+  </si>
+  <si>
+    <t>Design of unique CRF pages, including specifications, and review by statistician and lead CDM.</t>
+  </si>
+  <si>
+    <t>Case Book Page</t>
+  </si>
+  <si>
+    <t>Setup Repeating CRF pages, including schedule of assessments for Part A and B</t>
+  </si>
+  <si>
+    <t>eCRF Quality Assurance/Validation/ UAT Finalization - Unique Page</t>
+  </si>
+  <si>
+    <t>UAT testing, validation, and QA documentation of unique CRF pages</t>
+  </si>
+  <si>
+    <t>eCRF Quality Assurance/Validation/ UAT Finalization - Study</t>
+  </si>
+  <si>
+    <t>UAT testing, validation, and QA documentation of Repeating CRF pages and schedule of assessments configuration, inter-dependencies/branching</t>
+  </si>
+  <si>
+    <t>Edit Checks (Simple and Complex)</t>
+  </si>
+  <si>
+    <t>1.5.1</t>
+  </si>
+  <si>
+    <t>Edit Check Specification</t>
+  </si>
+  <si>
+    <t>Unique Check</t>
+  </si>
+  <si>
+    <t>Create specifications and program unique edit checks.</t>
+  </si>
+  <si>
+    <t>1.5.2</t>
+  </si>
+  <si>
+    <t>Edit Check Programming</t>
+  </si>
+  <si>
+    <t>1.5.3</t>
+  </si>
+  <si>
+    <t>Edit Check Testing/UAT Finalization - Unique Check</t>
+  </si>
+  <si>
+    <t>Create test cases and perform UAT testing and documentation for all edit checks.</t>
+  </si>
+  <si>
+    <t>Dynamics</t>
+  </si>
+  <si>
+    <t>1.6.1</t>
+  </si>
+  <si>
+    <t>Dynamic Specification</t>
+  </si>
+  <si>
+    <t>Create specifications and program unique Dynamics.</t>
+  </si>
+  <si>
+    <t>1.6.2</t>
+  </si>
+  <si>
+    <t>Dynamic Programming</t>
+  </si>
+  <si>
+    <t>1.6.3</t>
+  </si>
+  <si>
+    <t>Dynamic Testing/UAT Finalization - Unique Check</t>
+  </si>
+  <si>
+    <t>Create test cases and perform UAT testing and documentation for all Dynamics.</t>
+  </si>
+  <si>
+    <t>Custom Functions</t>
+  </si>
+  <si>
+    <t>1.7.1</t>
+  </si>
+  <si>
+    <t>Custom Function Specification</t>
+  </si>
+  <si>
+    <t>Create specifications and program unique Custom Functions.</t>
+  </si>
+  <si>
+    <t>1.7.2</t>
+  </si>
+  <si>
+    <t>Custom Function Programming</t>
+  </si>
+  <si>
+    <t>1.7.3</t>
+  </si>
+  <si>
+    <t>Custom Function Testing/UAT Finalization - Unique Check</t>
+  </si>
+  <si>
+    <t>Create test cases and perform UAT testing and documentation for all Custom Functions.</t>
+  </si>
+  <si>
+    <t>Edit Check Testing/UAT Finalization - Cross Page</t>
+  </si>
+  <si>
+    <t>CRF Completion Guideline (CCG)</t>
+  </si>
+  <si>
+    <t>Create CRF completion guideline, as well as help and support documents.</t>
+  </si>
+  <si>
+    <t>Budget Summary</t>
+  </si>
+  <si>
+    <t>Part 1 - Project Management Activities</t>
+  </si>
+  <si>
+    <t>Project Management Activities</t>
+  </si>
+  <si>
+    <t>Budget</t>
+  </si>
+  <si>
+    <t>Total Before Discount</t>
+  </si>
+  <si>
+    <t>Part 2 - Clinical Data Management Activities</t>
+  </si>
+  <si>
+    <t>CDM Activities</t>
+  </si>
+  <si>
+    <t>Part 3 - Biostats and Programming Services</t>
+  </si>
+  <si>
+    <t>Biostatistics and Programming Activities</t>
+  </si>
+  <si>
+    <t>Grand Total Before Discount</t>
+  </si>
+  <si>
+    <t>Total Budget for EDETEK Activities Before Discount</t>
+  </si>
+  <si>
+    <t>Total Budget After Discount</t>
+  </si>
+  <si>
+    <t>Preferred Vendor Relationship</t>
+  </si>
+  <si>
+    <t>It is the joint interest of Sponsor and EDETEK to establish preferred vendor relationship. This will allow EDETEK to commit resources to implement long-term strategic initiatives, including standard development, process integration, and dedicated resources to serve Sponsor's current, as well as future study needs. In return, Sponsor receives pricing discount with priority services, and avoids the costs of frequent vendor selections.</t>
+  </si>
+  <si>
+    <t>The terms for preferred vendor relationship are as follows:</t>
+  </si>
+  <si>
+    <t>1. Sponsor and EDETEK will jointly work on smooth collaboration and process integration for the Project.</t>
+  </si>
+  <si>
+    <t>2. Sponsor will include EDETEK in future RFPs for clinical development system, clinical data management, as well as biostats and programming services.</t>
+  </si>
+  <si>
+    <t>3. If all terms conditions in an RFP provided by EDETEK for the aforementioned services are similar to those offered by other potential vendors, Sponsor will consider EDETEK with priority.</t>
+  </si>
+  <si>
+    <t>7. Annual DSUR</t>
+  </si>
+  <si>
+    <t>8. Annual Investigator's Brochure</t>
+  </si>
+  <si>
+    <t>Interim Analysis</t>
+  </si>
+  <si>
+    <t>Misc.</t>
+  </si>
+  <si>
+    <t>Part 4 - CONFORM Informatics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONFORM Pricing Proposal </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Includes the following: </t>
+  </si>
+  <si>
+    <t>CONFORM IQ Activities</t>
+  </si>
+  <si>
+    <t>CONFORM IQ</t>
+  </si>
+  <si>
+    <t>Per IA TLF refresh (fully validated)</t>
+  </si>
+  <si>
+    <t>Full refreshes (IA)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="6">
+  <numFmts count="7">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="7" formatCode="&quot;$&quot;#,##0.00_);\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="46" x14ac:knownFonts="1">
+  <fonts count="57" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1542,8 +1780,80 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC65911"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color rgb="FFC65911"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color rgb="FF245187"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="16">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1634,8 +1944,50 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8497B0"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCE4D6"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD6DCE4"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF548235"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="30">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -1968,6 +2320,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF8497B0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1979,7 +2340,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="382">
+  <cellXfs count="456">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2732,7 +3093,6 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="14" xfId="5" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="15" xfId="5" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="16" xfId="5" applyFont="1" applyBorder="1"/>
@@ -3057,6 +3417,195 @@
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="14" fillId="18" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="49" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="16" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="49" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="6" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="49" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="49" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="6" fontId="49" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="51" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="53" fillId="20" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="51" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="7" fontId="15" fillId="22" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="6" fontId="49" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="7" fontId="51" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -3080,30 +3629,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Study Information"/>
-      <sheetName val="Budget Summary"/>
-      <sheetName val="Biostatistics and Programming"/>
-      <sheetName val="DMC Coordination"/>
-      <sheetName val="DMC Biostats &amp; Prog."/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3423,10 +3948,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DA76FB6-84D1-457D-BDD9-D6A1E1668C49}">
-  <dimension ref="A1:C96"/>
+  <dimension ref="A1:D102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="C88" sqref="C88"/>
+    <sheetView topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3868,142 +4393,140 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="34" t="s">
+        <v>420</v>
+      </c>
+      <c r="B54" s="33"/>
+      <c r="C54" s="31"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="B54" s="33"/>
-      <c r="C54" s="16"/>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" s="35" t="s">
+      <c r="B55" s="33"/>
+      <c r="C55" s="16"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" s="35" t="s">
         <v>44</v>
-      </c>
-      <c r="B55" s="36"/>
-      <c r="C55" s="37"/>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" s="38" t="s">
-        <v>45</v>
       </c>
       <c r="B56" s="36"/>
       <c r="C56" s="37"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="38" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B57" s="36"/>
       <c r="C57" s="37"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B58" s="36"/>
       <c r="C58" s="37"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" s="35" t="s">
+      <c r="A59" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="B59" s="36"/>
+      <c r="C59" s="37"/>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="C59" s="37"/>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" s="38" t="s">
-        <v>45</v>
-      </c>
-      <c r="B60" s="36"/>
       <c r="C60" s="37"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="38" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B61" s="36"/>
       <c r="C61" s="37"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B62" s="36"/>
       <c r="C62" s="37"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" s="35" t="s">
-        <v>49</v>
+      <c r="A63" s="38" t="s">
+        <v>47</v>
       </c>
       <c r="B63" s="36"/>
       <c r="C63" s="37"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" s="38" t="s">
-        <v>50</v>
+      <c r="A64" s="35" t="s">
+        <v>49</v>
       </c>
       <c r="B64" s="36"/>
       <c r="C64" s="37"/>
     </row>
-    <row r="65" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A65" s="35" t="s">
-        <v>51</v>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" s="38" t="s">
+        <v>50</v>
       </c>
       <c r="B65" s="36"/>
       <c r="C65" s="37"/>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66" s="38" t="s">
-        <v>52</v>
+    <row r="66" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A66" s="35" t="s">
+        <v>51</v>
       </c>
       <c r="B66" s="36"/>
       <c r="C66" s="37"/>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="38" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B67" s="36"/>
       <c r="C67" s="37"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A68" s="39" t="s">
+      <c r="A68" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="B68" s="36"/>
+      <c r="C68" s="37"/>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="B68" s="40" t="s">
+      <c r="B69" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="C68" s="14" t="s">
+      <c r="C69" s="14" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A69" s="16" t="s">
+    <row r="70" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A70" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="B69" s="10"/>
-      <c r="C69" s="16"/>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A70" s="150" t="s">
+      <c r="B70" s="10"/>
+      <c r="C70" s="16"/>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" s="150" t="s">
         <v>118</v>
       </c>
-      <c r="B70" s="151" t="s">
+      <c r="B71" s="151" t="s">
         <v>7</v>
       </c>
-      <c r="C70" s="152" t="s">
+      <c r="C71" s="152" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A71" s="128" t="s">
+    <row r="72" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A72" s="128" t="s">
         <v>119</v>
-      </c>
-      <c r="B71" s="153"/>
-      <c r="C71" s="128" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A72" s="128" t="s">
-        <v>120</v>
       </c>
       <c r="B72" s="153"/>
       <c r="C72" s="128" t="s">
@@ -4012,203 +4535,260 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="128" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B73" s="153"/>
-      <c r="C73" s="128"/>
+      <c r="C73" s="128" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="128" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B74" s="153"/>
-      <c r="C74" s="128" t="s">
-        <v>42</v>
-      </c>
+      <c r="C74" s="128"/>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="128" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B75" s="153"/>
-      <c r="C75" s="128"/>
+      <c r="C75" s="128" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="128" t="s">
+        <v>123</v>
+      </c>
+      <c r="B76" s="153"/>
+      <c r="C76" s="128"/>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" s="128" t="s">
         <v>124</v>
       </c>
-      <c r="B76" s="154"/>
-      <c r="C76" s="128"/>
-    </row>
-    <row r="77" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A77" s="128" t="s">
-        <v>125</v>
-      </c>
-      <c r="B77" s="153"/>
+      <c r="B77" s="154"/>
       <c r="C77" s="128"/>
     </row>
     <row r="78" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A78" s="128" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B78" s="153"/>
       <c r="C78" s="128"/>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A79" s="128" t="s">
-        <v>127</v>
-      </c>
-      <c r="B79" s="154"/>
+        <v>126</v>
+      </c>
+      <c r="B79" s="153"/>
       <c r="C79" s="128"/>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="128" t="s">
+        <v>127</v>
+      </c>
+      <c r="B80" s="154"/>
+      <c r="C80" s="128"/>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" s="128" t="s">
         <v>128</v>
       </c>
-      <c r="B80" s="153"/>
-      <c r="C80" s="128" t="s">
+      <c r="B81" s="153"/>
+      <c r="C81" s="128" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A81" s="128" t="s">
+    <row r="82" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A82" s="128" t="s">
         <v>129</v>
-      </c>
-      <c r="B81" s="153"/>
-      <c r="C81" s="128"/>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A82" s="128" t="s">
-        <v>130</v>
       </c>
       <c r="B82" s="153"/>
       <c r="C82" s="128"/>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="128" t="s">
+        <v>130</v>
+      </c>
+      <c r="B83" s="153"/>
+      <c r="C83" s="128"/>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" s="128" t="s">
         <v>131</v>
       </c>
-      <c r="B83" s="155"/>
-      <c r="C83" s="128"/>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A84" s="156" t="s">
+      <c r="B84" s="155"/>
+      <c r="C84" s="128"/>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" s="156" t="s">
         <v>132</v>
-      </c>
-      <c r="B84" s="36"/>
-      <c r="C84" s="128" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A85" s="157" t="s">
-        <v>134</v>
       </c>
       <c r="B85" s="36"/>
       <c r="C85" s="128" t="s">
-        <v>42</v>
+        <v>133</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A86" s="157" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B86" s="36"/>
       <c r="C86" s="128" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A87" s="150" t="s">
+    <row r="87" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A87" s="157" t="s">
+        <v>135</v>
+      </c>
+      <c r="B87" s="36"/>
+      <c r="C87" s="128" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" s="150" t="s">
         <v>136</v>
       </c>
-      <c r="B87" s="151" t="s">
+      <c r="B88" s="151" t="s">
         <v>7</v>
       </c>
-      <c r="C87" s="152" t="s">
+      <c r="C88" s="152" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A88" s="128" t="s">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" s="128" t="s">
         <v>137</v>
-      </c>
-      <c r="B88" s="153"/>
-      <c r="C88" s="128" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A89" s="128" t="s">
-        <v>139</v>
       </c>
       <c r="B89" s="153"/>
       <c r="C89" s="128" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A90" s="128" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B90" s="153"/>
       <c r="C90" s="128" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="128" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B91" s="153"/>
       <c r="C91" s="128" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A92" s="128" t="s">
+        <v>142</v>
+      </c>
+      <c r="B92" s="153"/>
+      <c r="C92" s="128" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A92" s="150" t="s">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" s="150" t="s">
         <v>144</v>
       </c>
-      <c r="B92" s="151" t="s">
+      <c r="B93" s="151" t="s">
         <v>7</v>
       </c>
-      <c r="C92" s="152" t="s">
+      <c r="C93" s="152" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A93" s="128" t="s">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" s="128" t="s">
         <v>145</v>
       </c>
-      <c r="B93" s="153"/>
-      <c r="C93" s="128" t="s">
+      <c r="B94" s="153"/>
+      <c r="C94" s="128" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A94" s="158" t="s">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" s="158" t="s">
         <v>54</v>
       </c>
-      <c r="B94" s="159" t="s">
+      <c r="B95" s="159" t="s">
         <v>7</v>
       </c>
-      <c r="C94" s="138" t="s">
+      <c r="C95" s="138" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A95" s="37" t="s">
+    <row r="96" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A96" s="37" t="s">
         <v>146</v>
-      </c>
-      <c r="B95" s="160"/>
-      <c r="C95" s="37"/>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A96" s="37" t="s">
-        <v>147</v>
       </c>
       <c r="B96" s="160"/>
       <c r="C96" s="37"/>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97" s="37" t="s">
+        <v>147</v>
+      </c>
+      <c r="B97" s="160"/>
+      <c r="C97" s="37"/>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98" s="381" t="s">
+        <v>345</v>
+      </c>
+      <c r="B98" s="382" t="s">
+        <v>7</v>
+      </c>
+      <c r="C98" s="383" t="s">
+        <v>8</v>
+      </c>
+      <c r="D98" s="384"/>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99" s="156" t="s">
+        <v>346</v>
+      </c>
+      <c r="B99" s="385"/>
+      <c r="C99" s="386" t="s">
+        <v>20</v>
+      </c>
+      <c r="D99" s="384"/>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A100" s="156" t="s">
+        <v>347</v>
+      </c>
+      <c r="B100" s="387"/>
+      <c r="C100" s="386" t="s">
+        <v>20</v>
+      </c>
+      <c r="D100" s="384"/>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101" s="156" t="s">
+        <v>348</v>
+      </c>
+      <c r="B101" s="388"/>
+      <c r="C101" s="156"/>
+      <c r="D101" s="384"/>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A102" s="156" t="s">
+        <v>349</v>
+      </c>
+      <c r="B102" s="388"/>
+      <c r="C102" s="156"/>
+      <c r="D102" s="384"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4216,11 +4796,374 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9CCC714-F1CA-4447-8DC7-009E1C781FE3}">
-  <dimension ref="A1:E52"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{493603F5-0B96-455F-BB1E-DEF5B790632C}">
+  <dimension ref="A1:C58"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScale="95" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="65.109375" customWidth="1"/>
+    <col min="2" max="2" width="62" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="414" t="s">
+        <v>392</v>
+      </c>
+      <c r="B1" s="392"/>
+      <c r="C1" s="413"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="389"/>
+      <c r="B2" s="392"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="415"/>
+      <c r="B3" s="416"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="417" t="s">
+        <v>393</v>
+      </c>
+      <c r="B4" s="418"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="415"/>
+      <c r="B5" s="418"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="419" t="s">
+        <v>394</v>
+      </c>
+      <c r="B6" s="420" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="421" t="s">
+        <v>252</v>
+      </c>
+      <c r="B7" s="422">
+        <f>IFERROR('Project Management'!E4, 0)</f>
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="417" t="s">
+        <v>396</v>
+      </c>
+      <c r="B8" s="423">
+        <f>B7</f>
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="415"/>
+      <c r="B9" s="418"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="417" t="s">
+        <v>397</v>
+      </c>
+      <c r="B10" s="389"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="415"/>
+      <c r="B11" s="389"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="424" t="s">
+        <v>398</v>
+      </c>
+      <c r="B12" s="425" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="426" t="s">
+        <v>350</v>
+      </c>
+      <c r="B13" s="427">
+        <f>IFERROR('eClinical Setup'!F24, 0)</f>
+        <v>153400</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="426" t="s">
+        <v>148</v>
+      </c>
+      <c r="B14" s="427">
+        <f>IFERROR('Clinical Data Management'!F44, 0)</f>
+        <v>38200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="428" t="s">
+        <v>396</v>
+      </c>
+      <c r="B15" s="429">
+        <f>SUM(B13:B14)</f>
+        <v>191600</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="389"/>
+      <c r="B16" s="404"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="417" t="s">
+        <v>399</v>
+      </c>
+      <c r="B17" s="404"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="415"/>
+      <c r="B18" s="431"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="424" t="s">
+        <v>400</v>
+      </c>
+      <c r="B19" s="425" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="432" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" s="427">
+        <f>IFERROR('Biostatistics and Programming'!E4, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="432" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" s="427">
+        <f>IFERROR('Biostatistics and Programming'!E9, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="432" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22" s="427">
+        <f>IFERROR('Biostatistics and Programming'!E15, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="432" t="s">
+        <v>76</v>
+      </c>
+      <c r="B23" s="427">
+        <f>IFERROR('Biostatistics and Programming'!E21, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="432" t="s">
+        <v>82</v>
+      </c>
+      <c r="B24" s="427">
+        <f>IFERROR('Biostatistics and Programming'!E33, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="432" t="s">
+        <v>86</v>
+      </c>
+      <c r="B25" s="427">
+        <f>IFERROR('Biostatistics and Programming'!E38, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="432" t="s">
+        <v>410</v>
+      </c>
+      <c r="B26" s="427">
+        <f>IFERROR('Biostatistics and Programming'!E41, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="432" t="s">
+        <v>411</v>
+      </c>
+      <c r="B27" s="427">
+        <f>IFERROR('Biostatistics and Programming'!E45, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="432" t="s">
+        <v>95</v>
+      </c>
+      <c r="B28" s="427">
+        <f>IFERROR('Biostatistics and Programming'!E49, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="428" t="s">
+        <v>396</v>
+      </c>
+      <c r="B29" s="429">
+        <f>SUM(B20:B28)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="389"/>
+      <c r="B30" s="404"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="417" t="s">
+        <v>414</v>
+      </c>
+      <c r="B31" s="392"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="424" t="s">
+        <v>417</v>
+      </c>
+      <c r="B33" s="425" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="447" t="s">
+        <v>418</v>
+      </c>
+      <c r="B34" s="449">
+        <f>IFERROR('CONFORM Informatics'!H82, 0)</f>
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="428" t="s">
+        <v>396</v>
+      </c>
+      <c r="B35" s="429">
+        <f>SUM(B34)</f>
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="450"/>
+      <c r="B36" s="451"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="448" t="s">
+        <v>401</v>
+      </c>
+      <c r="B37" s="452">
+        <f>SUM(B8,B15,B29,B35)</f>
+        <v>294600</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="428"/>
+      <c r="B38" s="389"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="428"/>
+      <c r="B39" s="389"/>
+    </row>
+    <row r="40" spans="1:2" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="433" t="s">
+        <v>392</v>
+      </c>
+      <c r="B40" s="430"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="434" t="s">
+        <v>402</v>
+      </c>
+      <c r="B41" s="435">
+        <v>2025861</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A48" s="436" t="s">
+        <v>403</v>
+      </c>
+      <c r="B48" s="437"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="428"/>
+      <c r="B49" s="389"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="406"/>
+      <c r="B50" s="389"/>
+    </row>
+    <row r="51" spans="1:2" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A51" s="438"/>
+      <c r="B51" s="407"/>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="389"/>
+      <c r="B52" s="407"/>
+    </row>
+    <row r="53" spans="1:2" ht="115.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="439" t="s">
+        <v>404</v>
+      </c>
+      <c r="B53" s="392"/>
+    </row>
+    <row r="54" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="440" t="s">
+        <v>405</v>
+      </c>
+      <c r="B54" s="443"/>
+    </row>
+    <row r="55" spans="1:2" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="441" t="s">
+        <v>406</v>
+      </c>
+      <c r="B55" s="444"/>
+    </row>
+    <row r="56" spans="1:2" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="441" t="s">
+        <v>407</v>
+      </c>
+      <c r="B56" s="444"/>
+    </row>
+    <row r="57" spans="1:2" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="441" t="s">
+        <v>408</v>
+      </c>
+      <c r="B57" s="444"/>
+    </row>
+    <row r="58" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A58" s="442" t="s">
+        <v>409</v>
+      </c>
+      <c r="B58" s="445"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B54:B58"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9CCC714-F1CA-4447-8DC7-009E1C781FE3}">
+  <dimension ref="A1:E54"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="95" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4240,9 +5183,9 @@
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="46"/>
       <c r="B2" s="44"/>
-      <c r="C2" s="355"/>
-      <c r="D2" s="355"/>
-      <c r="E2" s="355"/>
+      <c r="C2" s="354"/>
+      <c r="D2" s="354"/>
+      <c r="E2" s="354"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="47" t="s">
@@ -4524,7 +5467,7 @@
       <c r="C21" s="83"/>
       <c r="D21" s="84"/>
       <c r="E21" s="85">
-        <f>SUM(E28:E29)</f>
+        <f>SUM(E28:E31)</f>
         <v>0</v>
       </c>
     </row>
@@ -4658,15 +5601,19 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="92" t="s">
-        <v>81</v>
-      </c>
-      <c r="B29" s="93" t="s">
-        <v>71</v>
-      </c>
-      <c r="C29" s="94"/>
-      <c r="D29" s="95">
-        <v>5000</v>
+      <c r="A29" s="68" t="s">
+        <v>412</v>
+      </c>
+      <c r="B29" s="69" t="s">
+        <v>413</v>
+      </c>
+      <c r="C29" s="56">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="D29" s="70">
+        <f>E28/2</f>
+        <v>0</v>
       </c>
       <c r="E29" s="58">
         <f>C29*D29</f>
@@ -4674,75 +5621,75 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="96"/>
-      <c r="B30" s="97"/>
-      <c r="C30" s="98"/>
-      <c r="D30" s="99"/>
-      <c r="E30" s="100"/>
+      <c r="A30" s="90" t="s">
+        <v>419</v>
+      </c>
+      <c r="B30" s="453" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30" s="454">
+        <f>tlf_ia_fr</f>
+        <v>0</v>
+      </c>
+      <c r="D30" s="455">
+        <v>5000</v>
+      </c>
+      <c r="E30" s="58">
+        <f>C30*D30</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="81" t="s">
+      <c r="A31" s="92" t="s">
+        <v>81</v>
+      </c>
+      <c r="B31" s="93" t="s">
+        <v>71</v>
+      </c>
+      <c r="C31" s="94">
+        <f>tlf_final_fr</f>
+        <v>0</v>
+      </c>
+      <c r="D31" s="95">
+        <v>5000</v>
+      </c>
+      <c r="E31" s="58">
+        <f>C31*D31</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="96"/>
+      <c r="B32" s="97"/>
+      <c r="C32" s="98"/>
+      <c r="D32" s="99"/>
+      <c r="E32" s="100"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="81" t="s">
         <v>82</v>
       </c>
-      <c r="B31" s="82"/>
-      <c r="C31" s="83"/>
-      <c r="D31" s="84"/>
-      <c r="E31" s="85">
-        <f>SUM(E32:E34)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="101" t="s">
-        <v>83</v>
-      </c>
-      <c r="B32" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="C32" s="33">
-        <f>sdtm_dmc_fr</f>
-        <v>0</v>
-      </c>
-      <c r="D32" s="102">
-        <v>1500</v>
-      </c>
-      <c r="E32" s="58">
-        <f>C32*D32</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="101" t="s">
-        <v>84</v>
-      </c>
-      <c r="B33" s="103" t="s">
-        <v>71</v>
-      </c>
-      <c r="C33" s="33">
-        <f>adam_dmc_fr</f>
-        <v>0</v>
-      </c>
-      <c r="D33" s="102">
-        <v>2000</v>
-      </c>
-      <c r="E33" s="58">
-        <f>C33*D33</f>
+      <c r="B33" s="82"/>
+      <c r="C33" s="83"/>
+      <c r="D33" s="84"/>
+      <c r="E33" s="85">
+        <f>SUM(E34:E36)</f>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="101" t="s">
-        <v>85</v>
-      </c>
-      <c r="B34" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="B34" s="33" t="s">
         <v>71</v>
       </c>
       <c r="C34" s="33">
-        <f>tlf_dmc_fr</f>
+        <f>sdtm_dmc_fr</f>
         <v>0</v>
       </c>
       <c r="D34" s="102">
-        <v>5000</v>
+        <v>1500</v>
       </c>
       <c r="E34" s="58">
         <f>C34*D34</f>
@@ -4750,246 +5697,287 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="104"/>
-      <c r="B35" s="105"/>
-      <c r="C35" s="106"/>
-      <c r="D35" s="105"/>
-      <c r="E35" s="104"/>
+      <c r="A35" s="101" t="s">
+        <v>84</v>
+      </c>
+      <c r="B35" s="103" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" s="33">
+        <f>adam_dmc_fr</f>
+        <v>0</v>
+      </c>
+      <c r="D35" s="102">
+        <v>2000</v>
+      </c>
+      <c r="E35" s="58">
+        <f>C35*D35</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="81" t="s">
+      <c r="A36" s="101" t="s">
+        <v>85</v>
+      </c>
+      <c r="B36" s="44" t="s">
+        <v>71</v>
+      </c>
+      <c r="C36" s="33">
+        <f>tlf_dmc_fr</f>
+        <v>0</v>
+      </c>
+      <c r="D36" s="102">
+        <v>5000</v>
+      </c>
+      <c r="E36" s="58">
+        <f>C36*D36</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="104"/>
+      <c r="B37" s="105"/>
+      <c r="C37" s="106"/>
+      <c r="D37" s="105"/>
+      <c r="E37" s="104"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="81" t="s">
         <v>86</v>
       </c>
-      <c r="B36" s="107"/>
-      <c r="C36" s="108"/>
-      <c r="D36" s="109"/>
-      <c r="E36" s="85">
-        <f>E37</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="54" t="s">
+      <c r="B38" s="107"/>
+      <c r="C38" s="108"/>
+      <c r="D38" s="109"/>
+      <c r="E38" s="85">
+        <f>E39</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="54" t="s">
         <v>87</v>
       </c>
-      <c r="B37" s="77" t="s">
+      <c r="B39" s="77" t="s">
         <v>88</v>
       </c>
-      <c r="C37" s="56"/>
-      <c r="D37" s="78">
+      <c r="C39" s="56">
+        <f>num_meetings</f>
+        <v>0</v>
+      </c>
+      <c r="D39" s="78">
         <v>500</v>
       </c>
-      <c r="E37" s="58">
-        <f>C37*D37</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="110"/>
-      <c r="B38" s="80"/>
-      <c r="C38" s="111"/>
-      <c r="D38" s="112"/>
-      <c r="E38" s="113"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="81" t="s">
+      <c r="E39" s="58">
+        <f>C39*D39</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="110"/>
+      <c r="B40" s="80"/>
+      <c r="C40" s="111"/>
+      <c r="D40" s="112"/>
+      <c r="E40" s="113"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="81" t="s">
         <v>89</v>
       </c>
-      <c r="B39" s="107"/>
-      <c r="C39" s="108"/>
-      <c r="D39" s="109"/>
-      <c r="E39" s="85">
-        <f>SUM(E40:E41)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A40" s="54" t="s">
+      <c r="B41" s="107"/>
+      <c r="C41" s="108"/>
+      <c r="D41" s="109"/>
+      <c r="E41" s="85">
+        <f>SUM(E42:E43)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A42" s="54" t="s">
         <v>90</v>
       </c>
-      <c r="B40" s="77" t="s">
+      <c r="B42" s="77" t="s">
         <v>71</v>
       </c>
-      <c r="C40" s="56">
+      <c r="C42" s="56">
         <f>dsur_years</f>
         <v>0</v>
       </c>
-      <c r="D40" s="78">
+      <c r="D42" s="78">
         <v>3000</v>
       </c>
-      <c r="E40" s="58">
-        <f>C40*D40</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A41" s="54" t="s">
+      <c r="E42" s="58">
+        <f>C42*D42</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A43" s="54" t="s">
         <v>91</v>
       </c>
-      <c r="B41" s="77" t="s">
+      <c r="B43" s="77" t="s">
         <v>71</v>
       </c>
-      <c r="C41" s="56">
+      <c r="C43" s="56">
         <f>dsur_years</f>
         <v>0</v>
       </c>
-      <c r="D41" s="78">
+      <c r="D43" s="78">
         <v>5000</v>
       </c>
-      <c r="E41" s="58">
-        <f>C41*D41</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="110"/>
-      <c r="B42" s="80"/>
-      <c r="C42" s="111"/>
-      <c r="D42" s="112"/>
-      <c r="E42" s="113"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="81" t="s">
+      <c r="E43" s="58">
+        <f>C43*D43</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="110"/>
+      <c r="B44" s="80"/>
+      <c r="C44" s="111"/>
+      <c r="D44" s="112"/>
+      <c r="E44" s="113"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="81" t="s">
         <v>92</v>
       </c>
-      <c r="B43" s="107"/>
-      <c r="C43" s="108"/>
-      <c r="D43" s="109"/>
-      <c r="E43" s="85">
-        <f>SUM(E44:E45)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="114" t="s">
+      <c r="B45" s="107"/>
+      <c r="C45" s="108"/>
+      <c r="D45" s="109"/>
+      <c r="E45" s="85">
+        <f>SUM(E46:E47)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="114" t="s">
         <v>93</v>
       </c>
-      <c r="B44" s="115" t="s">
+      <c r="B46" s="115" t="s">
         <v>71</v>
       </c>
-      <c r="C44" s="116">
+      <c r="C46" s="116">
         <f>investigator_years</f>
         <v>0</v>
       </c>
-      <c r="D44" s="117">
+      <c r="D46" s="117">
         <v>5000</v>
       </c>
-      <c r="E44" s="58">
-        <f>C44*D44</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="114" t="s">
+      <c r="E46" s="58">
+        <f>C46*D46</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="114" t="s">
         <v>94</v>
       </c>
-      <c r="B45" s="115" t="s">
+      <c r="B47" s="115" t="s">
         <v>71</v>
       </c>
-      <c r="C45" s="116">
+      <c r="C47" s="116">
         <f>investigator_years</f>
         <v>0</v>
       </c>
-      <c r="D45" s="117">
+      <c r="D47" s="117">
         <v>5000</v>
       </c>
-      <c r="E45" s="58">
-        <f>C45*D45</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="118"/>
-      <c r="B46" s="119"/>
-      <c r="C46" s="120"/>
-      <c r="D46" s="121"/>
-      <c r="E46" s="122"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="123" t="s">
+      <c r="E47" s="58">
+        <f>C47*D47</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="118"/>
+      <c r="B48" s="119"/>
+      <c r="C48" s="120"/>
+      <c r="D48" s="121"/>
+      <c r="E48" s="122"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="123" t="s">
         <v>95</v>
       </c>
-      <c r="B47" s="124"/>
-      <c r="C47" s="125"/>
-      <c r="D47" s="126"/>
-      <c r="E47" s="127">
-        <f>SUM(E48:E50)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A48" s="128" t="s">
-        <v>96</v>
-      </c>
-      <c r="B48" s="129" t="s">
-        <v>97</v>
-      </c>
-      <c r="C48" s="130">
-        <f>'[1]Study Information'!B69</f>
-        <v>0</v>
-      </c>
-      <c r="D48" s="131">
-        <v>100</v>
-      </c>
-      <c r="E48" s="58">
-        <f t="shared" ref="E48:E50" si="2">C48*D48</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A49" s="128" t="s">
-        <v>98</v>
-      </c>
-      <c r="B49" s="129" t="s">
-        <v>97</v>
-      </c>
-      <c r="C49" s="130">
-        <f>'[1]Study Information'!B69</f>
-        <v>0</v>
-      </c>
-      <c r="D49" s="131">
-        <v>500</v>
-      </c>
-      <c r="E49" s="58">
-        <f t="shared" si="2"/>
+      <c r="B49" s="124"/>
+      <c r="C49" s="125"/>
+      <c r="D49" s="126"/>
+      <c r="E49" s="127">
+        <f>SUM(E50:E52)</f>
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A50" s="128" t="s">
+        <v>96</v>
+      </c>
+      <c r="B50" s="129" t="s">
+        <v>97</v>
+      </c>
+      <c r="C50" s="130">
+        <f>patient_profile</f>
+        <v>0</v>
+      </c>
+      <c r="D50" s="131">
+        <v>100</v>
+      </c>
+      <c r="E50" s="58">
+        <f t="shared" ref="E50:E52" si="2">C50*D50</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A51" s="128" t="s">
+        <v>98</v>
+      </c>
+      <c r="B51" s="129" t="s">
+        <v>97</v>
+      </c>
+      <c r="C51" s="130">
+        <f>patient_profile</f>
+        <v>0</v>
+      </c>
+      <c r="D51" s="131">
+        <v>500</v>
+      </c>
+      <c r="E51" s="58">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A52" s="128" t="s">
         <v>99</v>
       </c>
-      <c r="B50" s="129" t="s">
+      <c r="B52" s="129" t="s">
         <v>100</v>
       </c>
-      <c r="C50" s="130">
+      <c r="C52" s="130">
         <f>total_dur</f>
         <v>0</v>
       </c>
-      <c r="D50" s="131">
+      <c r="D52" s="131">
         <v>500</v>
       </c>
-      <c r="E50" s="58">
+      <c r="E52" s="58">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="118"/>
-      <c r="B51" s="119"/>
-      <c r="C51" s="120"/>
-      <c r="D51" s="121"/>
-      <c r="E51" s="122"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="132" t="s">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="118"/>
+      <c r="B53" s="119"/>
+      <c r="C53" s="120"/>
+      <c r="D53" s="121"/>
+      <c r="E53" s="122"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="132" t="s">
         <v>101</v>
       </c>
-      <c r="B52" s="133"/>
-      <c r="C52" s="134"/>
-      <c r="D52" s="133"/>
-      <c r="E52" s="135">
-        <f>SUM(E4, E9, E15, E21, E31, E36, E39, E43, E47)</f>
+      <c r="B54" s="133"/>
+      <c r="C54" s="134"/>
+      <c r="D54" s="133"/>
+      <c r="E54" s="135">
+        <f>SUM(E4, E9, E15, E21, E33, E38, E41, E45, E49)</f>
         <v>0</v>
       </c>
     </row>
@@ -4999,15 +5987,513 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ED3B6E4-C050-4017-B765-0D254B3EA43B}">
+  <dimension ref="A1:G24"/>
+  <sheetViews>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="7" width="19.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="390" t="s">
+        <v>350</v>
+      </c>
+      <c r="B1" s="391"/>
+      <c r="C1" s="392"/>
+      <c r="D1" s="392"/>
+      <c r="E1" s="392"/>
+      <c r="F1" s="392"/>
+      <c r="G1" s="391"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="392"/>
+      <c r="B2" s="391"/>
+      <c r="C2" s="392"/>
+      <c r="D2" s="392"/>
+      <c r="E2" s="392"/>
+      <c r="F2" s="392"/>
+      <c r="G2" s="391"/>
+    </row>
+    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="409" t="s">
+        <v>149</v>
+      </c>
+      <c r="B3" s="410"/>
+      <c r="C3" s="393" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="393" t="s">
+        <v>150</v>
+      </c>
+      <c r="E3" s="393" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" s="393" t="s">
+        <v>60</v>
+      </c>
+      <c r="G3" s="393" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="411" t="s">
+        <v>351</v>
+      </c>
+      <c r="B4" s="412"/>
+      <c r="C4" s="394"/>
+      <c r="D4" s="394"/>
+      <c r="E4" s="394"/>
+      <c r="F4" s="395">
+        <v>153400</v>
+      </c>
+      <c r="G4" s="396"/>
+    </row>
+    <row r="5" spans="1:7" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="397">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B5" s="156" t="s">
+        <v>352</v>
+      </c>
+      <c r="C5" s="397" t="s">
+        <v>353</v>
+      </c>
+      <c r="D5" s="397">
+        <f>num_unique_crf_pages</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="398">
+        <v>350</v>
+      </c>
+      <c r="F5" s="399">
+        <v>21000</v>
+      </c>
+      <c r="G5" s="156" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="397">
+        <v>1.2</v>
+      </c>
+      <c r="B6" s="156" t="s">
+        <v>352</v>
+      </c>
+      <c r="C6" s="397" t="s">
+        <v>355</v>
+      </c>
+      <c r="D6" s="397">
+        <f>crf_pages_complete</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="398">
+        <v>80</v>
+      </c>
+      <c r="F6" s="399">
+        <v>28000</v>
+      </c>
+      <c r="G6" s="156" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="397">
+        <v>1.3</v>
+      </c>
+      <c r="B7" s="156" t="s">
+        <v>357</v>
+      </c>
+      <c r="C7" s="397" t="s">
+        <v>353</v>
+      </c>
+      <c r="D7" s="397">
+        <f>num_unique_crf_pages</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="398">
+        <v>80</v>
+      </c>
+      <c r="F7" s="399">
+        <v>4800</v>
+      </c>
+      <c r="G7" s="156" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="397">
+        <v>1.4</v>
+      </c>
+      <c r="B8" s="156" t="s">
+        <v>359</v>
+      </c>
+      <c r="C8" s="397" t="s">
+        <v>355</v>
+      </c>
+      <c r="D8" s="397">
+        <f>crf_pages_complete</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="398">
+        <v>30</v>
+      </c>
+      <c r="F8" s="399">
+        <v>10500</v>
+      </c>
+      <c r="G8" s="156" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="400">
+        <v>1.5</v>
+      </c>
+      <c r="B9" s="401" t="s">
+        <v>361</v>
+      </c>
+      <c r="C9" s="400"/>
+      <c r="D9" s="400"/>
+      <c r="E9" s="400"/>
+      <c r="F9" s="402"/>
+      <c r="G9" s="401"/>
+    </row>
+    <row r="10" spans="1:7" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="397" t="s">
+        <v>362</v>
+      </c>
+      <c r="B10" s="403" t="s">
+        <v>363</v>
+      </c>
+      <c r="C10" s="397" t="s">
+        <v>364</v>
+      </c>
+      <c r="D10" s="397">
+        <f>num_unique_edit_checks</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="398">
+        <v>12</v>
+      </c>
+      <c r="F10" s="399">
+        <v>10800</v>
+      </c>
+      <c r="G10" s="156" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="397" t="s">
+        <v>366</v>
+      </c>
+      <c r="B11" s="403" t="s">
+        <v>367</v>
+      </c>
+      <c r="C11" s="397" t="s">
+        <v>364</v>
+      </c>
+      <c r="D11" s="397">
+        <f>num_unique_edit_checks</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="398">
+        <v>18</v>
+      </c>
+      <c r="F11" s="399">
+        <v>16200</v>
+      </c>
+      <c r="G11" s="156" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="397" t="s">
+        <v>368</v>
+      </c>
+      <c r="B12" s="403" t="s">
+        <v>369</v>
+      </c>
+      <c r="C12" s="397" t="s">
+        <v>364</v>
+      </c>
+      <c r="D12" s="397">
+        <f>num_unique_edit_checks</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="398">
+        <v>12</v>
+      </c>
+      <c r="F12" s="399">
+        <v>10800</v>
+      </c>
+      <c r="G12" s="156" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="400">
+        <v>1.6</v>
+      </c>
+      <c r="B13" s="401" t="s">
+        <v>371</v>
+      </c>
+      <c r="C13" s="400"/>
+      <c r="D13" s="400"/>
+      <c r="E13" s="400"/>
+      <c r="F13" s="402"/>
+      <c r="G13" s="401"/>
+    </row>
+    <row r="14" spans="1:7" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="397" t="s">
+        <v>372</v>
+      </c>
+      <c r="B14" s="403" t="s">
+        <v>373</v>
+      </c>
+      <c r="C14" s="397" t="s">
+        <v>364</v>
+      </c>
+      <c r="D14" s="397">
+        <f>num_dynamics</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="398">
+        <v>18</v>
+      </c>
+      <c r="F14" s="399">
+        <v>4500</v>
+      </c>
+      <c r="G14" s="156" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="397" t="s">
+        <v>375</v>
+      </c>
+      <c r="B15" s="403" t="s">
+        <v>376</v>
+      </c>
+      <c r="C15" s="397" t="s">
+        <v>364</v>
+      </c>
+      <c r="D15" s="397">
+        <f>num_dynamics</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="398">
+        <v>23</v>
+      </c>
+      <c r="F15" s="399">
+        <v>5750</v>
+      </c>
+      <c r="G15" s="156" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="397" t="s">
+        <v>377</v>
+      </c>
+      <c r="B16" s="403" t="s">
+        <v>378</v>
+      </c>
+      <c r="C16" s="397" t="s">
+        <v>364</v>
+      </c>
+      <c r="D16" s="397">
+        <f>num_dynamics</f>
+        <v>0</v>
+      </c>
+      <c r="E16" s="398">
+        <v>18</v>
+      </c>
+      <c r="F16" s="399">
+        <v>4500</v>
+      </c>
+      <c r="G16" s="156" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="400">
+        <v>1.7</v>
+      </c>
+      <c r="B17" s="401" t="s">
+        <v>380</v>
+      </c>
+      <c r="C17" s="400"/>
+      <c r="D17" s="400"/>
+      <c r="E17" s="400"/>
+      <c r="F17" s="402"/>
+      <c r="G17" s="401"/>
+    </row>
+    <row r="18" spans="1:7" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="397" t="s">
+        <v>381</v>
+      </c>
+      <c r="B18" s="403" t="s">
+        <v>382</v>
+      </c>
+      <c r="C18" s="397" t="s">
+        <v>364</v>
+      </c>
+      <c r="D18" s="397">
+        <f>num_custom_functions</f>
+        <v>0</v>
+      </c>
+      <c r="E18" s="398">
+        <v>25</v>
+      </c>
+      <c r="F18" s="399">
+        <v>1250</v>
+      </c>
+      <c r="G18" s="156" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="397" t="s">
+        <v>384</v>
+      </c>
+      <c r="B19" s="403" t="s">
+        <v>385</v>
+      </c>
+      <c r="C19" s="397" t="s">
+        <v>364</v>
+      </c>
+      <c r="D19" s="397">
+        <f>num_custom_functions</f>
+        <v>0</v>
+      </c>
+      <c r="E19" s="398">
+        <v>27</v>
+      </c>
+      <c r="F19" s="399">
+        <v>1350</v>
+      </c>
+      <c r="G19" s="156" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="397" t="s">
+        <v>386</v>
+      </c>
+      <c r="B20" s="403" t="s">
+        <v>387</v>
+      </c>
+      <c r="C20" s="397" t="s">
+        <v>364</v>
+      </c>
+      <c r="D20" s="397">
+        <f>num_custom_functions</f>
+        <v>0</v>
+      </c>
+      <c r="E20" s="398">
+        <v>23</v>
+      </c>
+      <c r="F20" s="399">
+        <v>1150</v>
+      </c>
+      <c r="G20" s="156" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="397">
+        <v>1.8</v>
+      </c>
+      <c r="B21" s="156" t="s">
+        <v>389</v>
+      </c>
+      <c r="C21" s="397" t="s">
+        <v>355</v>
+      </c>
+      <c r="D21" s="397">
+        <f>crf_pages_complete</f>
+        <v>0</v>
+      </c>
+      <c r="E21" s="398">
+        <v>80</v>
+      </c>
+      <c r="F21" s="399">
+        <v>28000</v>
+      </c>
+      <c r="G21" s="156" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="397">
+        <v>1.9</v>
+      </c>
+      <c r="B22" s="156" t="s">
+        <v>390</v>
+      </c>
+      <c r="C22" s="397" t="s">
+        <v>353</v>
+      </c>
+      <c r="D22" s="397">
+        <f>num_unique_crf_pages</f>
+        <v>0</v>
+      </c>
+      <c r="E22" s="398">
+        <v>80</v>
+      </c>
+      <c r="F22" s="399">
+        <v>4800</v>
+      </c>
+      <c r="G22" s="156" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="392"/>
+      <c r="B23" s="391"/>
+      <c r="C23" s="392"/>
+      <c r="D23" s="392"/>
+      <c r="E23" s="392"/>
+      <c r="F23" s="404"/>
+      <c r="G23" s="391"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="405" t="s">
+        <v>101</v>
+      </c>
+      <c r="B24" s="406"/>
+      <c r="C24" s="407"/>
+      <c r="D24" s="407"/>
+      <c r="E24" s="407"/>
+      <c r="F24" s="408">
+        <v>153400</v>
+      </c>
+      <c r="G24" s="406"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D7DCEFE-E123-471C-9149-5641B59C77A4}">
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5046,10 +6532,10 @@
       <c r="G3" s="136"/>
     </row>
     <row r="4" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="357" t="s">
+      <c r="A4" s="356" t="s">
         <v>149</v>
       </c>
-      <c r="B4" s="357"/>
+      <c r="B4" s="356"/>
       <c r="C4" s="169" t="s">
         <v>58</v>
       </c>
@@ -5067,10 +6553,10 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="358" t="s">
+      <c r="A5" s="357" t="s">
         <v>151</v>
       </c>
-      <c r="B5" s="359"/>
+      <c r="B5" s="358"/>
       <c r="C5" s="173"/>
       <c r="D5" s="174"/>
       <c r="E5" s="175"/>
@@ -5114,10 +6600,10 @@
       <c r="G7" s="187"/>
     </row>
     <row r="8" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="358" t="s">
+      <c r="A8" s="357" t="s">
         <v>155</v>
       </c>
-      <c r="B8" s="359"/>
+      <c r="B8" s="358"/>
       <c r="C8" s="191"/>
       <c r="D8" s="192"/>
       <c r="E8" s="193"/>
@@ -5209,10 +6695,10 @@
       <c r="G12" s="199"/>
     </row>
     <row r="13" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="358" t="s">
+      <c r="A13" s="357" t="s">
         <v>162</v>
       </c>
-      <c r="B13" s="359"/>
+      <c r="B13" s="358"/>
       <c r="C13" s="191"/>
       <c r="D13" s="192"/>
       <c r="E13" s="193"/>
@@ -5578,10 +7064,10 @@
       <c r="G28" s="199"/>
     </row>
     <row r="29" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="358" t="s">
+      <c r="A29" s="357" t="s">
         <v>214</v>
       </c>
-      <c r="B29" s="359"/>
+      <c r="B29" s="358"/>
       <c r="C29" s="191"/>
       <c r="D29" s="192"/>
       <c r="E29" s="193"/>
@@ -5801,10 +7287,10 @@
       <c r="G38" s="199"/>
     </row>
     <row r="39" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="358" t="s">
+      <c r="A39" s="357" t="s">
         <v>240</v>
       </c>
-      <c r="B39" s="359"/>
+      <c r="B39" s="358"/>
       <c r="C39" s="191"/>
       <c r="D39" s="192"/>
       <c r="E39" s="193"/>
@@ -5898,10 +7384,10 @@
       <c r="G43" s="214"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="356" t="s">
+      <c r="A44" s="355" t="s">
         <v>101</v>
       </c>
-      <c r="B44" s="356"/>
+      <c r="B44" s="355"/>
       <c r="C44" s="215"/>
       <c r="D44" s="216"/>
       <c r="E44" s="217"/>
@@ -5925,12 +7411,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7160DE5A-F936-4447-9D92-7E4E05EAEA09}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5953,9 +7439,9 @@
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="221"/>
       <c r="B2" s="221"/>
-      <c r="C2" s="360"/>
-      <c r="D2" s="360"/>
-      <c r="E2" s="360"/>
+      <c r="C2" s="359"/>
+      <c r="D2" s="359"/>
+      <c r="E2" s="359"/>
       <c r="F2" s="221"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -6105,24 +7591,24 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2762E0EF-4FE9-4E15-AE25-D732DFD3DB57}">
   <dimension ref="A1:H82"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A68" zoomScale="99" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39:H39"/>
+    <sheetView showGridLines="0" topLeftCell="A67" zoomScale="99" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H82" sqref="H82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.33203125" style="257" customWidth="1"/>
-    <col min="2" max="2" width="5.33203125" style="351" customWidth="1"/>
-    <col min="3" max="3" width="6" style="351" customWidth="1"/>
-    <col min="4" max="4" width="68.109375" style="352" customWidth="1"/>
-    <col min="5" max="5" width="17.44140625" style="353" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.6640625" style="351" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="354" customWidth="1"/>
-    <col min="8" max="8" width="12" style="354" customWidth="1"/>
+    <col min="2" max="2" width="5.33203125" style="350" customWidth="1"/>
+    <col min="3" max="3" width="6" style="350" customWidth="1"/>
+    <col min="4" max="4" width="68.109375" style="351" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" style="352" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.6640625" style="350" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="353" customWidth="1"/>
+    <col min="8" max="8" width="12" style="353" customWidth="1"/>
     <col min="9" max="16384" width="8.88671875" style="221"/>
   </cols>
   <sheetData>
@@ -6137,1016 +7623,1010 @@
       <c r="H1" s="256"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B2" s="258" t="s">
+      <c r="B2" s="446" t="s">
+        <v>415</v>
+      </c>
+      <c r="C2" s="258"/>
+      <c r="D2" s="258"/>
+      <c r="E2" s="258"/>
+      <c r="F2" s="258"/>
+      <c r="G2" s="258"/>
+      <c r="H2" s="259"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B3" s="260" t="s">
         <v>262</v>
       </c>
-      <c r="C2" s="259"/>
-      <c r="D2" s="259"/>
-      <c r="E2" s="259"/>
-      <c r="F2" s="259"/>
-      <c r="G2" s="259"/>
-      <c r="H2" s="260"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B3" s="261" t="s">
-        <v>263</v>
-      </c>
-      <c r="C3" s="262"/>
-      <c r="D3" s="262"/>
-      <c r="E3" s="262"/>
-      <c r="F3" s="262"/>
-      <c r="G3" s="262"/>
-      <c r="H3" s="263"/>
+      <c r="C3" s="261"/>
+      <c r="D3" s="261"/>
+      <c r="E3" s="261"/>
+      <c r="F3" s="261"/>
+      <c r="G3" s="261"/>
+      <c r="H3" s="262"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="264"/>
-      <c r="B4" s="265" t="s">
-        <v>264</v>
-      </c>
-      <c r="C4" s="266" t="s">
-        <v>265</v>
-      </c>
-      <c r="D4" s="267"/>
-      <c r="E4" s="268"/>
-      <c r="F4" s="268"/>
-      <c r="G4" s="268"/>
-      <c r="H4" s="269"/>
+      <c r="A4" s="263"/>
+      <c r="B4" s="264"/>
+      <c r="C4" s="265"/>
+      <c r="D4" s="266"/>
+      <c r="E4" s="267"/>
+      <c r="F4" s="267"/>
+      <c r="G4" s="267"/>
+      <c r="H4" s="268"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="221"/>
-      <c r="B5" s="270"/>
-      <c r="C5" s="268"/>
-      <c r="D5" s="268"/>
-      <c r="E5" s="268"/>
-      <c r="F5" s="268"/>
-      <c r="G5" s="268"/>
-      <c r="H5" s="269"/>
+      <c r="B5" s="269"/>
+      <c r="C5" s="267"/>
+      <c r="D5" s="267"/>
+      <c r="E5" s="267"/>
+      <c r="F5" s="267"/>
+      <c r="G5" s="267"/>
+      <c r="H5" s="268"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="221"/>
-      <c r="B6" s="265" t="s">
-        <v>266</v>
-      </c>
-      <c r="C6" s="267"/>
-      <c r="D6" s="267"/>
-      <c r="E6" s="268"/>
-      <c r="F6" s="268"/>
-      <c r="G6" s="268"/>
-      <c r="H6" s="269"/>
+      <c r="B6" s="264" t="s">
+        <v>263</v>
+      </c>
+      <c r="C6" s="266"/>
+      <c r="D6" s="266"/>
+      <c r="E6" s="267"/>
+      <c r="F6" s="267"/>
+      <c r="G6" s="267"/>
+      <c r="H6" s="268"/>
     </row>
     <row r="7" spans="1:8" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="221"/>
-      <c r="B7" s="271"/>
-      <c r="C7" s="272">
+      <c r="B7" s="270"/>
+      <c r="C7" s="271">
         <v>1</v>
       </c>
-      <c r="D7" s="273" t="s">
-        <v>267</v>
-      </c>
-      <c r="E7" s="268"/>
-      <c r="F7" s="268"/>
-      <c r="G7" s="268"/>
-      <c r="H7" s="269"/>
+      <c r="D7" s="272" t="s">
+        <v>264</v>
+      </c>
+      <c r="E7" s="267"/>
+      <c r="F7" s="267"/>
+      <c r="G7" s="267"/>
+      <c r="H7" s="268"/>
     </row>
     <row r="8" spans="1:8" ht="55.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="274"/>
-      <c r="B8" s="271"/>
-      <c r="C8" s="272">
+      <c r="A8" s="273"/>
+      <c r="B8" s="270"/>
+      <c r="C8" s="271">
         <v>2</v>
       </c>
-      <c r="D8" s="273" t="s">
-        <v>268</v>
-      </c>
-      <c r="E8" s="268"/>
-      <c r="F8" s="268"/>
-      <c r="G8" s="268"/>
-      <c r="H8" s="269"/>
+      <c r="D8" s="272" t="s">
+        <v>265</v>
+      </c>
+      <c r="E8" s="267"/>
+      <c r="F8" s="267"/>
+      <c r="G8" s="267"/>
+      <c r="H8" s="268"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="271"/>
-      <c r="C9" s="272">
+      <c r="B9" s="270"/>
+      <c r="C9" s="271">
         <v>3</v>
       </c>
-      <c r="D9" s="275" t="s">
-        <v>269</v>
-      </c>
-      <c r="E9" s="268"/>
-      <c r="F9" s="268"/>
-      <c r="G9" s="268"/>
-      <c r="H9" s="269"/>
+      <c r="D9" s="274" t="s">
+        <v>266</v>
+      </c>
+      <c r="E9" s="267"/>
+      <c r="F9" s="267"/>
+      <c r="G9" s="267"/>
+      <c r="H9" s="268"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="221"/>
-      <c r="B10" s="271"/>
-      <c r="C10" s="272">
+      <c r="B10" s="270"/>
+      <c r="C10" s="271">
         <v>4</v>
       </c>
-      <c r="D10" s="275" t="s">
+      <c r="D10" s="274" t="s">
+        <v>267</v>
+      </c>
+      <c r="E10" s="267"/>
+      <c r="F10" s="267"/>
+      <c r="G10" s="267"/>
+      <c r="H10" s="268"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="275"/>
+      <c r="B11" s="270"/>
+      <c r="C11" s="271">
+        <v>5</v>
+      </c>
+      <c r="D11" s="274" t="s">
+        <v>268</v>
+      </c>
+      <c r="E11" s="276"/>
+      <c r="F11" s="276"/>
+      <c r="G11" s="276"/>
+      <c r="H11" s="277"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="275"/>
+      <c r="B12" s="364"/>
+      <c r="C12" s="365"/>
+      <c r="D12" s="366"/>
+      <c r="E12" s="278" t="s">
+        <v>58</v>
+      </c>
+      <c r="F12" s="278" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" s="279" t="s">
+        <v>59</v>
+      </c>
+      <c r="H12" s="280" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B13" s="281" t="s">
         <v>270</v>
       </c>
-      <c r="E10" s="268"/>
-      <c r="F10" s="268"/>
-      <c r="G10" s="268"/>
-      <c r="H10" s="269"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="276"/>
-      <c r="B11" s="271"/>
-      <c r="C11" s="272">
-        <v>5</v>
-      </c>
-      <c r="D11" s="275" t="s">
+      <c r="C13" s="282"/>
+      <c r="D13" s="282"/>
+      <c r="E13" s="283" t="s">
         <v>271</v>
       </c>
-      <c r="E11" s="277"/>
-      <c r="F11" s="277"/>
-      <c r="G11" s="277"/>
-      <c r="H11" s="278"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="276"/>
-      <c r="B12" s="365"/>
-      <c r="C12" s="366"/>
-      <c r="D12" s="367"/>
-      <c r="E12" s="279" t="s">
-        <v>58</v>
-      </c>
-      <c r="F12" s="279" t="s">
-        <v>7</v>
-      </c>
-      <c r="G12" s="280" t="s">
-        <v>59</v>
-      </c>
-      <c r="H12" s="281" t="s">
+      <c r="F13" s="283">
+        <v>1</v>
+      </c>
+      <c r="G13" s="284">
+        <v>15000</v>
+      </c>
+      <c r="H13" s="285">
+        <f>F13*G13</f>
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B14" s="286"/>
+      <c r="C14" s="274" t="s">
+        <v>416</v>
+      </c>
+      <c r="D14" s="274"/>
+      <c r="E14" s="287"/>
+      <c r="F14" s="288"/>
+      <c r="G14" s="288"/>
+      <c r="H14" s="289"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B15" s="286"/>
+      <c r="C15" s="274"/>
+      <c r="D15" s="274" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B13" s="282" t="s">
+      <c r="E15" s="290"/>
+      <c r="F15" s="291"/>
+      <c r="G15" s="291"/>
+      <c r="H15" s="292"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B16" s="286"/>
+      <c r="C16" s="274"/>
+      <c r="D16" s="274" t="s">
         <v>273</v>
       </c>
-      <c r="C13" s="283"/>
-      <c r="D13" s="283"/>
-      <c r="E13" s="284" t="s">
+      <c r="E16" s="290"/>
+      <c r="F16" s="291"/>
+      <c r="G16" s="291"/>
+      <c r="H16" s="292"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B17" s="286"/>
+      <c r="C17" s="274"/>
+      <c r="D17" s="274" t="s">
         <v>274</v>
       </c>
-      <c r="F13" s="284">
+      <c r="E17" s="290"/>
+      <c r="F17" s="291"/>
+      <c r="G17" s="291"/>
+      <c r="H17" s="292"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B18" s="286"/>
+      <c r="C18" s="274"/>
+      <c r="D18" s="274" t="s">
+        <v>275</v>
+      </c>
+      <c r="E18" s="290"/>
+      <c r="F18" s="291"/>
+      <c r="G18" s="291"/>
+      <c r="H18" s="292"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B19" s="286"/>
+      <c r="C19" s="274"/>
+      <c r="D19" s="274" t="s">
+        <v>276</v>
+      </c>
+      <c r="E19" s="290"/>
+      <c r="F19" s="291"/>
+      <c r="G19" s="291"/>
+      <c r="H19" s="292"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B20" s="293"/>
+      <c r="C20" s="294"/>
+      <c r="D20" s="294"/>
+      <c r="E20" s="295"/>
+      <c r="F20" s="296"/>
+      <c r="G20" s="296"/>
+      <c r="H20" s="297"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B21" s="281" t="s">
+        <v>277</v>
+      </c>
+      <c r="C21" s="282"/>
+      <c r="D21" s="282"/>
+      <c r="E21" s="283" t="s">
+        <v>278</v>
+      </c>
+      <c r="F21" s="283">
         <v>1</v>
       </c>
-      <c r="G13" s="285">
-        <v>15000</v>
-      </c>
-      <c r="H13" s="286" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B14" s="287"/>
-      <c r="C14" s="275" t="s">
-        <v>276</v>
-      </c>
-      <c r="D14" s="275"/>
-      <c r="E14" s="288"/>
-      <c r="F14" s="289"/>
-      <c r="G14" s="289"/>
-      <c r="H14" s="290"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B15" s="287"/>
-      <c r="C15" s="275"/>
-      <c r="D15" s="275" t="s">
-        <v>277</v>
-      </c>
-      <c r="E15" s="291"/>
-      <c r="F15" s="292"/>
-      <c r="G15" s="292"/>
-      <c r="H15" s="293"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B16" s="287"/>
-      <c r="C16" s="275"/>
-      <c r="D16" s="275" t="s">
-        <v>278</v>
-      </c>
-      <c r="E16" s="291"/>
-      <c r="F16" s="292"/>
-      <c r="G16" s="292"/>
-      <c r="H16" s="293"/>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B17" s="287"/>
-      <c r="C17" s="275"/>
-      <c r="D17" s="275" t="s">
-        <v>279</v>
-      </c>
-      <c r="E17" s="291"/>
-      <c r="F17" s="292"/>
-      <c r="G17" s="292"/>
-      <c r="H17" s="293"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B18" s="287"/>
-      <c r="C18" s="275"/>
-      <c r="D18" s="275" t="s">
-        <v>280</v>
-      </c>
-      <c r="E18" s="291"/>
-      <c r="F18" s="292"/>
-      <c r="G18" s="292"/>
-      <c r="H18" s="293"/>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B19" s="287"/>
-      <c r="C19" s="275"/>
-      <c r="D19" s="275" t="s">
-        <v>281</v>
-      </c>
-      <c r="E19" s="291"/>
-      <c r="F19" s="292"/>
-      <c r="G19" s="292"/>
-      <c r="H19" s="293"/>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B20" s="294"/>
-      <c r="C20" s="295"/>
-      <c r="D20" s="295"/>
-      <c r="E20" s="296"/>
-      <c r="F20" s="297"/>
-      <c r="G20" s="297"/>
-      <c r="H20" s="298"/>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B21" s="282" t="s">
-        <v>282</v>
-      </c>
-      <c r="C21" s="283"/>
-      <c r="D21" s="283"/>
-      <c r="E21" s="284" t="s">
-        <v>283</v>
-      </c>
-      <c r="F21" s="284">
-        <v>1</v>
-      </c>
-      <c r="G21" s="285">
+      <c r="G21" s="284">
         <v>50000</v>
       </c>
-      <c r="H21" s="286">
+      <c r="H21" s="285">
         <f>F21*G21</f>
         <v>50000</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B22" s="287"/>
-      <c r="C22" s="275" t="s">
+      <c r="B22" s="286"/>
+      <c r="C22" s="274" t="s">
+        <v>279</v>
+      </c>
+      <c r="D22" s="274"/>
+      <c r="E22" s="298"/>
+      <c r="F22" s="299"/>
+      <c r="G22" s="299"/>
+      <c r="H22" s="300"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B23" s="286"/>
+      <c r="C23" s="274"/>
+      <c r="D23" s="274" t="s">
+        <v>280</v>
+      </c>
+      <c r="E23" s="301"/>
+      <c r="F23" s="294"/>
+      <c r="G23" s="294"/>
+      <c r="H23" s="302"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B24" s="286"/>
+      <c r="C24" s="274"/>
+      <c r="D24" s="274" t="s">
+        <v>281</v>
+      </c>
+      <c r="E24" s="301"/>
+      <c r="F24" s="294"/>
+      <c r="G24" s="294"/>
+      <c r="H24" s="302"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B25" s="286"/>
+      <c r="C25" s="274"/>
+      <c r="D25" s="274" t="s">
+        <v>282</v>
+      </c>
+      <c r="E25" s="301"/>
+      <c r="F25" s="294"/>
+      <c r="G25" s="294"/>
+      <c r="H25" s="302"/>
+    </row>
+    <row r="26" spans="2:8" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="B26" s="286"/>
+      <c r="C26" s="274"/>
+      <c r="D26" s="272" t="s">
+        <v>283</v>
+      </c>
+      <c r="E26" s="301"/>
+      <c r="F26" s="294"/>
+      <c r="G26" s="294"/>
+      <c r="H26" s="302"/>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B27" s="286"/>
+      <c r="C27" s="274"/>
+      <c r="D27" s="274" t="s">
         <v>284</v>
       </c>
-      <c r="D22" s="275"/>
-      <c r="E22" s="299"/>
-      <c r="F22" s="300"/>
-      <c r="G22" s="300"/>
-      <c r="H22" s="301"/>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B23" s="287"/>
-      <c r="C23" s="275"/>
-      <c r="D23" s="275" t="s">
+      <c r="E27" s="301"/>
+      <c r="F27" s="294"/>
+      <c r="G27" s="294"/>
+      <c r="H27" s="302"/>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B28" s="286"/>
+      <c r="C28" s="274"/>
+      <c r="D28" s="274" t="s">
         <v>285</v>
       </c>
-      <c r="E23" s="302"/>
-      <c r="F23" s="295"/>
-      <c r="G23" s="295"/>
-      <c r="H23" s="303"/>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B24" s="287"/>
-      <c r="C24" s="275"/>
-      <c r="D24" s="275" t="s">
+      <c r="E28" s="301"/>
+      <c r="F28" s="294"/>
+      <c r="G28" s="294"/>
+      <c r="H28" s="302"/>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B29" s="286"/>
+      <c r="C29" s="274"/>
+      <c r="D29" s="274" t="s">
         <v>286</v>
       </c>
-      <c r="E24" s="302"/>
-      <c r="F24" s="295"/>
-      <c r="G24" s="295"/>
-      <c r="H24" s="303"/>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B25" s="287"/>
-      <c r="C25" s="275"/>
-      <c r="D25" s="275" t="s">
+      <c r="E29" s="367"/>
+      <c r="F29" s="368"/>
+      <c r="G29" s="368"/>
+      <c r="H29" s="369"/>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B30" s="286"/>
+      <c r="C30" s="274"/>
+      <c r="D30" s="274" t="s">
         <v>287</v>
       </c>
-      <c r="E25" s="302"/>
-      <c r="F25" s="295"/>
-      <c r="G25" s="295"/>
-      <c r="H25" s="303"/>
-    </row>
-    <row r="26" spans="2:8" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="B26" s="287"/>
-      <c r="C26" s="275"/>
-      <c r="D26" s="273" t="s">
+      <c r="E30" s="370"/>
+      <c r="F30" s="371"/>
+      <c r="G30" s="371"/>
+      <c r="H30" s="372"/>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B31" s="286"/>
+      <c r="C31" s="274"/>
+      <c r="D31" s="274" t="s">
         <v>288</v>
       </c>
-      <c r="E26" s="302"/>
-      <c r="F26" s="295"/>
-      <c r="G26" s="295"/>
-      <c r="H26" s="303"/>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B27" s="287"/>
-      <c r="C27" s="275"/>
-      <c r="D27" s="275" t="s">
+      <c r="E31" s="301"/>
+      <c r="F31" s="294"/>
+      <c r="G31" s="294"/>
+      <c r="H31" s="302"/>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B32" s="286"/>
+      <c r="C32" s="274"/>
+      <c r="D32" s="274" t="s">
         <v>289</v>
       </c>
-      <c r="E27" s="302"/>
-      <c r="F27" s="295"/>
-      <c r="G27" s="295"/>
-      <c r="H27" s="303"/>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B28" s="287"/>
-      <c r="C28" s="275"/>
-      <c r="D28" s="275" t="s">
+      <c r="E32" s="301"/>
+      <c r="F32" s="294"/>
+      <c r="G32" s="294"/>
+      <c r="H32" s="302"/>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B33" s="286"/>
+      <c r="C33" s="274"/>
+      <c r="D33" s="274" t="s">
         <v>290</v>
       </c>
-      <c r="E28" s="302"/>
-      <c r="F28" s="295"/>
-      <c r="G28" s="295"/>
-      <c r="H28" s="303"/>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B29" s="287"/>
-      <c r="C29" s="275"/>
-      <c r="D29" s="275" t="s">
+      <c r="E33" s="301"/>
+      <c r="F33" s="294"/>
+      <c r="G33" s="294"/>
+      <c r="H33" s="302"/>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B34" s="286"/>
+      <c r="C34" s="274"/>
+      <c r="D34" s="274" t="s">
         <v>291</v>
       </c>
-      <c r="E29" s="368" t="s">
-        <v>49</v>
-      </c>
-      <c r="F29" s="369"/>
-      <c r="G29" s="369"/>
-      <c r="H29" s="370"/>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B30" s="287"/>
-      <c r="C30" s="275"/>
-      <c r="D30" s="275" t="s">
+      <c r="E34" s="301"/>
+      <c r="F34" s="294"/>
+      <c r="G34" s="294"/>
+      <c r="H34" s="302"/>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B35" s="286"/>
+      <c r="C35" s="274"/>
+      <c r="D35" s="274" t="s">
         <v>292</v>
       </c>
-      <c r="E30" s="371" t="s">
+      <c r="E35" s="301"/>
+      <c r="F35" s="294"/>
+      <c r="G35" s="294"/>
+      <c r="H35" s="302"/>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B36" s="286"/>
+      <c r="C36" s="274"/>
+      <c r="D36" s="274"/>
+      <c r="E36" s="303"/>
+      <c r="F36" s="304"/>
+      <c r="G36" s="304"/>
+      <c r="H36" s="305"/>
+    </row>
+    <row r="37" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="281" t="s">
         <v>293</v>
       </c>
-      <c r="F30" s="372"/>
-      <c r="G30" s="372"/>
-      <c r="H30" s="373"/>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B31" s="287"/>
-      <c r="C31" s="275"/>
-      <c r="D31" s="275" t="s">
+      <c r="C37" s="282"/>
+      <c r="D37" s="306" t="s">
         <v>294</v>
       </c>
-      <c r="E31" s="302"/>
-      <c r="F31" s="295"/>
-      <c r="G31" s="295"/>
-      <c r="H31" s="303"/>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B32" s="287"/>
-      <c r="C32" s="275"/>
-      <c r="D32" s="275" t="s">
+      <c r="E37" s="283" t="s">
         <v>295</v>
       </c>
-      <c r="E32" s="302"/>
-      <c r="F32" s="295"/>
-      <c r="G32" s="295"/>
-      <c r="H32" s="303"/>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B33" s="287"/>
-      <c r="C33" s="275"/>
-      <c r="D33" s="275" t="s">
+      <c r="F37" s="307">
+        <v>0</v>
+      </c>
+      <c r="G37" s="284">
+        <v>4000</v>
+      </c>
+      <c r="H37" s="285">
+        <f>F37*G37</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B38" s="281"/>
+      <c r="C38" s="282"/>
+      <c r="D38" s="308" t="s">
         <v>296</v>
       </c>
-      <c r="E33" s="302"/>
-      <c r="F33" s="295"/>
-      <c r="G33" s="295"/>
-      <c r="H33" s="303"/>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B34" s="287"/>
-      <c r="C34" s="275"/>
-      <c r="D34" s="275" t="s">
+      <c r="E38" s="283" t="s">
         <v>297</v>
       </c>
-      <c r="E34" s="302"/>
-      <c r="F34" s="295"/>
-      <c r="G34" s="295"/>
-      <c r="H34" s="303"/>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B35" s="287"/>
-      <c r="C35" s="275"/>
-      <c r="D35" s="275" t="s">
-        <v>298</v>
-      </c>
-      <c r="E35" s="302"/>
-      <c r="F35" s="295"/>
-      <c r="G35" s="295"/>
-      <c r="H35" s="303"/>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B36" s="287"/>
-      <c r="C36" s="275"/>
-      <c r="D36" s="275"/>
-      <c r="E36" s="304"/>
-      <c r="F36" s="305"/>
-      <c r="G36" s="305"/>
-      <c r="H36" s="306"/>
-    </row>
-    <row r="37" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="282" t="s">
-        <v>299</v>
-      </c>
-      <c r="C37" s="283"/>
-      <c r="D37" s="307" t="s">
-        <v>300</v>
-      </c>
-      <c r="E37" s="284" t="s">
-        <v>301</v>
-      </c>
-      <c r="F37" s="308" t="s">
-        <v>302</v>
-      </c>
-      <c r="G37" s="285">
-        <v>4000</v>
-      </c>
-      <c r="H37" s="286" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B38" s="282"/>
-      <c r="C38" s="283"/>
-      <c r="D38" s="309" t="s">
-        <v>303</v>
-      </c>
-      <c r="E38" s="284" t="s">
-        <v>304</v>
-      </c>
-      <c r="F38" s="308">
+      <c r="F38" s="307">
         <f>total_dur</f>
         <v>0</v>
       </c>
-      <c r="G38" s="285">
+      <c r="G38" s="284">
         <f>G37*(1-0.2)</f>
         <v>3200</v>
       </c>
-      <c r="H38" s="286">
+      <c r="H38" s="285">
         <f>F38*G38</f>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="287"/>
-      <c r="C39" s="275" t="s">
-        <v>284</v>
-      </c>
-      <c r="D39" s="275"/>
-      <c r="E39" s="374" t="s">
+      <c r="B39" s="286"/>
+      <c r="C39" s="274" t="s">
+        <v>279</v>
+      </c>
+      <c r="D39" s="274"/>
+      <c r="E39" s="373" t="s">
+        <v>298</v>
+      </c>
+      <c r="F39" s="374"/>
+      <c r="G39" s="374"/>
+      <c r="H39" s="375"/>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B40" s="286"/>
+      <c r="C40" s="274"/>
+      <c r="D40" s="272" t="s">
+        <v>299</v>
+      </c>
+      <c r="E40" s="301"/>
+      <c r="F40" s="294"/>
+      <c r="G40" s="294"/>
+      <c r="H40" s="302"/>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B41" s="286"/>
+      <c r="C41" s="274"/>
+      <c r="D41" s="272" t="s">
+        <v>300</v>
+      </c>
+      <c r="E41" s="301"/>
+      <c r="F41" s="294"/>
+      <c r="G41" s="294"/>
+      <c r="H41" s="302"/>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B42" s="286"/>
+      <c r="C42" s="274"/>
+      <c r="D42" s="272" t="s">
+        <v>301</v>
+      </c>
+      <c r="E42" s="301"/>
+      <c r="F42" s="294"/>
+      <c r="G42" s="294"/>
+      <c r="H42" s="302"/>
+    </row>
+    <row r="43" spans="2:8" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="286"/>
+      <c r="C43" s="274"/>
+      <c r="D43" s="272" t="s">
+        <v>302</v>
+      </c>
+      <c r="E43" s="301"/>
+      <c r="F43" s="294"/>
+      <c r="G43" s="294"/>
+      <c r="H43" s="302"/>
+    </row>
+    <row r="44" spans="2:8" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="286"/>
+      <c r="C44" s="274"/>
+      <c r="D44" s="272" t="s">
+        <v>303</v>
+      </c>
+      <c r="E44" s="301"/>
+      <c r="F44" s="294"/>
+      <c r="G44" s="294"/>
+      <c r="H44" s="302"/>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B45" s="286"/>
+      <c r="C45" s="274"/>
+      <c r="D45" s="272" t="s">
+        <v>304</v>
+      </c>
+      <c r="E45" s="301"/>
+      <c r="F45" s="294"/>
+      <c r="G45" s="294"/>
+      <c r="H45" s="302"/>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B46" s="286"/>
+      <c r="C46" s="274"/>
+      <c r="D46" s="272" t="s">
         <v>305</v>
       </c>
-      <c r="F39" s="375"/>
-      <c r="G39" s="375"/>
-      <c r="H39" s="376"/>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B40" s="287"/>
-      <c r="C40" s="275"/>
-      <c r="D40" s="273" t="s">
+      <c r="E46" s="301"/>
+      <c r="F46" s="294"/>
+      <c r="G46" s="294"/>
+      <c r="H46" s="302"/>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B47" s="286"/>
+      <c r="C47" s="274"/>
+      <c r="D47" s="272" t="s">
         <v>306</v>
       </c>
-      <c r="E40" s="302"/>
-      <c r="F40" s="295"/>
-      <c r="G40" s="295"/>
-      <c r="H40" s="303"/>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B41" s="287"/>
-      <c r="C41" s="275"/>
-      <c r="D41" s="273" t="s">
+      <c r="E47" s="301"/>
+      <c r="F47" s="294"/>
+      <c r="G47" s="294"/>
+      <c r="H47" s="302"/>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B48" s="286"/>
+      <c r="C48" s="274"/>
+      <c r="D48" s="272" t="s">
         <v>307</v>
       </c>
-      <c r="E41" s="302"/>
-      <c r="F41" s="295"/>
-      <c r="G41" s="295"/>
-      <c r="H41" s="303"/>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B42" s="287"/>
-      <c r="C42" s="275"/>
-      <c r="D42" s="273" t="s">
+      <c r="E48" s="301"/>
+      <c r="F48" s="294"/>
+      <c r="G48" s="294"/>
+      <c r="H48" s="302"/>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B49" s="286"/>
+      <c r="C49" s="274"/>
+      <c r="D49" s="272" t="s">
         <v>308</v>
       </c>
-      <c r="E42" s="302"/>
-      <c r="F42" s="295"/>
-      <c r="G42" s="295"/>
-      <c r="H42" s="303"/>
-    </row>
-    <row r="43" spans="2:8" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="287"/>
-      <c r="C43" s="275"/>
-      <c r="D43" s="273" t="s">
+      <c r="E49" s="301"/>
+      <c r="F49" s="294"/>
+      <c r="G49" s="294"/>
+      <c r="H49" s="302"/>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B50" s="286"/>
+      <c r="C50" s="274"/>
+      <c r="D50" s="272" t="s">
         <v>309</v>
       </c>
-      <c r="E43" s="302"/>
-      <c r="F43" s="295"/>
-      <c r="G43" s="295"/>
-      <c r="H43" s="303"/>
-    </row>
-    <row r="44" spans="2:8" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="287"/>
-      <c r="C44" s="275"/>
-      <c r="D44" s="273" t="s">
+      <c r="E50" s="301"/>
+      <c r="F50" s="294"/>
+      <c r="G50" s="294"/>
+      <c r="H50" s="302"/>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B51" s="270"/>
+      <c r="C51" s="274"/>
+      <c r="D51" s="272" t="s">
         <v>310</v>
       </c>
-      <c r="E44" s="302"/>
-      <c r="F44" s="295"/>
-      <c r="G44" s="295"/>
-      <c r="H44" s="303"/>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B45" s="287"/>
-      <c r="C45" s="275"/>
-      <c r="D45" s="273" t="s">
+      <c r="E51" s="301"/>
+      <c r="F51" s="294"/>
+      <c r="G51" s="294"/>
+      <c r="H51" s="302"/>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B52" s="270"/>
+      <c r="C52" s="274"/>
+      <c r="D52" s="272" t="s">
         <v>311</v>
       </c>
-      <c r="E45" s="302"/>
-      <c r="F45" s="295"/>
-      <c r="G45" s="295"/>
-      <c r="H45" s="303"/>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B46" s="287"/>
-      <c r="C46" s="275"/>
-      <c r="D46" s="273" t="s">
+      <c r="E52" s="301"/>
+      <c r="F52" s="294"/>
+      <c r="G52" s="294"/>
+      <c r="H52" s="302"/>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B53" s="270"/>
+      <c r="C53" s="274"/>
+      <c r="D53" s="272" t="s">
         <v>312</v>
       </c>
-      <c r="E46" s="302"/>
-      <c r="F46" s="295"/>
-      <c r="G46" s="295"/>
-      <c r="H46" s="303"/>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B47" s="287"/>
-      <c r="C47" s="275"/>
-      <c r="D47" s="273" t="s">
+      <c r="E53" s="301"/>
+      <c r="F53" s="294"/>
+      <c r="G53" s="294"/>
+      <c r="H53" s="302"/>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B54" s="270"/>
+      <c r="C54" s="266"/>
+      <c r="D54" s="272" t="s">
         <v>313</v>
       </c>
-      <c r="E47" s="302"/>
-      <c r="F47" s="295"/>
-      <c r="G47" s="295"/>
-      <c r="H47" s="303"/>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B48" s="287"/>
-      <c r="C48" s="275"/>
-      <c r="D48" s="273" t="s">
+      <c r="E54" s="301"/>
+      <c r="F54" s="294"/>
+      <c r="G54" s="294"/>
+      <c r="H54" s="302"/>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B55" s="270"/>
+      <c r="C55" s="266"/>
+      <c r="D55" s="274"/>
+      <c r="E55" s="303"/>
+      <c r="F55" s="304"/>
+      <c r="G55" s="304"/>
+      <c r="H55" s="305"/>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B56" s="309" t="s">
         <v>314</v>
       </c>
-      <c r="E48" s="302"/>
-      <c r="F48" s="295"/>
-      <c r="G48" s="295"/>
-      <c r="H48" s="303"/>
-    </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B49" s="287"/>
-      <c r="C49" s="275"/>
-      <c r="D49" s="273" t="s">
-        <v>315</v>
-      </c>
-      <c r="E49" s="302"/>
-      <c r="F49" s="295"/>
-      <c r="G49" s="295"/>
-      <c r="H49" s="303"/>
-    </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B50" s="287"/>
-      <c r="C50" s="275"/>
-      <c r="D50" s="273" t="s">
-        <v>316</v>
-      </c>
-      <c r="E50" s="302"/>
-      <c r="F50" s="295"/>
-      <c r="G50" s="295"/>
-      <c r="H50" s="303"/>
-    </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B51" s="271"/>
-      <c r="C51" s="275"/>
-      <c r="D51" s="273" t="s">
-        <v>317</v>
-      </c>
-      <c r="E51" s="302"/>
-      <c r="F51" s="295"/>
-      <c r="G51" s="295"/>
-      <c r="H51" s="303"/>
-    </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B52" s="271"/>
-      <c r="C52" s="275"/>
-      <c r="D52" s="273" t="s">
-        <v>318</v>
-      </c>
-      <c r="E52" s="302"/>
-      <c r="F52" s="295"/>
-      <c r="G52" s="295"/>
-      <c r="H52" s="303"/>
-    </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B53" s="271"/>
-      <c r="C53" s="275"/>
-      <c r="D53" s="273" t="s">
-        <v>319</v>
-      </c>
-      <c r="E53" s="302"/>
-      <c r="F53" s="295"/>
-      <c r="G53" s="295"/>
-      <c r="H53" s="303"/>
-    </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B54" s="271"/>
-      <c r="C54" s="267"/>
-      <c r="D54" s="273" t="s">
-        <v>320</v>
-      </c>
-      <c r="E54" s="302"/>
-      <c r="F54" s="295"/>
-      <c r="G54" s="295"/>
-      <c r="H54" s="303"/>
-    </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B55" s="271"/>
-      <c r="C55" s="267"/>
-      <c r="D55" s="275"/>
-      <c r="E55" s="304"/>
-      <c r="F55" s="305"/>
-      <c r="G55" s="305"/>
-      <c r="H55" s="306"/>
-    </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B56" s="310" t="s">
-        <v>321</v>
-      </c>
-      <c r="C56" s="311"/>
-      <c r="D56" s="312"/>
-      <c r="E56" s="313" t="s">
+      <c r="C56" s="310"/>
+      <c r="D56" s="311"/>
+      <c r="E56" s="312" t="s">
         <v>203</v>
       </c>
-      <c r="F56" s="313">
+      <c r="F56" s="312">
         <v>1</v>
       </c>
-      <c r="G56" s="314">
+      <c r="G56" s="313">
         <v>40000</v>
       </c>
-      <c r="H56" s="315">
+      <c r="H56" s="314">
         <f>F56*G56</f>
         <v>40000</v>
       </c>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B57" s="271"/>
-      <c r="C57" s="266" t="s">
+      <c r="B57" s="270"/>
+      <c r="C57" s="265" t="s">
+        <v>315</v>
+      </c>
+      <c r="D57" s="274"/>
+      <c r="E57" s="315"/>
+      <c r="F57" s="315"/>
+      <c r="G57" s="316"/>
+      <c r="H57" s="317"/>
+    </row>
+    <row r="58" spans="2:8" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="B58" s="270"/>
+      <c r="C58" s="266"/>
+      <c r="D58" s="272" t="s">
+        <v>316</v>
+      </c>
+      <c r="E58" s="318" t="s">
+        <v>317</v>
+      </c>
+      <c r="F58" s="318"/>
+      <c r="G58" s="319">
+        <v>1000</v>
+      </c>
+      <c r="H58" s="317"/>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B59" s="270"/>
+      <c r="C59" s="266"/>
+      <c r="D59" s="274" t="s">
+        <v>318</v>
+      </c>
+      <c r="E59" s="315" t="s">
+        <v>317</v>
+      </c>
+      <c r="F59" s="315"/>
+      <c r="G59" s="320">
+        <v>2500</v>
+      </c>
+      <c r="H59" s="317"/>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B60" s="286"/>
+      <c r="C60" s="266"/>
+      <c r="D60" s="274" t="s">
+        <v>319</v>
+      </c>
+      <c r="E60" s="315" t="s">
+        <v>317</v>
+      </c>
+      <c r="F60" s="315"/>
+      <c r="G60" s="320">
+        <v>500</v>
+      </c>
+      <c r="H60" s="317"/>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B61" s="286"/>
+      <c r="C61" s="266"/>
+      <c r="D61" s="274" t="s">
+        <v>320</v>
+      </c>
+      <c r="E61" s="315" t="s">
+        <v>321</v>
+      </c>
+      <c r="F61" s="315"/>
+      <c r="G61" s="320">
+        <v>5000</v>
+      </c>
+      <c r="H61" s="317"/>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B62" s="376"/>
+      <c r="C62" s="377"/>
+      <c r="D62" s="378"/>
+      <c r="E62" s="315"/>
+      <c r="F62" s="315"/>
+      <c r="G62" s="320"/>
+      <c r="H62" s="317"/>
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B63" s="286"/>
+      <c r="C63" s="265" t="s">
         <v>322</v>
       </c>
-      <c r="D57" s="275"/>
-      <c r="E57" s="316"/>
-      <c r="F57" s="316"/>
-      <c r="G57" s="317"/>
-      <c r="H57" s="318"/>
-    </row>
-    <row r="58" spans="2:8" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="B58" s="271"/>
-      <c r="C58" s="267"/>
-      <c r="D58" s="273" t="s">
+      <c r="D63" s="274"/>
+      <c r="E63" s="315"/>
+      <c r="F63" s="315"/>
+      <c r="G63" s="320"/>
+      <c r="H63" s="317"/>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B64" s="286"/>
+      <c r="C64" s="266"/>
+      <c r="D64" s="274" t="s">
         <v>323</v>
       </c>
-      <c r="E58" s="319" t="s">
+      <c r="E64" s="315" t="s">
         <v>324</v>
       </c>
-      <c r="F58" s="319"/>
-      <c r="G58" s="320">
-        <v>1000</v>
-      </c>
-      <c r="H58" s="318"/>
-    </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B59" s="271"/>
-      <c r="C59" s="267"/>
-      <c r="D59" s="275" t="s">
+      <c r="F64" s="315"/>
+      <c r="G64" s="320">
+        <v>1500</v>
+      </c>
+      <c r="H64" s="317"/>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B65" s="270"/>
+      <c r="C65" s="266"/>
+      <c r="D65" s="274" t="s">
         <v>325</v>
       </c>
-      <c r="E59" s="316" t="s">
+      <c r="E65" s="315" t="s">
         <v>324</v>
       </c>
-      <c r="F59" s="316"/>
-      <c r="G59" s="321">
-        <v>2500</v>
-      </c>
-      <c r="H59" s="318"/>
-    </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B60" s="287"/>
-      <c r="C60" s="267"/>
-      <c r="D60" s="275" t="s">
+      <c r="F65" s="315"/>
+      <c r="G65" s="320">
+        <v>1500</v>
+      </c>
+      <c r="H65" s="317"/>
+    </row>
+    <row r="66" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B66" s="270"/>
+      <c r="C66" s="266"/>
+      <c r="D66" s="274" t="s">
         <v>326</v>
       </c>
-      <c r="E60" s="316" t="s">
+      <c r="E66" s="315" t="s">
+        <v>79</v>
+      </c>
+      <c r="F66" s="315"/>
+      <c r="G66" s="320">
+        <v>500</v>
+      </c>
+      <c r="H66" s="317"/>
+    </row>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B67" s="270"/>
+      <c r="C67" s="266"/>
+      <c r="D67" s="274" t="s">
+        <v>327</v>
+      </c>
+      <c r="E67" s="321" t="s">
+        <v>328</v>
+      </c>
+      <c r="F67" s="321"/>
+      <c r="G67" s="322">
+        <v>250</v>
+      </c>
+      <c r="H67" s="323"/>
+    </row>
+    <row r="68" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B68" s="270"/>
+      <c r="C68" s="266"/>
+      <c r="D68" s="272" t="s">
+        <v>329</v>
+      </c>
+      <c r="E68" s="315" t="s">
+        <v>330</v>
+      </c>
+      <c r="F68" s="315"/>
+      <c r="G68" s="320">
+        <v>500</v>
+      </c>
+      <c r="H68" s="317"/>
+    </row>
+    <row r="69" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B69" s="269"/>
+      <c r="C69" s="267"/>
+      <c r="D69" s="324"/>
+      <c r="E69" s="325"/>
+      <c r="F69" s="326"/>
+      <c r="G69" s="327"/>
+      <c r="H69" s="328"/>
+    </row>
+    <row r="70" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B70" s="270"/>
+      <c r="C70" s="265" t="s">
+        <v>331</v>
+      </c>
+      <c r="D70" s="274"/>
+      <c r="E70" s="325"/>
+      <c r="F70" s="326"/>
+      <c r="G70" s="327"/>
+      <c r="H70" s="328"/>
+    </row>
+    <row r="71" spans="2:8" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B71" s="270"/>
+      <c r="C71" s="266"/>
+      <c r="D71" s="272" t="s">
+        <v>332</v>
+      </c>
+      <c r="E71" s="379" t="s">
+        <v>333</v>
+      </c>
+      <c r="F71" s="379"/>
+      <c r="G71" s="379"/>
+      <c r="H71" s="380"/>
+    </row>
+    <row r="72" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B72" s="270"/>
+      <c r="C72" s="266"/>
+      <c r="D72" s="272" t="s">
+        <v>334</v>
+      </c>
+      <c r="E72" s="360" t="s">
+        <v>333</v>
+      </c>
+      <c r="F72" s="360"/>
+      <c r="G72" s="360"/>
+      <c r="H72" s="361"/>
+    </row>
+    <row r="73" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B73" s="269"/>
+      <c r="C73" s="267"/>
+      <c r="D73" s="324"/>
+      <c r="E73" s="329"/>
+      <c r="F73" s="271"/>
+      <c r="G73" s="327"/>
+      <c r="H73" s="328"/>
+    </row>
+    <row r="74" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B74" s="270"/>
+      <c r="C74" s="265" t="s">
+        <v>335</v>
+      </c>
+      <c r="D74" s="274"/>
+      <c r="E74" s="325"/>
+      <c r="F74" s="326"/>
+      <c r="G74" s="327"/>
+      <c r="H74" s="328"/>
+    </row>
+    <row r="75" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B75" s="270"/>
+      <c r="C75" s="266"/>
+      <c r="D75" s="272" t="s">
+        <v>336</v>
+      </c>
+      <c r="E75" s="315" t="s">
+        <v>337</v>
+      </c>
+      <c r="F75" s="315"/>
+      <c r="G75" s="320">
+        <v>500</v>
+      </c>
+      <c r="H75" s="330"/>
+    </row>
+    <row r="76" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B76" s="270"/>
+      <c r="C76" s="266"/>
+      <c r="D76" s="272" t="s">
+        <v>338</v>
+      </c>
+      <c r="E76" s="331" t="s">
+        <v>321</v>
+      </c>
+      <c r="F76" s="331"/>
+      <c r="G76" s="332">
+        <v>500</v>
+      </c>
+      <c r="H76" s="333"/>
+    </row>
+    <row r="77" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B77" s="270"/>
+      <c r="C77" s="266"/>
+      <c r="D77" s="272" t="s">
+        <v>339</v>
+      </c>
+      <c r="E77" s="315" t="s">
         <v>324</v>
       </c>
-      <c r="F60" s="316"/>
-      <c r="G60" s="321">
-        <v>500</v>
-      </c>
-      <c r="H60" s="318"/>
-    </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B61" s="287"/>
-      <c r="C61" s="267"/>
-      <c r="D61" s="275" t="s">
-        <v>327</v>
-      </c>
-      <c r="E61" s="316" t="s">
-        <v>328</v>
-      </c>
-      <c r="F61" s="316"/>
-      <c r="G61" s="321">
-        <v>5000</v>
-      </c>
-      <c r="H61" s="318"/>
-    </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B62" s="377"/>
-      <c r="C62" s="378"/>
-      <c r="D62" s="379"/>
-      <c r="E62" s="316"/>
-      <c r="F62" s="316"/>
-      <c r="G62" s="321"/>
-      <c r="H62" s="318"/>
-    </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B63" s="287"/>
-      <c r="C63" s="266" t="s">
-        <v>329</v>
-      </c>
-      <c r="D63" s="275"/>
-      <c r="E63" s="316"/>
-      <c r="F63" s="316"/>
-      <c r="G63" s="321"/>
-      <c r="H63" s="318"/>
-    </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B64" s="287"/>
-      <c r="C64" s="267"/>
-      <c r="D64" s="275" t="s">
-        <v>330</v>
-      </c>
-      <c r="E64" s="316" t="s">
-        <v>331</v>
-      </c>
-      <c r="F64" s="316"/>
-      <c r="G64" s="321">
-        <v>1500</v>
-      </c>
-      <c r="H64" s="318"/>
-    </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B65" s="271"/>
-      <c r="C65" s="267"/>
-      <c r="D65" s="275" t="s">
-        <v>332</v>
-      </c>
-      <c r="E65" s="316" t="s">
-        <v>331</v>
-      </c>
-      <c r="F65" s="316"/>
-      <c r="G65" s="321">
-        <v>1500</v>
-      </c>
-      <c r="H65" s="318"/>
-    </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B66" s="271"/>
-      <c r="C66" s="267"/>
-      <c r="D66" s="275" t="s">
-        <v>333</v>
-      </c>
-      <c r="E66" s="316" t="s">
-        <v>79</v>
-      </c>
-      <c r="F66" s="316"/>
-      <c r="G66" s="321">
-        <v>500</v>
-      </c>
-      <c r="H66" s="318"/>
-    </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B67" s="271"/>
-      <c r="C67" s="267"/>
-      <c r="D67" s="275" t="s">
-        <v>334</v>
-      </c>
-      <c r="E67" s="322" t="s">
-        <v>335</v>
-      </c>
-      <c r="F67" s="322"/>
-      <c r="G67" s="323">
+      <c r="F77" s="315"/>
+      <c r="G77" s="320">
         <v>250</v>
       </c>
-      <c r="H67" s="324"/>
-    </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B68" s="271"/>
-      <c r="C68" s="267"/>
-      <c r="D68" s="273" t="s">
-        <v>336</v>
-      </c>
-      <c r="E68" s="316" t="s">
-        <v>337</v>
-      </c>
-      <c r="F68" s="316"/>
-      <c r="G68" s="321">
-        <v>500</v>
-      </c>
-      <c r="H68" s="318"/>
-    </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B69" s="270"/>
-      <c r="C69" s="268"/>
-      <c r="D69" s="325"/>
-      <c r="E69" s="326"/>
-      <c r="F69" s="327"/>
-      <c r="G69" s="328"/>
-      <c r="H69" s="329"/>
-    </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B70" s="271"/>
-      <c r="C70" s="266" t="s">
-        <v>338</v>
-      </c>
-      <c r="D70" s="275"/>
-      <c r="E70" s="326"/>
-      <c r="F70" s="327"/>
-      <c r="G70" s="328"/>
-      <c r="H70" s="329"/>
-    </row>
-    <row r="71" spans="2:8" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="271"/>
-      <c r="C71" s="267"/>
-      <c r="D71" s="273" t="s">
-        <v>339</v>
-      </c>
-      <c r="E71" s="380" t="s">
+      <c r="H77" s="330"/>
+    </row>
+    <row r="78" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B78" s="270"/>
+      <c r="C78" s="266"/>
+      <c r="D78" s="272" t="s">
         <v>340</v>
       </c>
-      <c r="F71" s="380"/>
-      <c r="G71" s="380"/>
-      <c r="H71" s="381"/>
-    </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B72" s="271"/>
-      <c r="C72" s="267"/>
-      <c r="D72" s="273" t="s">
+      <c r="E78" s="321" t="s">
+        <v>324</v>
+      </c>
+      <c r="F78" s="321"/>
+      <c r="G78" s="322">
+        <v>250</v>
+      </c>
+      <c r="H78" s="334"/>
+    </row>
+    <row r="79" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B79" s="270"/>
+      <c r="C79" s="266"/>
+      <c r="D79" s="272" t="s">
         <v>341</v>
       </c>
-      <c r="E72" s="361" t="s">
-        <v>340</v>
-      </c>
-      <c r="F72" s="361"/>
-      <c r="G72" s="361"/>
-      <c r="H72" s="362"/>
-    </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B73" s="270"/>
-      <c r="C73" s="268"/>
-      <c r="D73" s="325"/>
-      <c r="E73" s="330"/>
-      <c r="F73" s="272"/>
-      <c r="G73" s="328"/>
-      <c r="H73" s="329"/>
-    </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B74" s="271"/>
-      <c r="C74" s="266" t="s">
+      <c r="E79" s="362" t="s">
         <v>342</v>
       </c>
-      <c r="D74" s="275"/>
-      <c r="E74" s="326"/>
-      <c r="F74" s="327"/>
-      <c r="G74" s="328"/>
-      <c r="H74" s="329"/>
-    </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B75" s="271"/>
-      <c r="C75" s="267"/>
-      <c r="D75" s="273" t="s">
+      <c r="F79" s="362"/>
+      <c r="G79" s="362"/>
+      <c r="H79" s="363"/>
+    </row>
+    <row r="80" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B80" s="269"/>
+      <c r="C80" s="267"/>
+      <c r="D80" s="324"/>
+      <c r="E80" s="325"/>
+      <c r="F80" s="326"/>
+      <c r="G80" s="335"/>
+      <c r="H80" s="336"/>
+    </row>
+    <row r="81" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B81" s="337"/>
+      <c r="C81" s="338"/>
+      <c r="D81" s="339" t="s">
         <v>343</v>
       </c>
-      <c r="E75" s="316" t="s">
+      <c r="E81" s="340"/>
+      <c r="F81" s="341"/>
+      <c r="G81" s="342"/>
+      <c r="H81" s="343"/>
+    </row>
+    <row r="82" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B82" s="344" t="s">
         <v>344</v>
       </c>
-      <c r="F75" s="316"/>
-      <c r="G75" s="321">
-        <v>500</v>
-      </c>
-      <c r="H75" s="331"/>
-    </row>
-    <row r="76" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B76" s="271"/>
-      <c r="C76" s="267"/>
-      <c r="D76" s="273" t="s">
-        <v>345</v>
-      </c>
-      <c r="E76" s="332" t="s">
-        <v>328</v>
-      </c>
-      <c r="F76" s="332"/>
-      <c r="G76" s="333">
-        <v>500</v>
-      </c>
-      <c r="H76" s="334"/>
-    </row>
-    <row r="77" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B77" s="271"/>
-      <c r="C77" s="267"/>
-      <c r="D77" s="273" t="s">
-        <v>346</v>
-      </c>
-      <c r="E77" s="316" t="s">
-        <v>331</v>
-      </c>
-      <c r="F77" s="316"/>
-      <c r="G77" s="321">
-        <v>250</v>
-      </c>
-      <c r="H77" s="331"/>
-    </row>
-    <row r="78" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B78" s="271"/>
-      <c r="C78" s="267"/>
-      <c r="D78" s="273" t="s">
-        <v>347</v>
-      </c>
-      <c r="E78" s="322" t="s">
-        <v>331</v>
-      </c>
-      <c r="F78" s="322"/>
-      <c r="G78" s="323">
-        <v>250</v>
-      </c>
-      <c r="H78" s="335"/>
-    </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B79" s="271"/>
-      <c r="C79" s="267"/>
-      <c r="D79" s="273" t="s">
-        <v>348</v>
-      </c>
-      <c r="E79" s="363" t="s">
-        <v>349</v>
-      </c>
-      <c r="F79" s="363"/>
-      <c r="G79" s="363"/>
-      <c r="H79" s="364"/>
-    </row>
-    <row r="80" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B80" s="270"/>
-      <c r="C80" s="268"/>
-      <c r="D80" s="325"/>
-      <c r="E80" s="326"/>
-      <c r="F80" s="327"/>
-      <c r="G80" s="336"/>
-      <c r="H80" s="337"/>
-    </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B81" s="338"/>
-      <c r="C81" s="339"/>
-      <c r="D81" s="340" t="s">
-        <v>350</v>
-      </c>
-      <c r="E81" s="341"/>
-      <c r="F81" s="342"/>
-      <c r="G81" s="343"/>
-      <c r="H81" s="344"/>
-    </row>
-    <row r="82" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B82" s="345" t="s">
-        <v>351</v>
-      </c>
-      <c r="C82" s="346"/>
-      <c r="D82" s="347"/>
-      <c r="E82" s="348"/>
-      <c r="F82" s="348"/>
-      <c r="G82" s="349"/>
-      <c r="H82" s="350">
+      <c r="C82" s="345"/>
+      <c r="D82" s="346"/>
+      <c r="E82" s="347"/>
+      <c r="F82" s="347"/>
+      <c r="G82" s="348"/>
+      <c r="H82" s="349">
         <f>SUM(H21,H38,H56)</f>
         <v>90000</v>
       </c>
@@ -7162,10 +8642,6 @@
     <mergeCell ref="B62:D62"/>
     <mergeCell ref="E71:H71"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="E30" location="'Study Profiles'!A1" display="'Study Profiles'!A1" xr:uid="{87F07DDE-D40E-4401-ACEB-D51B0520BB13}"/>
-    <hyperlink ref="E29" location="'Patient Profile'!A1" display="Patient Profile" xr:uid="{B802ED34-72A6-475B-A363-12CD51E73064}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/templates_xlsx/template_full.xlsx
+++ b/templates_xlsx/template_full.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MichaelChen\AppData\Local\Programs\Python\Python312\budget_proposal - Copy\templates_xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MichaelChen\AppData\Local\Programs\Python\Python312\budget_proposal_auto_formula\templates_xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0313B19-2C4B-4A0B-BEBB-E25C43DC8E8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68494065-2224-4437-B0C9-CBF002DC729C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{20B4707C-B100-4A46-8BB4-CCB0641CFCE7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{20B4707C-B100-4A46-8BB4-CCB0641CFCE7}"/>
   </bookViews>
   <sheets>
     <sheet name="Study Information" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
     <definedName name="crf_pages_withdrawn">'Study Information'!$B$76</definedName>
     <definedName name="CSR_TLF">#REF!</definedName>
     <definedName name="data_review_listings">'Study Information'!$B$72</definedName>
-    <definedName name="dropout_rate">#REF!</definedName>
+    <definedName name="dropout_rate">'Study Information'!$B$7</definedName>
     <definedName name="DSUR">#REF!</definedName>
     <definedName name="dsur_report_listings">'Study Information'!$B$58</definedName>
     <definedName name="dsur_report_tables">'Study Information'!$B$57</definedName>
@@ -77,15 +77,17 @@
     <definedName name="patient_profile">'Study Information'!$B$65</definedName>
     <definedName name="prog_support_requests">'Study Information'!$B$68</definedName>
     <definedName name="protocol_deviation_check">'Study Information'!$B$73</definedName>
-    <definedName name="screen_failure_rate">#REF!</definedName>
+    <definedName name="screen_failure_rate">'Study Information'!$B$8</definedName>
     <definedName name="sdtm_dmc_fr">'Study Information'!$B$36</definedName>
     <definedName name="sdtm_fr">'Study Information'!$B$37</definedName>
     <definedName name="sdtm_sd">'Study Information'!$B$35</definedName>
     <definedName name="SDTM_Standardization">#REF!</definedName>
     <definedName name="sdtm_tdd">'Study Information'!$B$34</definedName>
+    <definedName name="sponsor">'Study Information'!$B$3</definedName>
     <definedName name="SRT_Adhoc">#REF!</definedName>
     <definedName name="start_dur">'Study Information'!$B$21</definedName>
     <definedName name="stat_support_requests">'Study Information'!$B$67</definedName>
+    <definedName name="study_number">'Study Information'!$B$4</definedName>
     <definedName name="subj_dur">'Study Information'!$B$23</definedName>
     <definedName name="tlf_dmc_fr">'Study Information'!$B$53</definedName>
     <definedName name="tlf_final_fr">'Study Information'!$B$55</definedName>
@@ -161,9 +163,6 @@
     <t>Dropout Rate</t>
   </si>
   <si>
-    <t>Please derive this from protocol or we will assume a percentage</t>
-  </si>
-  <si>
     <t>Study Conduct Activity</t>
   </si>
   <si>
@@ -1443,6 +1442,9 @@
   </si>
   <si>
     <t>Full refreshes (IA)</t>
+  </si>
+  <si>
+    <t>Screen Failure Rate</t>
   </si>
 </sst>
 </file>
@@ -2340,7 +2342,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="456">
+  <cellXfs count="455">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2361,9 +2363,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="3"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3337,87 +3336,6 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="36" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="36" fillId="0" borderId="20" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="16" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="22" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="17" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="22" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="17" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="166" fontId="42" fillId="0" borderId="9" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="42" fillId="0" borderId="10" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="42" fillId="0" borderId="21" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="16" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="46" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -3498,19 +3416,6 @@
     <xf numFmtId="6" fontId="49" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -3576,15 +3481,6 @@
     <xf numFmtId="0" fontId="16" fillId="21" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="51" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -3595,7 +3491,7 @@
     <xf numFmtId="6" fontId="49" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="7" fontId="51" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="7" fontId="51" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3606,6 +3502,111 @@
     </xf>
     <xf numFmtId="6" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="36" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="36" fillId="0" borderId="20" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="16" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="22" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="17" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="22" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="17" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="42" fillId="0" borderId="9" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="42" fillId="0" borderId="10" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="42" fillId="0" borderId="21" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="16" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -3950,8 +3951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DA76FB6-84D1-457D-BDD9-D6A1E1668C49}">
   <dimension ref="A1:D102"/>
   <sheetViews>
-    <sheetView topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="B65" sqref="B65"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3997,798 +3998,798 @@
       <c r="B6" s="2"/>
       <c r="C6" s="3"/>
     </row>
-    <row r="7" spans="1:3" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
+    <row r="7" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="454" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="3" t="s">
+      <c r="B7" s="9"/>
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="3"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="3"/>
-    </row>
-    <row r="9" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="12" t="s">
+      <c r="B9" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="C9" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="14" t="s">
+    </row>
+    <row r="10" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="138" t="s">
+        <v>101</v>
+      </c>
+      <c r="B10" s="139"/>
+      <c r="C10" s="140"/>
+    </row>
+    <row r="11" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="141" t="s">
+        <v>102</v>
+      </c>
+      <c r="B11" s="35"/>
+      <c r="C11" s="36"/>
+    </row>
+    <row r="12" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="141" t="s">
+        <v>103</v>
+      </c>
+      <c r="B12" s="35"/>
+      <c r="C12" s="36"/>
+    </row>
+    <row r="13" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="142" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="139" t="s">
-        <v>102</v>
-      </c>
-      <c r="B10" s="140"/>
-      <c r="C10" s="141"/>
-    </row>
-    <row r="11" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="142" t="s">
-        <v>103</v>
-      </c>
-      <c r="B11" s="36"/>
-      <c r="C11" s="37"/>
-    </row>
-    <row r="12" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="142" t="s">
+      <c r="B13" s="143"/>
+      <c r="C13" s="140"/>
+    </row>
+    <row r="14" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="141" t="s">
         <v>104</v>
       </c>
-      <c r="B12" s="36"/>
-      <c r="C12" s="37"/>
-    </row>
-    <row r="13" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="143" t="s">
+      <c r="B14" s="35"/>
+      <c r="C14" s="36"/>
+    </row>
+    <row r="15" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="141" t="s">
+        <v>105</v>
+      </c>
+      <c r="B15" s="35"/>
+      <c r="C15" s="36" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="141" t="s">
+        <v>107</v>
+      </c>
+      <c r="B16" s="35"/>
+      <c r="C16" s="36" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="144"/>
-      <c r="C13" s="141"/>
-    </row>
-    <row r="14" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="142" t="s">
-        <v>105</v>
-      </c>
-      <c r="B14" s="36"/>
-      <c r="C14" s="37"/>
-    </row>
-    <row r="15" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="142" t="s">
-        <v>106</v>
-      </c>
-      <c r="B15" s="36"/>
-      <c r="C15" s="37" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="142" t="s">
+      <c r="B17" s="144"/>
+      <c r="C17" s="36"/>
+    </row>
+    <row r="18" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="35"/>
+      <c r="C18" s="36" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="35"/>
+      <c r="C19" s="36" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="145" t="s">
         <v>108</v>
       </c>
-      <c r="B16" s="36"/>
-      <c r="C16" s="37" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" s="145"/>
-      <c r="C17" s="37"/>
-    </row>
-    <row r="18" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" s="36"/>
-      <c r="C18" s="37" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="38" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" s="36"/>
-      <c r="C19" s="37" t="s">
+      <c r="B20" s="143"/>
+      <c r="C20" s="140"/>
+    </row>
+    <row r="21" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="146" t="s">
+        <v>109</v>
+      </c>
+      <c r="B21" s="35"/>
+      <c r="C21" s="36" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="146" t="s">
+        <v>110</v>
+      </c>
+      <c r="B22" s="147"/>
+      <c r="C22" s="36" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="146" t="s">
+        <v>111</v>
+      </c>
+      <c r="B23" s="35"/>
+      <c r="C23" s="36"/>
+    </row>
+    <row r="24" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="146" t="s">
+        <v>112</v>
+      </c>
+      <c r="B24" s="35"/>
+      <c r="C24" s="36"/>
+    </row>
+    <row r="25" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="146" t="s">
+        <v>113</v>
+      </c>
+      <c r="B25" s="35"/>
+      <c r="C25" s="36"/>
+    </row>
+    <row r="26" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="146" t="s">
+        <v>114</v>
+      </c>
+      <c r="B26" s="35">
+        <f>SUM(B22:B24)</f>
+        <v>0</v>
+      </c>
+      <c r="C26" s="36"/>
+    </row>
+    <row r="27" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="146" t="s">
+        <v>115</v>
+      </c>
+      <c r="B27" s="35"/>
+      <c r="C27" s="36" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="17" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="146" t="s">
-        <v>109</v>
-      </c>
-      <c r="B20" s="144"/>
-      <c r="C20" s="141"/>
-    </row>
-    <row r="21" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="147" t="s">
-        <v>110</v>
-      </c>
-      <c r="B21" s="36"/>
-      <c r="C21" s="37" t="s">
+      <c r="B28" s="18"/>
+      <c r="C28" s="19"/>
+    </row>
+    <row r="29" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29" s="16"/>
+      <c r="C29" s="21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" s="23"/>
+      <c r="C30" s="24"/>
+    </row>
+    <row r="31" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31" s="16"/>
+      <c r="C31" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B32" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="B33" s="28">
+        <f>SUM(B34:B35)</f>
+        <v>0</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34" s="16"/>
+      <c r="C34" s="30"/>
+    </row>
+    <row r="35" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35" s="16"/>
+      <c r="C35" s="30"/>
+    </row>
+    <row r="36" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B36" s="16"/>
+      <c r="C36" s="15"/>
+    </row>
+    <row r="37" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" s="16"/>
+      <c r="C37" s="15"/>
+    </row>
+    <row r="38" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="B38" s="16"/>
+      <c r="C38" s="30" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B39" s="28">
+        <f>SUM(B40:B41)</f>
+        <v>0</v>
+      </c>
+      <c r="C39" s="30"/>
+    </row>
+    <row r="40" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B40" s="16"/>
+      <c r="C40" s="30" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B41" s="16"/>
+      <c r="C41" s="30" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B42" s="16"/>
+      <c r="C42" s="15"/>
+    </row>
+    <row r="43" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B43" s="16"/>
+      <c r="C43" s="15"/>
+    </row>
+    <row r="44" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B44" s="16"/>
+      <c r="C44" s="30" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B45" s="28">
+        <f>SUM(B47:B52)</f>
+        <v>0</v>
+      </c>
+      <c r="C45" s="15"/>
+    </row>
+    <row r="46" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B46" s="16">
+        <f>SUM(B47, B49, B51)</f>
+        <v>0</v>
+      </c>
+      <c r="C46" s="15"/>
+    </row>
+    <row r="47" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B47" s="32"/>
+      <c r="C47" s="30" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="B48" s="32"/>
+      <c r="C48" s="30" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="B49" s="32"/>
+      <c r="C49" s="30" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="B50" s="32"/>
+      <c r="C50" s="30" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="B51" s="32"/>
+      <c r="C51" s="30" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="B52" s="32"/>
+      <c r="C52" s="30" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="B53" s="32"/>
+      <c r="C53" s="30" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="33" t="s">
+        <v>419</v>
+      </c>
+      <c r="B54" s="32"/>
+      <c r="C54" s="30"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="33" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="147" t="s">
-        <v>111</v>
-      </c>
-      <c r="B22" s="148"/>
-      <c r="C22" s="37" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="147" t="s">
-        <v>112</v>
-      </c>
-      <c r="B23" s="36"/>
-      <c r="C23" s="37"/>
-    </row>
-    <row r="24" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="147" t="s">
-        <v>113</v>
-      </c>
-      <c r="B24" s="36"/>
-      <c r="C24" s="37"/>
-    </row>
-    <row r="25" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="147" t="s">
-        <v>114</v>
-      </c>
-      <c r="B25" s="36"/>
-      <c r="C25" s="37"/>
-    </row>
-    <row r="26" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="147" t="s">
-        <v>115</v>
-      </c>
-      <c r="B26" s="36">
-        <f>SUM(B22:B24)</f>
-        <v>0</v>
-      </c>
-      <c r="C26" s="37"/>
-    </row>
-    <row r="27" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="147" t="s">
-        <v>116</v>
-      </c>
-      <c r="B27" s="36"/>
-      <c r="C27" s="37" t="s">
+      <c r="B55" s="32"/>
+      <c r="C55" s="15"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="B56" s="35"/>
+      <c r="C56" s="36"/>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="B57" s="35"/>
+      <c r="C57" s="36"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="B58" s="35"/>
+      <c r="C58" s="36"/>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="B59" s="35"/>
+      <c r="C59" s="36"/>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="C60" s="36"/>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="B61" s="35"/>
+      <c r="C61" s="36"/>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="B62" s="35"/>
+      <c r="C62" s="36"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="B63" s="35"/>
+      <c r="C63" s="36"/>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="B64" s="35"/>
+      <c r="C64" s="36"/>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="B65" s="35"/>
+      <c r="C65" s="36"/>
+    </row>
+    <row r="66" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A66" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="B66" s="35"/>
+      <c r="C66" s="36"/>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="B67" s="35"/>
+      <c r="C67" s="36"/>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="B68" s="35"/>
+      <c r="C68" s="36"/>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="B69" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C69" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A70" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B70" s="9"/>
+      <c r="C70" s="15"/>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" s="149" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="B28" s="19"/>
-      <c r="C28" s="20"/>
-    </row>
-    <row r="29" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="B29" s="17"/>
-      <c r="C29" s="22" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="B30" s="24"/>
-      <c r="C30" s="25"/>
-    </row>
-    <row r="31" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="15" t="s">
+      <c r="B71" s="150" t="s">
+        <v>6</v>
+      </c>
+      <c r="C71" s="151" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A72" s="127" t="s">
+        <v>118</v>
+      </c>
+      <c r="B72" s="152"/>
+      <c r="C72" s="127" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" s="127" t="s">
+        <v>119</v>
+      </c>
+      <c r="B73" s="152"/>
+      <c r="C73" s="127" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" s="127" t="s">
+        <v>120</v>
+      </c>
+      <c r="B74" s="152"/>
+      <c r="C74" s="127"/>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" s="127" t="s">
+        <v>121</v>
+      </c>
+      <c r="B75" s="152"/>
+      <c r="C75" s="127" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" s="127" t="s">
+        <v>122</v>
+      </c>
+      <c r="B76" s="152"/>
+      <c r="C76" s="127"/>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" s="127" t="s">
+        <v>123</v>
+      </c>
+      <c r="B77" s="153"/>
+      <c r="C77" s="127"/>
+    </row>
+    <row r="78" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A78" s="127" t="s">
+        <v>124</v>
+      </c>
+      <c r="B78" s="152"/>
+      <c r="C78" s="127"/>
+    </row>
+    <row r="79" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A79" s="127" t="s">
+        <v>125</v>
+      </c>
+      <c r="B79" s="152"/>
+      <c r="C79" s="127"/>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" s="127" t="s">
+        <v>126</v>
+      </c>
+      <c r="B80" s="153"/>
+      <c r="C80" s="127"/>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" s="127" t="s">
+        <v>127</v>
+      </c>
+      <c r="B81" s="152"/>
+      <c r="C81" s="127" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A82" s="127" t="s">
+        <v>128</v>
+      </c>
+      <c r="B82" s="152"/>
+      <c r="C82" s="127"/>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" s="127" t="s">
+        <v>129</v>
+      </c>
+      <c r="B83" s="152"/>
+      <c r="C83" s="127"/>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" s="127" t="s">
+        <v>130</v>
+      </c>
+      <c r="B84" s="154"/>
+      <c r="C84" s="127"/>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" s="155" t="s">
+        <v>131</v>
+      </c>
+      <c r="B85" s="35"/>
+      <c r="C85" s="127" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A86" s="156" t="s">
+        <v>133</v>
+      </c>
+      <c r="B86" s="35"/>
+      <c r="C86" s="127" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A87" s="156" t="s">
+        <v>134</v>
+      </c>
+      <c r="B87" s="35"/>
+      <c r="C87" s="127" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" s="149" t="s">
+        <v>135</v>
+      </c>
+      <c r="B88" s="150" t="s">
+        <v>6</v>
+      </c>
+      <c r="C88" s="151" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" s="127" t="s">
+        <v>136</v>
+      </c>
+      <c r="B89" s="152"/>
+      <c r="C89" s="127" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A90" s="127" t="s">
+        <v>138</v>
+      </c>
+      <c r="B90" s="152"/>
+      <c r="C90" s="127" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" s="127" t="s">
+        <v>140</v>
+      </c>
+      <c r="B91" s="152"/>
+      <c r="C91" s="127" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A92" s="127" t="s">
+        <v>141</v>
+      </c>
+      <c r="B92" s="152"/>
+      <c r="C92" s="127" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" s="149" t="s">
+        <v>143</v>
+      </c>
+      <c r="B93" s="150" t="s">
+        <v>6</v>
+      </c>
+      <c r="C93" s="151" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" s="127" t="s">
+        <v>144</v>
+      </c>
+      <c r="B94" s="152"/>
+      <c r="C94" s="127" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" s="157" t="s">
+        <v>53</v>
+      </c>
+      <c r="B95" s="158" t="s">
+        <v>6</v>
+      </c>
+      <c r="C95" s="137" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A96" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="B96" s="159"/>
+      <c r="C96" s="36"/>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97" s="36" t="s">
+        <v>146</v>
+      </c>
+      <c r="B97" s="159"/>
+      <c r="C97" s="36"/>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98" s="353" t="s">
+        <v>344</v>
+      </c>
+      <c r="B98" s="354" t="s">
+        <v>6</v>
+      </c>
+      <c r="C98" s="355" t="s">
+        <v>7</v>
+      </c>
+      <c r="D98" s="356"/>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99" s="155" t="s">
+        <v>345</v>
+      </c>
+      <c r="B99" s="357"/>
+      <c r="C99" s="358" t="s">
         <v>19</v>
       </c>
-      <c r="B31" s="17"/>
-      <c r="C31" s="16" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="B32" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" s="14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="B33" s="29">
-        <f>SUM(B34:B35)</f>
-        <v>0</v>
-      </c>
-      <c r="C33" s="16" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="B34" s="17"/>
-      <c r="C34" s="31"/>
-    </row>
-    <row r="35" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="B35" s="17"/>
-      <c r="C35" s="31"/>
-    </row>
-    <row r="36" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" s="17"/>
-      <c r="C36" s="16"/>
-    </row>
-    <row r="37" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="B37" s="17"/>
-      <c r="C37" s="16"/>
-    </row>
-    <row r="38" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="B38" s="17"/>
-      <c r="C38" s="31" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="B39" s="29">
-        <f>SUM(B40:B41)</f>
-        <v>0</v>
-      </c>
-      <c r="C39" s="31"/>
-    </row>
-    <row r="40" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="B40" s="17"/>
-      <c r="C40" s="31" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="B41" s="17"/>
-      <c r="C41" s="31" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="B42" s="17"/>
-      <c r="C42" s="16"/>
-    </row>
-    <row r="43" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="B43" s="17"/>
-      <c r="C43" s="16"/>
-    </row>
-    <row r="44" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="B44" s="17"/>
-      <c r="C44" s="31" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="B45" s="29">
-        <f>SUM(B47:B52)</f>
-        <v>0</v>
-      </c>
-      <c r="C45" s="16"/>
-    </row>
-    <row r="46" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="B46" s="17">
-        <f>SUM(B47, B49, B51)</f>
-        <v>0</v>
-      </c>
-      <c r="C46" s="16"/>
-    </row>
-    <row r="47" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="B47" s="33"/>
-      <c r="C47" s="31" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="B48" s="33"/>
-      <c r="C48" s="31" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="B49" s="33"/>
-      <c r="C49" s="31" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="B50" s="33"/>
-      <c r="C50" s="31" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="B51" s="33"/>
-      <c r="C51" s="31" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="B52" s="33"/>
-      <c r="C52" s="31" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="B53" s="33"/>
-      <c r="C53" s="31" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" s="34" t="s">
-        <v>420</v>
-      </c>
-      <c r="B54" s="33"/>
-      <c r="C54" s="31"/>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="B55" s="33"/>
-      <c r="C55" s="16"/>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" s="35" t="s">
-        <v>44</v>
-      </c>
-      <c r="B56" s="36"/>
-      <c r="C56" s="37"/>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" s="38" t="s">
-        <v>45</v>
-      </c>
-      <c r="B57" s="36"/>
-      <c r="C57" s="37"/>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" s="38" t="s">
-        <v>46</v>
-      </c>
-      <c r="B58" s="36"/>
-      <c r="C58" s="37"/>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="B59" s="36"/>
-      <c r="C59" s="37"/>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="C60" s="37"/>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" s="38" t="s">
-        <v>45</v>
-      </c>
-      <c r="B61" s="36"/>
-      <c r="C61" s="37"/>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62" s="38" t="s">
-        <v>46</v>
-      </c>
-      <c r="B62" s="36"/>
-      <c r="C62" s="37"/>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="B63" s="36"/>
-      <c r="C63" s="37"/>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="B64" s="36"/>
-      <c r="C64" s="37"/>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" s="38" t="s">
-        <v>50</v>
-      </c>
-      <c r="B65" s="36"/>
-      <c r="C65" s="37"/>
-    </row>
-    <row r="66" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A66" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="B66" s="36"/>
-      <c r="C66" s="37"/>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="B67" s="36"/>
-      <c r="C67" s="37"/>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A68" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="B68" s="36"/>
-      <c r="C68" s="37"/>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A69" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="B69" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="C69" s="14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A70" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="B70" s="10"/>
-      <c r="C70" s="16"/>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A71" s="150" t="s">
-        <v>118</v>
-      </c>
-      <c r="B71" s="151" t="s">
-        <v>7</v>
-      </c>
-      <c r="C71" s="152" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A72" s="128" t="s">
-        <v>119</v>
-      </c>
-      <c r="B72" s="153"/>
-      <c r="C72" s="128" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73" s="128" t="s">
-        <v>120</v>
-      </c>
-      <c r="B73" s="153"/>
-      <c r="C73" s="128" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A74" s="128" t="s">
-        <v>121</v>
-      </c>
-      <c r="B74" s="153"/>
-      <c r="C74" s="128"/>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A75" s="128" t="s">
-        <v>122</v>
-      </c>
-      <c r="B75" s="153"/>
-      <c r="C75" s="128" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A76" s="128" t="s">
-        <v>123</v>
-      </c>
-      <c r="B76" s="153"/>
-      <c r="C76" s="128"/>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A77" s="128" t="s">
-        <v>124</v>
-      </c>
-      <c r="B77" s="154"/>
-      <c r="C77" s="128"/>
-    </row>
-    <row r="78" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A78" s="128" t="s">
-        <v>125</v>
-      </c>
-      <c r="B78" s="153"/>
-      <c r="C78" s="128"/>
-    </row>
-    <row r="79" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A79" s="128" t="s">
-        <v>126</v>
-      </c>
-      <c r="B79" s="153"/>
-      <c r="C79" s="128"/>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A80" s="128" t="s">
-        <v>127</v>
-      </c>
-      <c r="B80" s="154"/>
-      <c r="C80" s="128"/>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A81" s="128" t="s">
-        <v>128</v>
-      </c>
-      <c r="B81" s="153"/>
-      <c r="C81" s="128" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A82" s="128" t="s">
-        <v>129</v>
-      </c>
-      <c r="B82" s="153"/>
-      <c r="C82" s="128"/>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A83" s="128" t="s">
-        <v>130</v>
-      </c>
-      <c r="B83" s="153"/>
-      <c r="C83" s="128"/>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A84" s="128" t="s">
-        <v>131</v>
-      </c>
-      <c r="B84" s="155"/>
-      <c r="C84" s="128"/>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A85" s="156" t="s">
-        <v>132</v>
-      </c>
-      <c r="B85" s="36"/>
-      <c r="C85" s="128" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A86" s="157" t="s">
-        <v>134</v>
-      </c>
-      <c r="B86" s="36"/>
-      <c r="C86" s="128" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A87" s="157" t="s">
-        <v>135</v>
-      </c>
-      <c r="B87" s="36"/>
-      <c r="C87" s="128" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A88" s="150" t="s">
-        <v>136</v>
-      </c>
-      <c r="B88" s="151" t="s">
-        <v>7</v>
-      </c>
-      <c r="C88" s="152" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A89" s="128" t="s">
-        <v>137</v>
-      </c>
-      <c r="B89" s="153"/>
-      <c r="C89" s="128" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A90" s="128" t="s">
-        <v>139</v>
-      </c>
-      <c r="B90" s="153"/>
-      <c r="C90" s="128" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A91" s="128" t="s">
-        <v>141</v>
-      </c>
-      <c r="B91" s="153"/>
-      <c r="C91" s="128" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A92" s="128" t="s">
-        <v>142</v>
-      </c>
-      <c r="B92" s="153"/>
-      <c r="C92" s="128" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A93" s="150" t="s">
-        <v>144</v>
-      </c>
-      <c r="B93" s="151" t="s">
-        <v>7</v>
-      </c>
-      <c r="C93" s="152" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A94" s="128" t="s">
-        <v>145</v>
-      </c>
-      <c r="B94" s="153"/>
-      <c r="C94" s="128" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A95" s="158" t="s">
-        <v>54</v>
-      </c>
-      <c r="B95" s="159" t="s">
-        <v>7</v>
-      </c>
-      <c r="C95" s="138" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A96" s="37" t="s">
-        <v>146</v>
-      </c>
-      <c r="B96" s="160"/>
-      <c r="C96" s="37"/>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A97" s="37" t="s">
-        <v>147</v>
-      </c>
-      <c r="B97" s="160"/>
-      <c r="C97" s="37"/>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A98" s="381" t="s">
-        <v>345</v>
-      </c>
-      <c r="B98" s="382" t="s">
-        <v>7</v>
-      </c>
-      <c r="C98" s="383" t="s">
-        <v>8</v>
-      </c>
-      <c r="D98" s="384"/>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A99" s="156" t="s">
+      <c r="D99" s="356"/>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A100" s="155" t="s">
         <v>346</v>
       </c>
-      <c r="B99" s="385"/>
-      <c r="C99" s="386" t="s">
-        <v>20</v>
-      </c>
-      <c r="D99" s="384"/>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A100" s="156" t="s">
+      <c r="B100" s="359"/>
+      <c r="C100" s="358" t="s">
+        <v>19</v>
+      </c>
+      <c r="D100" s="356"/>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101" s="155" t="s">
         <v>347</v>
       </c>
-      <c r="B100" s="387"/>
-      <c r="C100" s="386" t="s">
-        <v>20</v>
-      </c>
-      <c r="D100" s="384"/>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A101" s="156" t="s">
+      <c r="B101" s="360"/>
+      <c r="C101" s="155"/>
+      <c r="D101" s="356"/>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A102" s="155" t="s">
         <v>348</v>
       </c>
-      <c r="B101" s="388"/>
-      <c r="C101" s="156"/>
-      <c r="D101" s="384"/>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A102" s="156" t="s">
-        <v>349</v>
-      </c>
-      <c r="B102" s="388"/>
-      <c r="C102" s="156"/>
-      <c r="D102" s="384"/>
+      <c r="B102" s="360"/>
+      <c r="C102" s="155"/>
+      <c r="D102" s="356"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4797,10 +4798,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{493603F5-0B96-455F-BB1E-DEF5B790632C}">
-  <dimension ref="A1:C58"/>
+  <dimension ref="A1:B58"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4809,346 +4810,346 @@
     <col min="2" max="2" width="62" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="414" t="s">
+    <row r="1" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="381" t="s">
+        <v>391</v>
+      </c>
+      <c r="B1" s="364"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="361"/>
+      <c r="B2" s="364"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="382"/>
+      <c r="B3" s="383"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="384" t="s">
         <v>392</v>
       </c>
-      <c r="B1" s="392"/>
-      <c r="C1" s="413"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="389"/>
-      <c r="B2" s="392"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="415"/>
-      <c r="B3" s="416"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="417" t="s">
+      <c r="B4" s="385"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="382"/>
+      <c r="B5" s="385"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="386" t="s">
         <v>393</v>
       </c>
-      <c r="B4" s="418"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="415"/>
-      <c r="B5" s="418"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="419" t="s">
+      <c r="B6" s="387" t="s">
         <v>394</v>
       </c>
-      <c r="B6" s="420" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="421" t="s">
-        <v>252</v>
-      </c>
-      <c r="B7" s="422">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="388" t="s">
+        <v>251</v>
+      </c>
+      <c r="B7" s="389">
         <f>IFERROR('Project Management'!E4, 0)</f>
         <v>13000</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="417" t="s">
-        <v>396</v>
-      </c>
-      <c r="B8" s="423">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="384" t="s">
+        <v>395</v>
+      </c>
+      <c r="B8" s="390">
         <f>B7</f>
         <v>13000</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="415"/>
-      <c r="B9" s="418"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="417" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="382"/>
+      <c r="B9" s="385"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="384" t="s">
+        <v>396</v>
+      </c>
+      <c r="B10" s="361"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="382"/>
+      <c r="B11" s="361"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="391" t="s">
         <v>397</v>
       </c>
-      <c r="B10" s="389"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="415"/>
-      <c r="B11" s="389"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="424" t="s">
-        <v>398</v>
-      </c>
-      <c r="B12" s="425" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="426" t="s">
-        <v>350</v>
-      </c>
-      <c r="B13" s="427">
+      <c r="B12" s="392" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="393" t="s">
+        <v>349</v>
+      </c>
+      <c r="B13" s="394">
         <f>IFERROR('eClinical Setup'!F24, 0)</f>
         <v>153400</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="426" t="s">
-        <v>148</v>
-      </c>
-      <c r="B14" s="427">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="393" t="s">
+        <v>147</v>
+      </c>
+      <c r="B14" s="394">
         <f>IFERROR('Clinical Data Management'!F44, 0)</f>
         <v>38200</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="428" t="s">
-        <v>396</v>
-      </c>
-      <c r="B15" s="429">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="395" t="s">
+        <v>395</v>
+      </c>
+      <c r="B15" s="396">
         <f>SUM(B13:B14)</f>
         <v>191600</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="389"/>
-      <c r="B16" s="404"/>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="361"/>
+      <c r="B16" s="376"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="417" t="s">
+      <c r="A17" s="384" t="s">
+        <v>398</v>
+      </c>
+      <c r="B17" s="376"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="382"/>
+      <c r="B18" s="398"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="391" t="s">
         <v>399</v>
       </c>
-      <c r="B17" s="404"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="415"/>
-      <c r="B18" s="431"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="424" t="s">
-        <v>400</v>
-      </c>
-      <c r="B19" s="425" t="s">
+      <c r="B19" s="392" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="399" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" s="394">
+        <f>IFERROR('Biostatistics and Programming'!E4, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="399" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" s="394">
+        <f>IFERROR('Biostatistics and Programming'!E9, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="399" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" s="394">
+        <f>IFERROR('Biostatistics and Programming'!E15, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="399" t="s">
+        <v>75</v>
+      </c>
+      <c r="B23" s="394">
+        <f>IFERROR('Biostatistics and Programming'!E21, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="399" t="s">
+        <v>81</v>
+      </c>
+      <c r="B24" s="394">
+        <f>IFERROR('Biostatistics and Programming'!E33, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="399" t="s">
+        <v>85</v>
+      </c>
+      <c r="B25" s="394">
+        <f>IFERROR('Biostatistics and Programming'!E38, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="399" t="s">
+        <v>409</v>
+      </c>
+      <c r="B26" s="394">
+        <f>IFERROR('Biostatistics and Programming'!E41, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="399" t="s">
+        <v>410</v>
+      </c>
+      <c r="B27" s="394">
+        <f>IFERROR('Biostatistics and Programming'!E45, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="399" t="s">
+        <v>94</v>
+      </c>
+      <c r="B28" s="394">
+        <f>IFERROR('Biostatistics and Programming'!E49, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="395" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="432" t="s">
-        <v>61</v>
-      </c>
-      <c r="B20" s="427">
-        <f>IFERROR('Biostatistics and Programming'!E4, 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="432" t="s">
-        <v>65</v>
-      </c>
-      <c r="B21" s="427">
-        <f>IFERROR('Biostatistics and Programming'!E9, 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="432" t="s">
-        <v>72</v>
-      </c>
-      <c r="B22" s="427">
-        <f>IFERROR('Biostatistics and Programming'!E15, 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="432" t="s">
-        <v>76</v>
-      </c>
-      <c r="B23" s="427">
-        <f>IFERROR('Biostatistics and Programming'!E21, 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="432" t="s">
-        <v>82</v>
-      </c>
-      <c r="B24" s="427">
-        <f>IFERROR('Biostatistics and Programming'!E33, 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="432" t="s">
-        <v>86</v>
-      </c>
-      <c r="B25" s="427">
-        <f>IFERROR('Biostatistics and Programming'!E38, 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="432" t="s">
-        <v>410</v>
-      </c>
-      <c r="B26" s="427">
-        <f>IFERROR('Biostatistics and Programming'!E41, 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="432" t="s">
-        <v>411</v>
-      </c>
-      <c r="B27" s="427">
-        <f>IFERROR('Biostatistics and Programming'!E45, 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="432" t="s">
-        <v>95</v>
-      </c>
-      <c r="B28" s="427">
-        <f>IFERROR('Biostatistics and Programming'!E49, 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="428" t="s">
-        <v>396</v>
-      </c>
-      <c r="B29" s="429">
+      <c r="B29" s="396">
         <f>SUM(B20:B28)</f>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="389"/>
-      <c r="B30" s="404"/>
+      <c r="A30" s="361"/>
+      <c r="B30" s="376"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="417" t="s">
-        <v>414</v>
-      </c>
-      <c r="B31" s="392"/>
+      <c r="A31" s="384" t="s">
+        <v>413</v>
+      </c>
+      <c r="B31" s="364"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="424" t="s">
+      <c r="A33" s="391" t="s">
+        <v>416</v>
+      </c>
+      <c r="B33" s="392" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="411" t="s">
         <v>417</v>
       </c>
-      <c r="B33" s="425" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="447" t="s">
-        <v>418</v>
-      </c>
-      <c r="B34" s="449">
+      <c r="B34" s="413">
         <f>IFERROR('CONFORM Informatics'!H82, 0)</f>
         <v>90000</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="428" t="s">
-        <v>396</v>
-      </c>
-      <c r="B35" s="429">
+      <c r="A35" s="395" t="s">
+        <v>395</v>
+      </c>
+      <c r="B35" s="396">
         <f>SUM(B34)</f>
         <v>90000</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="450"/>
-      <c r="B36" s="451"/>
+      <c r="A36" s="414"/>
+      <c r="B36" s="415"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="448" t="s">
-        <v>401</v>
-      </c>
-      <c r="B37" s="452">
+      <c r="A37" s="412" t="s">
+        <v>400</v>
+      </c>
+      <c r="B37" s="416">
         <f>SUM(B8,B15,B29,B35)</f>
         <v>294600</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="428"/>
-      <c r="B38" s="389"/>
+      <c r="A38" s="395"/>
+      <c r="B38" s="361"/>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="428"/>
-      <c r="B39" s="389"/>
+      <c r="A39" s="395"/>
+      <c r="B39" s="361"/>
     </row>
     <row r="40" spans="1:2" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="433" t="s">
-        <v>392</v>
-      </c>
-      <c r="B40" s="430"/>
+      <c r="A40" s="400" t="s">
+        <v>391</v>
+      </c>
+      <c r="B40" s="397"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="434" t="s">
+      <c r="A41" s="401" t="s">
+        <v>401</v>
+      </c>
+      <c r="B41" s="402">
+        <f>SUM(B8,B15,B29,B35)</f>
+        <v>294600</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A48" s="403" t="s">
         <v>402</v>
       </c>
-      <c r="B41" s="435">
-        <v>2025861</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A48" s="436" t="s">
+      <c r="B48" s="404"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="395"/>
+      <c r="B49" s="361"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="378"/>
+      <c r="B50" s="361"/>
+    </row>
+    <row r="51" spans="1:2" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A51" s="405"/>
+      <c r="B51" s="379"/>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="361"/>
+      <c r="B52" s="379"/>
+    </row>
+    <row r="53" spans="1:2" ht="115.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="406" t="s">
         <v>403</v>
       </c>
-      <c r="B48" s="437"/>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" s="428"/>
-      <c r="B49" s="389"/>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" s="406"/>
-      <c r="B50" s="389"/>
-    </row>
-    <row r="51" spans="1:2" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A51" s="438"/>
-      <c r="B51" s="407"/>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" s="389"/>
-      <c r="B52" s="407"/>
-    </row>
-    <row r="53" spans="1:2" ht="115.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="439" t="s">
+      <c r="B53" s="364"/>
+    </row>
+    <row r="54" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="407" t="s">
         <v>404</v>
       </c>
-      <c r="B53" s="392"/>
-    </row>
-    <row r="54" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="440" t="s">
+      <c r="B54" s="420"/>
+    </row>
+    <row r="55" spans="1:2" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="408" t="s">
         <v>405</v>
       </c>
-      <c r="B54" s="443"/>
-    </row>
-    <row r="55" spans="1:2" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="441" t="s">
+      <c r="B55" s="421"/>
+    </row>
+    <row r="56" spans="1:2" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="408" t="s">
         <v>406</v>
       </c>
-      <c r="B55" s="444"/>
-    </row>
-    <row r="56" spans="1:2" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="441" t="s">
+      <c r="B56" s="421"/>
+    </row>
+    <row r="57" spans="1:2" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="408" t="s">
         <v>407</v>
       </c>
-      <c r="B56" s="444"/>
-    </row>
-    <row r="57" spans="1:2" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="441" t="s">
+      <c r="B57" s="421"/>
+    </row>
+    <row r="58" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A58" s="409" t="s">
         <v>408</v>
       </c>
-      <c r="B57" s="444"/>
-    </row>
-    <row r="58" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A58" s="442" t="s">
-        <v>409</v>
-      </c>
-      <c r="B58" s="445"/>
+      <c r="B58" s="422"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5162,7 +5163,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9CCC714-F1CA-4447-8DC7-009E1C781FE3}">
   <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="95" workbookViewId="0">
+    <sheetView zoomScale="95" workbookViewId="0">
       <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
@@ -5172,811 +5173,811 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="41"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="44"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="45"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="423"/>
+      <c r="D2" s="423"/>
+      <c r="E2" s="423"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="45"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="46"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="354"/>
-      <c r="D2" s="354"/>
-      <c r="E2" s="354"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="47" t="s">
+      <c r="B3" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="48" t="s">
+      <c r="C3" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="48" t="s">
+      <c r="E3" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="E3" s="50" t="s">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="50" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="51" t="s">
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="52">
+        <f>SUM(E5:E7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="53">
-        <f>SUM(E5:E7)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="54" t="s">
+      <c r="B5" s="54" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="55" t="s">
+      <c r="C5" s="55"/>
+      <c r="D5" s="56">
+        <v>180</v>
+      </c>
+      <c r="E5" s="57">
+        <f>C5*D5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="53" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="54" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="55">
+        <f>prog_support_requests</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="56">
+        <v>105</v>
+      </c>
+      <c r="E6" s="57">
+        <f>C6*D6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="53" t="s">
         <v>63</v>
       </c>
-      <c r="C5" s="56"/>
-      <c r="D5" s="57">
-        <v>180</v>
-      </c>
-      <c r="E5" s="58">
-        <f>C5*D5</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="54" t="s">
-        <v>53</v>
-      </c>
-      <c r="B6" s="55" t="s">
-        <v>63</v>
-      </c>
-      <c r="C6" s="56">
-        <f>prog_support_requests</f>
-        <v>0</v>
-      </c>
-      <c r="D6" s="57">
-        <v>105</v>
-      </c>
-      <c r="E6" s="58">
-        <f>C6*D6</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="54" t="s">
+      <c r="B7" s="54" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="55">
+        <f>stat_support_requests</f>
+        <v>0</v>
+      </c>
+      <c r="D7" s="56">
+        <v>150</v>
+      </c>
+      <c r="E7" s="57">
+        <f>C7*D7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="58"/>
+      <c r="B8" s="59"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="61"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="62" t="s">
         <v>64</v>
       </c>
-      <c r="B7" s="55" t="s">
-        <v>63</v>
-      </c>
-      <c r="C7" s="56">
-        <f>stat_support_requests</f>
-        <v>0</v>
-      </c>
-      <c r="D7" s="57">
-        <v>150</v>
-      </c>
-      <c r="E7" s="58">
-        <f>C7*D7</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="59"/>
-      <c r="B8" s="60"/>
-      <c r="C8" s="60"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="62"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="63" t="s">
+      <c r="B9" s="63"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="66">
+        <f>SUM(E12:E13)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="67" t="s">
         <v>65</v>
       </c>
-      <c r="B9" s="64"/>
-      <c r="C9" s="65"/>
-      <c r="D9" s="66"/>
-      <c r="E9" s="67">
-        <f>SUM(E12:E13)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="68" t="s">
+      <c r="B10" s="68" t="s">
         <v>66</v>
       </c>
-      <c r="B10" s="69" t="s">
+      <c r="C10" s="55">
+        <f>sdtm_tdd</f>
+        <v>0</v>
+      </c>
+      <c r="D10" s="69">
+        <v>650</v>
+      </c>
+      <c r="E10" s="57">
+        <f t="shared" ref="E10:E11" si="0">C10*D10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="67" t="s">
         <v>67</v>
       </c>
-      <c r="C10" s="56">
-        <f>sdtm_tdd</f>
-        <v>0</v>
-      </c>
-      <c r="D10" s="70">
-        <v>650</v>
-      </c>
-      <c r="E10" s="58">
-        <f t="shared" ref="E10:E11" si="0">C10*D10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="68" t="s">
+      <c r="B11" s="68" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="55">
+        <f>sdtm_sd</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="69">
+        <v>1300</v>
+      </c>
+      <c r="E11" s="57">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="70" t="s">
         <v>68</v>
       </c>
-      <c r="B11" s="69" t="s">
-        <v>67</v>
-      </c>
-      <c r="C11" s="56">
-        <f>sdtm_sd</f>
-        <v>0</v>
-      </c>
-      <c r="D11" s="70">
-        <v>1300</v>
-      </c>
-      <c r="E11" s="58">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="71" t="s">
+      <c r="B12" s="71"/>
+      <c r="C12" s="72">
+        <f>SUM(C10:C11)</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="73"/>
+      <c r="E12" s="74">
+        <f>SUM(E10:E11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="75" t="s">
         <v>69</v>
       </c>
-      <c r="B12" s="72"/>
-      <c r="C12" s="73">
-        <f>SUM(C10:C11)</f>
-        <v>0</v>
-      </c>
-      <c r="D12" s="74"/>
-      <c r="E12" s="75">
-        <f>SUM(E10:E11)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="76" t="s">
+      <c r="B13" s="76" t="s">
         <v>70</v>
       </c>
-      <c r="B13" s="77" t="s">
+      <c r="C13" s="32">
+        <f>sdtm_fr</f>
+        <v>0</v>
+      </c>
+      <c r="D13" s="77">
+        <v>1500</v>
+      </c>
+      <c r="E13" s="57">
+        <f>C13*D13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="78"/>
+      <c r="B14" s="79"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="79"/>
+      <c r="E14" s="78"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="80" t="s">
         <v>71</v>
       </c>
-      <c r="C13" s="33">
-        <f>sdtm_fr</f>
-        <v>0</v>
-      </c>
-      <c r="D13" s="78">
-        <v>1500</v>
-      </c>
-      <c r="E13" s="58">
-        <f>C13*D13</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="79"/>
-      <c r="B14" s="80"/>
-      <c r="C14" s="60"/>
-      <c r="D14" s="80"/>
-      <c r="E14" s="79"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="81" t="s">
+      <c r="B15" s="81"/>
+      <c r="C15" s="82"/>
+      <c r="D15" s="83"/>
+      <c r="E15" s="84">
+        <f>SUM(E18:E19)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="67" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="68" t="s">
         <v>72</v>
       </c>
-      <c r="B15" s="82"/>
-      <c r="C15" s="83"/>
-      <c r="D15" s="84"/>
-      <c r="E15" s="85">
-        <f>SUM(E18:E19)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="68" t="s">
+      <c r="C16" s="55">
+        <f>adam_simp</f>
+        <v>0</v>
+      </c>
+      <c r="D16" s="69">
+        <v>2350</v>
+      </c>
+      <c r="E16" s="57">
+        <f>C16*D16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="69" t="s">
+      <c r="B17" s="68" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" s="55">
+        <f>adam_compl</f>
+        <v>0</v>
+      </c>
+      <c r="D17" s="69">
+        <v>3200</v>
+      </c>
+      <c r="E17" s="57">
+        <f>C17*D17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="70" t="s">
         <v>73</v>
       </c>
-      <c r="C16" s="56">
-        <f>adam_simp</f>
-        <v>0</v>
-      </c>
-      <c r="D16" s="70">
-        <v>2350</v>
-      </c>
-      <c r="E16" s="58">
-        <f>C16*D16</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="68" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" s="69" t="s">
-        <v>73</v>
-      </c>
-      <c r="C17" s="56">
-        <f>adam_compl</f>
-        <v>0</v>
-      </c>
-      <c r="D17" s="70">
-        <v>3200</v>
-      </c>
-      <c r="E17" s="58">
-        <f>C17*D17</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="71" t="s">
+      <c r="B18" s="71"/>
+      <c r="C18" s="72">
+        <f>SUM(C16:C17)</f>
+        <v>0</v>
+      </c>
+      <c r="D18" s="73"/>
+      <c r="E18" s="74">
+        <f>SUM(E16:E17)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="75" t="s">
         <v>74</v>
       </c>
-      <c r="B18" s="72"/>
-      <c r="C18" s="73">
-        <f>SUM(C16:C17)</f>
-        <v>0</v>
-      </c>
-      <c r="D18" s="74"/>
-      <c r="E18" s="75">
-        <f>SUM(E16:E17)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="76" t="s">
+      <c r="B19" s="76" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" s="32">
+        <f>adam_fr</f>
+        <v>0</v>
+      </c>
+      <c r="D19" s="77">
+        <v>2000</v>
+      </c>
+      <c r="E19" s="57">
+        <f>C19*D19</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="85"/>
+      <c r="B20" s="86"/>
+      <c r="C20" s="87"/>
+      <c r="D20" s="88"/>
+      <c r="E20" s="89"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="80" t="s">
         <v>75</v>
       </c>
-      <c r="B19" s="77" t="s">
-        <v>71</v>
-      </c>
-      <c r="C19" s="33">
-        <f>adam_fr</f>
-        <v>0</v>
-      </c>
-      <c r="D19" s="78">
-        <v>2000</v>
-      </c>
-      <c r="E19" s="58">
-        <f>C19*D19</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="86"/>
-      <c r="B20" s="87"/>
-      <c r="C20" s="88"/>
-      <c r="D20" s="89"/>
-      <c r="E20" s="90"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="81" t="s">
+      <c r="B21" s="81"/>
+      <c r="C21" s="82"/>
+      <c r="D21" s="83"/>
+      <c r="E21" s="84">
+        <f>SUM(E28:E31)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="67" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="68" t="s">
         <v>76</v>
       </c>
-      <c r="B21" s="82"/>
-      <c r="C21" s="83"/>
-      <c r="D21" s="84"/>
-      <c r="E21" s="85">
-        <f>SUM(E28:E31)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="68" t="s">
+      <c r="C22" s="55">
+        <f>tlf_final_unique_tables</f>
+        <v>0</v>
+      </c>
+      <c r="D22" s="69">
+        <v>950</v>
+      </c>
+      <c r="E22" s="57">
+        <f>C22*D22</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="67" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="69" t="s">
+      <c r="B23" s="68" t="s">
+        <v>76</v>
+      </c>
+      <c r="C23" s="55">
+        <f>tlf_final_repeat_tables</f>
+        <v>0</v>
+      </c>
+      <c r="D23" s="69">
+        <v>350</v>
+      </c>
+      <c r="E23" s="57">
+        <f>C23*D23</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="67" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="C22" s="56">
-        <f>tlf_final_unique_tables</f>
-        <v>0</v>
-      </c>
-      <c r="D22" s="70">
-        <v>950</v>
-      </c>
-      <c r="E22" s="58">
-        <f>C22*D22</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="68" t="s">
-        <v>37</v>
-      </c>
-      <c r="B23" s="69" t="s">
+      <c r="C24" s="55">
+        <f>tlf_final_unique_figures</f>
+        <v>0</v>
+      </c>
+      <c r="D24" s="69">
+        <v>1000</v>
+      </c>
+      <c r="E24" s="57">
+        <f t="shared" ref="E24:E27" si="1">C24*D24</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="67" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="C23" s="56">
-        <f>tlf_final_repeat_tables</f>
-        <v>0</v>
-      </c>
-      <c r="D23" s="70">
-        <v>350</v>
-      </c>
-      <c r="E23" s="58">
-        <f>C23*D23</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="68" t="s">
-        <v>38</v>
-      </c>
-      <c r="B24" s="69" t="s">
+      <c r="C25" s="55">
+        <f>tlf_final_repeat_figures</f>
+        <v>0</v>
+      </c>
+      <c r="D25" s="69">
+        <v>375</v>
+      </c>
+      <c r="E25" s="57">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="67" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" s="68" t="s">
         <v>78</v>
       </c>
-      <c r="C24" s="56">
-        <f>tlf_final_unique_figures</f>
-        <v>0</v>
-      </c>
-      <c r="D24" s="70">
-        <v>1000</v>
-      </c>
-      <c r="E24" s="58">
-        <f t="shared" ref="E24:E27" si="1">C24*D24</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="68" t="s">
-        <v>39</v>
-      </c>
-      <c r="B25" s="69" t="s">
+      <c r="C26" s="55">
+        <f>tlf_final_unique_listings</f>
+        <v>0</v>
+      </c>
+      <c r="D26" s="69">
+        <v>690</v>
+      </c>
+      <c r="E26" s="57">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="67" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="68" t="s">
         <v>78</v>
       </c>
-      <c r="C25" s="56">
-        <f>tlf_final_repeat_figures</f>
-        <v>0</v>
-      </c>
-      <c r="D25" s="70">
-        <v>375</v>
-      </c>
-      <c r="E25" s="58">
+      <c r="C27" s="55">
+        <f>tlf_final_repeat_listings</f>
+        <v>0</v>
+      </c>
+      <c r="D27" s="69">
+        <v>250</v>
+      </c>
+      <c r="E27" s="57">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="68" t="s">
-        <v>40</v>
-      </c>
-      <c r="B26" s="69" t="s">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="70" t="s">
         <v>79</v>
       </c>
-      <c r="C26" s="56">
-        <f>tlf_final_unique_listings</f>
-        <v>0</v>
-      </c>
-      <c r="D26" s="70">
-        <v>690</v>
-      </c>
-      <c r="E26" s="58">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="68" t="s">
-        <v>41</v>
-      </c>
-      <c r="B27" s="69" t="s">
-        <v>79</v>
-      </c>
-      <c r="C27" s="56">
-        <f>tlf_final_repeat_listings</f>
-        <v>0</v>
-      </c>
-      <c r="D27" s="70">
-        <v>250</v>
-      </c>
-      <c r="E27" s="58">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="71" t="s">
-        <v>80</v>
-      </c>
-      <c r="B28" s="72"/>
-      <c r="C28" s="91">
+      <c r="B28" s="71"/>
+      <c r="C28" s="90">
         <f>SUM(C22:C27)</f>
         <v>0</v>
       </c>
-      <c r="D28" s="74"/>
-      <c r="E28" s="75">
+      <c r="D28" s="73"/>
+      <c r="E28" s="74">
         <f>SUM(E22:E27)</f>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="68" t="s">
+      <c r="A29" s="67" t="s">
+        <v>411</v>
+      </c>
+      <c r="B29" s="68" t="s">
         <v>412</v>
       </c>
-      <c r="B29" s="69" t="s">
-        <v>413</v>
-      </c>
-      <c r="C29" s="56">
+      <c r="C29" s="55">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="D29" s="70">
+      <c r="D29" s="69">
         <f>E28/2</f>
         <v>0</v>
       </c>
-      <c r="E29" s="58">
+      <c r="E29" s="57">
         <f>C29*D29</f>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="90" t="s">
-        <v>419</v>
-      </c>
-      <c r="B30" s="453" t="s">
-        <v>71</v>
-      </c>
-      <c r="C30" s="454">
+      <c r="A30" s="89" t="s">
+        <v>418</v>
+      </c>
+      <c r="B30" s="417" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30" s="418">
         <f>tlf_ia_fr</f>
         <v>0</v>
       </c>
-      <c r="D30" s="455">
+      <c r="D30" s="419">
         <v>5000</v>
       </c>
-      <c r="E30" s="58">
+      <c r="E30" s="57">
         <f>C30*D30</f>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="92" t="s">
+      <c r="A31" s="91" t="s">
+        <v>80</v>
+      </c>
+      <c r="B31" s="92" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31" s="93">
+        <f>tlf_final_fr</f>
+        <v>0</v>
+      </c>
+      <c r="D31" s="94">
+        <v>5000</v>
+      </c>
+      <c r="E31" s="57">
+        <f>C31*D31</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="95"/>
+      <c r="B32" s="96"/>
+      <c r="C32" s="97"/>
+      <c r="D32" s="98"/>
+      <c r="E32" s="99"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="80" t="s">
         <v>81</v>
       </c>
-      <c r="B31" s="93" t="s">
-        <v>71</v>
-      </c>
-      <c r="C31" s="94">
-        <f>tlf_final_fr</f>
-        <v>0</v>
-      </c>
-      <c r="D31" s="95">
+      <c r="B33" s="81"/>
+      <c r="C33" s="82"/>
+      <c r="D33" s="83"/>
+      <c r="E33" s="84">
+        <f>SUM(E34:E36)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="100" t="s">
+        <v>82</v>
+      </c>
+      <c r="B34" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" s="32">
+        <f>sdtm_dmc_fr</f>
+        <v>0</v>
+      </c>
+      <c r="D34" s="101">
+        <v>1500</v>
+      </c>
+      <c r="E34" s="57">
+        <f>C34*D34</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="100" t="s">
+        <v>83</v>
+      </c>
+      <c r="B35" s="102" t="s">
+        <v>70</v>
+      </c>
+      <c r="C35" s="32">
+        <f>adam_dmc_fr</f>
+        <v>0</v>
+      </c>
+      <c r="D35" s="101">
+        <v>2000</v>
+      </c>
+      <c r="E35" s="57">
+        <f>C35*D35</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="100" t="s">
+        <v>84</v>
+      </c>
+      <c r="B36" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="C36" s="32">
+        <f>tlf_dmc_fr</f>
+        <v>0</v>
+      </c>
+      <c r="D36" s="101">
         <v>5000</v>
       </c>
-      <c r="E31" s="58">
-        <f>C31*D31</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="96"/>
-      <c r="B32" s="97"/>
-      <c r="C32" s="98"/>
-      <c r="D32" s="99"/>
-      <c r="E32" s="100"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="81" t="s">
-        <v>82</v>
-      </c>
-      <c r="B33" s="82"/>
-      <c r="C33" s="83"/>
-      <c r="D33" s="84"/>
-      <c r="E33" s="85">
-        <f>SUM(E34:E36)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="101" t="s">
-        <v>83</v>
-      </c>
-      <c r="B34" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="C34" s="33">
-        <f>sdtm_dmc_fr</f>
-        <v>0</v>
-      </c>
-      <c r="D34" s="102">
-        <v>1500</v>
-      </c>
-      <c r="E34" s="58">
-        <f>C34*D34</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="101" t="s">
-        <v>84</v>
-      </c>
-      <c r="B35" s="103" t="s">
-        <v>71</v>
-      </c>
-      <c r="C35" s="33">
-        <f>adam_dmc_fr</f>
-        <v>0</v>
-      </c>
-      <c r="D35" s="102">
-        <v>2000</v>
-      </c>
-      <c r="E35" s="58">
-        <f>C35*D35</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="101" t="s">
+      <c r="E36" s="57">
+        <f>C36*D36</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="103"/>
+      <c r="B37" s="104"/>
+      <c r="C37" s="105"/>
+      <c r="D37" s="104"/>
+      <c r="E37" s="103"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="80" t="s">
         <v>85</v>
       </c>
-      <c r="B36" s="44" t="s">
-        <v>71</v>
-      </c>
-      <c r="C36" s="33">
-        <f>tlf_dmc_fr</f>
-        <v>0</v>
-      </c>
-      <c r="D36" s="102">
+      <c r="B38" s="106"/>
+      <c r="C38" s="107"/>
+      <c r="D38" s="108"/>
+      <c r="E38" s="84">
+        <f>E39</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="53" t="s">
+        <v>86</v>
+      </c>
+      <c r="B39" s="76" t="s">
+        <v>87</v>
+      </c>
+      <c r="C39" s="55">
+        <f>num_meetings</f>
+        <v>0</v>
+      </c>
+      <c r="D39" s="77">
+        <v>500</v>
+      </c>
+      <c r="E39" s="57">
+        <f>C39*D39</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="109"/>
+      <c r="B40" s="79"/>
+      <c r="C40" s="110"/>
+      <c r="D40" s="111"/>
+      <c r="E40" s="112"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="80" t="s">
+        <v>88</v>
+      </c>
+      <c r="B41" s="106"/>
+      <c r="C41" s="107"/>
+      <c r="D41" s="108"/>
+      <c r="E41" s="84">
+        <f>SUM(E42:E43)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A42" s="53" t="s">
+        <v>89</v>
+      </c>
+      <c r="B42" s="76" t="s">
+        <v>70</v>
+      </c>
+      <c r="C42" s="55">
+        <f>dsur_years</f>
+        <v>0</v>
+      </c>
+      <c r="D42" s="77">
+        <v>3000</v>
+      </c>
+      <c r="E42" s="57">
+        <f>C42*D42</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A43" s="53" t="s">
+        <v>90</v>
+      </c>
+      <c r="B43" s="76" t="s">
+        <v>70</v>
+      </c>
+      <c r="C43" s="55">
+        <f>dsur_years</f>
+        <v>0</v>
+      </c>
+      <c r="D43" s="77">
         <v>5000</v>
       </c>
-      <c r="E36" s="58">
-        <f>C36*D36</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="104"/>
-      <c r="B37" s="105"/>
-      <c r="C37" s="106"/>
-      <c r="D37" s="105"/>
-      <c r="E37" s="104"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="81" t="s">
-        <v>86</v>
-      </c>
-      <c r="B38" s="107"/>
-      <c r="C38" s="108"/>
-      <c r="D38" s="109"/>
-      <c r="E38" s="85">
-        <f>E39</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="54" t="s">
-        <v>87</v>
-      </c>
-      <c r="B39" s="77" t="s">
-        <v>88</v>
-      </c>
-      <c r="C39" s="56">
-        <f>num_meetings</f>
-        <v>0</v>
-      </c>
-      <c r="D39" s="78">
+      <c r="E43" s="57">
+        <f>C43*D43</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="109"/>
+      <c r="B44" s="79"/>
+      <c r="C44" s="110"/>
+      <c r="D44" s="111"/>
+      <c r="E44" s="112"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="80" t="s">
+        <v>91</v>
+      </c>
+      <c r="B45" s="106"/>
+      <c r="C45" s="107"/>
+      <c r="D45" s="108"/>
+      <c r="E45" s="84">
+        <f>SUM(E46:E47)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="113" t="s">
+        <v>92</v>
+      </c>
+      <c r="B46" s="114" t="s">
+        <v>70</v>
+      </c>
+      <c r="C46" s="115">
+        <f>investigator_years</f>
+        <v>0</v>
+      </c>
+      <c r="D46" s="116">
+        <v>5000</v>
+      </c>
+      <c r="E46" s="57">
+        <f>C46*D46</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="113" t="s">
+        <v>93</v>
+      </c>
+      <c r="B47" s="114" t="s">
+        <v>70</v>
+      </c>
+      <c r="C47" s="115">
+        <f>investigator_years</f>
+        <v>0</v>
+      </c>
+      <c r="D47" s="116">
+        <v>5000</v>
+      </c>
+      <c r="E47" s="57">
+        <f>C47*D47</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="117"/>
+      <c r="B48" s="118"/>
+      <c r="C48" s="119"/>
+      <c r="D48" s="120"/>
+      <c r="E48" s="121"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="122" t="s">
+        <v>94</v>
+      </c>
+      <c r="B49" s="123"/>
+      <c r="C49" s="124"/>
+      <c r="D49" s="125"/>
+      <c r="E49" s="126">
+        <f>SUM(E50:E52)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A50" s="127" t="s">
+        <v>95</v>
+      </c>
+      <c r="B50" s="128" t="s">
+        <v>96</v>
+      </c>
+      <c r="C50" s="129">
+        <f>patient_profile</f>
+        <v>0</v>
+      </c>
+      <c r="D50" s="130">
+        <v>100</v>
+      </c>
+      <c r="E50" s="57">
+        <f t="shared" ref="E50:E52" si="2">C50*D50</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A51" s="127" t="s">
+        <v>97</v>
+      </c>
+      <c r="B51" s="128" t="s">
+        <v>96</v>
+      </c>
+      <c r="C51" s="129">
+        <f>patient_profile</f>
+        <v>0</v>
+      </c>
+      <c r="D51" s="130">
         <v>500</v>
       </c>
-      <c r="E39" s="58">
-        <f>C39*D39</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="110"/>
-      <c r="B40" s="80"/>
-      <c r="C40" s="111"/>
-      <c r="D40" s="112"/>
-      <c r="E40" s="113"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="81" t="s">
-        <v>89</v>
-      </c>
-      <c r="B41" s="107"/>
-      <c r="C41" s="108"/>
-      <c r="D41" s="109"/>
-      <c r="E41" s="85">
-        <f>SUM(E42:E43)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A42" s="54" t="s">
-        <v>90</v>
-      </c>
-      <c r="B42" s="77" t="s">
-        <v>71</v>
-      </c>
-      <c r="C42" s="56">
-        <f>dsur_years</f>
-        <v>0</v>
-      </c>
-      <c r="D42" s="78">
-        <v>3000</v>
-      </c>
-      <c r="E42" s="58">
-        <f>C42*D42</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A43" s="54" t="s">
-        <v>91</v>
-      </c>
-      <c r="B43" s="77" t="s">
-        <v>71</v>
-      </c>
-      <c r="C43" s="56">
-        <f>dsur_years</f>
-        <v>0</v>
-      </c>
-      <c r="D43" s="78">
-        <v>5000</v>
-      </c>
-      <c r="E43" s="58">
-        <f>C43*D43</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="110"/>
-      <c r="B44" s="80"/>
-      <c r="C44" s="111"/>
-      <c r="D44" s="112"/>
-      <c r="E44" s="113"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="81" t="s">
-        <v>92</v>
-      </c>
-      <c r="B45" s="107"/>
-      <c r="C45" s="108"/>
-      <c r="D45" s="109"/>
-      <c r="E45" s="85">
-        <f>SUM(E46:E47)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="114" t="s">
-        <v>93</v>
-      </c>
-      <c r="B46" s="115" t="s">
-        <v>71</v>
-      </c>
-      <c r="C46" s="116">
-        <f>investigator_years</f>
-        <v>0</v>
-      </c>
-      <c r="D46" s="117">
-        <v>5000</v>
-      </c>
-      <c r="E46" s="58">
-        <f>C46*D46</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="114" t="s">
-        <v>94</v>
-      </c>
-      <c r="B47" s="115" t="s">
-        <v>71</v>
-      </c>
-      <c r="C47" s="116">
-        <f>investigator_years</f>
-        <v>0</v>
-      </c>
-      <c r="D47" s="117">
-        <v>5000</v>
-      </c>
-      <c r="E47" s="58">
-        <f>C47*D47</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="118"/>
-      <c r="B48" s="119"/>
-      <c r="C48" s="120"/>
-      <c r="D48" s="121"/>
-      <c r="E48" s="122"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="123" t="s">
-        <v>95</v>
-      </c>
-      <c r="B49" s="124"/>
-      <c r="C49" s="125"/>
-      <c r="D49" s="126"/>
-      <c r="E49" s="127">
-        <f>SUM(E50:E52)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A50" s="128" t="s">
-        <v>96</v>
-      </c>
-      <c r="B50" s="129" t="s">
-        <v>97</v>
-      </c>
-      <c r="C50" s="130">
-        <f>patient_profile</f>
-        <v>0</v>
-      </c>
-      <c r="D50" s="131">
+      <c r="E51" s="57">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A52" s="127" t="s">
+        <v>98</v>
+      </c>
+      <c r="B52" s="128" t="s">
+        <v>99</v>
+      </c>
+      <c r="C52" s="129">
+        <f>total_dur</f>
+        <v>0</v>
+      </c>
+      <c r="D52" s="130">
+        <v>500</v>
+      </c>
+      <c r="E52" s="57">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="117"/>
+      <c r="B53" s="118"/>
+      <c r="C53" s="119"/>
+      <c r="D53" s="120"/>
+      <c r="E53" s="121"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="131" t="s">
         <v>100</v>
       </c>
-      <c r="E50" s="58">
-        <f t="shared" ref="E50:E52" si="2">C50*D50</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A51" s="128" t="s">
-        <v>98</v>
-      </c>
-      <c r="B51" s="129" t="s">
-        <v>97</v>
-      </c>
-      <c r="C51" s="130">
-        <f>patient_profile</f>
-        <v>0</v>
-      </c>
-      <c r="D51" s="131">
-        <v>500</v>
-      </c>
-      <c r="E51" s="58">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A52" s="128" t="s">
-        <v>99</v>
-      </c>
-      <c r="B52" s="129" t="s">
-        <v>100</v>
-      </c>
-      <c r="C52" s="130">
-        <f>total_dur</f>
-        <v>0</v>
-      </c>
-      <c r="D52" s="131">
-        <v>500</v>
-      </c>
-      <c r="E52" s="58">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="118"/>
-      <c r="B53" s="119"/>
-      <c r="C53" s="120"/>
-      <c r="D53" s="121"/>
-      <c r="E53" s="122"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="132" t="s">
-        <v>101</v>
-      </c>
-      <c r="B54" s="133"/>
-      <c r="C54" s="134"/>
-      <c r="D54" s="133"/>
-      <c r="E54" s="135">
+      <c r="B54" s="132"/>
+      <c r="C54" s="133"/>
+      <c r="D54" s="132"/>
+      <c r="E54" s="134">
         <f>SUM(E4, E9, E15, E21, E33, E38, E41, E45, E49)</f>
         <v>0</v>
       </c>
@@ -5995,7 +5996,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ED3B6E4-C050-4017-B765-0D254B3EA43B}">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
@@ -6005,479 +6006,479 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="390" t="s">
+      <c r="A1" s="362" t="s">
+        <v>349</v>
+      </c>
+      <c r="B1" s="363"/>
+      <c r="C1" s="364"/>
+      <c r="D1" s="364"/>
+      <c r="E1" s="364"/>
+      <c r="F1" s="364"/>
+      <c r="G1" s="363"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="364"/>
+      <c r="B2" s="363"/>
+      <c r="C2" s="364"/>
+      <c r="D2" s="364"/>
+      <c r="E2" s="364"/>
+      <c r="F2" s="364"/>
+      <c r="G2" s="363"/>
+    </row>
+    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="424" t="s">
+        <v>148</v>
+      </c>
+      <c r="B3" s="425"/>
+      <c r="C3" s="365" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="365" t="s">
+        <v>149</v>
+      </c>
+      <c r="E3" s="365" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" s="365" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" s="365" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="426" t="s">
         <v>350</v>
       </c>
-      <c r="B1" s="391"/>
-      <c r="C1" s="392"/>
-      <c r="D1" s="392"/>
-      <c r="E1" s="392"/>
-      <c r="F1" s="392"/>
-      <c r="G1" s="391"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="392"/>
-      <c r="B2" s="391"/>
-      <c r="C2" s="392"/>
-      <c r="D2" s="392"/>
-      <c r="E2" s="392"/>
-      <c r="F2" s="392"/>
-      <c r="G2" s="391"/>
-    </row>
-    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="409" t="s">
-        <v>149</v>
-      </c>
-      <c r="B3" s="410"/>
-      <c r="C3" s="393" t="s">
-        <v>58</v>
-      </c>
-      <c r="D3" s="393" t="s">
-        <v>150</v>
-      </c>
-      <c r="E3" s="393" t="s">
-        <v>59</v>
-      </c>
-      <c r="F3" s="393" t="s">
-        <v>60</v>
-      </c>
-      <c r="G3" s="393" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="411" t="s">
+      <c r="B4" s="427"/>
+      <c r="C4" s="366"/>
+      <c r="D4" s="366"/>
+      <c r="E4" s="366"/>
+      <c r="F4" s="367">
+        <v>153400</v>
+      </c>
+      <c r="G4" s="368"/>
+    </row>
+    <row r="5" spans="1:7" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="369">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B5" s="155" t="s">
         <v>351</v>
       </c>
-      <c r="B4" s="412"/>
-      <c r="C4" s="394"/>
-      <c r="D4" s="394"/>
-      <c r="E4" s="394"/>
-      <c r="F4" s="395">
+      <c r="C5" s="369" t="s">
+        <v>352</v>
+      </c>
+      <c r="D5" s="369">
+        <f>num_unique_crf_pages</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="370">
+        <v>350</v>
+      </c>
+      <c r="F5" s="371">
+        <v>21000</v>
+      </c>
+      <c r="G5" s="155" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="369">
+        <v>1.2</v>
+      </c>
+      <c r="B6" s="155" t="s">
+        <v>351</v>
+      </c>
+      <c r="C6" s="369" t="s">
+        <v>354</v>
+      </c>
+      <c r="D6" s="369">
+        <f>crf_pages_complete</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="370">
+        <v>80</v>
+      </c>
+      <c r="F6" s="371">
+        <v>28000</v>
+      </c>
+      <c r="G6" s="155" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="369">
+        <v>1.3</v>
+      </c>
+      <c r="B7" s="155" t="s">
+        <v>356</v>
+      </c>
+      <c r="C7" s="369" t="s">
+        <v>352</v>
+      </c>
+      <c r="D7" s="369">
+        <f>num_unique_crf_pages</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="370">
+        <v>80</v>
+      </c>
+      <c r="F7" s="371">
+        <v>4800</v>
+      </c>
+      <c r="G7" s="155" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="369">
+        <v>1.4</v>
+      </c>
+      <c r="B8" s="155" t="s">
+        <v>358</v>
+      </c>
+      <c r="C8" s="369" t="s">
+        <v>354</v>
+      </c>
+      <c r="D8" s="369">
+        <f>crf_pages_complete</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="370">
+        <v>30</v>
+      </c>
+      <c r="F8" s="371">
+        <v>10500</v>
+      </c>
+      <c r="G8" s="155" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="372">
+        <v>1.5</v>
+      </c>
+      <c r="B9" s="373" t="s">
+        <v>360</v>
+      </c>
+      <c r="C9" s="372"/>
+      <c r="D9" s="372"/>
+      <c r="E9" s="372"/>
+      <c r="F9" s="374"/>
+      <c r="G9" s="373"/>
+    </row>
+    <row r="10" spans="1:7" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="369" t="s">
+        <v>361</v>
+      </c>
+      <c r="B10" s="375" t="s">
+        <v>362</v>
+      </c>
+      <c r="C10" s="369" t="s">
+        <v>363</v>
+      </c>
+      <c r="D10" s="369">
+        <f>num_unique_edit_checks</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="370">
+        <v>12</v>
+      </c>
+      <c r="F10" s="371">
+        <v>10800</v>
+      </c>
+      <c r="G10" s="155" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="369" t="s">
+        <v>365</v>
+      </c>
+      <c r="B11" s="375" t="s">
+        <v>366</v>
+      </c>
+      <c r="C11" s="369" t="s">
+        <v>363</v>
+      </c>
+      <c r="D11" s="369">
+        <f>num_unique_edit_checks</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="370">
+        <v>18</v>
+      </c>
+      <c r="F11" s="371">
+        <v>16200</v>
+      </c>
+      <c r="G11" s="155" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="369" t="s">
+        <v>367</v>
+      </c>
+      <c r="B12" s="375" t="s">
+        <v>368</v>
+      </c>
+      <c r="C12" s="369" t="s">
+        <v>363</v>
+      </c>
+      <c r="D12" s="369">
+        <f>num_unique_edit_checks</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="370">
+        <v>12</v>
+      </c>
+      <c r="F12" s="371">
+        <v>10800</v>
+      </c>
+      <c r="G12" s="155" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="372">
+        <v>1.6</v>
+      </c>
+      <c r="B13" s="373" t="s">
+        <v>370</v>
+      </c>
+      <c r="C13" s="372"/>
+      <c r="D13" s="372"/>
+      <c r="E13" s="372"/>
+      <c r="F13" s="374"/>
+      <c r="G13" s="373"/>
+    </row>
+    <row r="14" spans="1:7" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="369" t="s">
+        <v>371</v>
+      </c>
+      <c r="B14" s="375" t="s">
+        <v>372</v>
+      </c>
+      <c r="C14" s="369" t="s">
+        <v>363</v>
+      </c>
+      <c r="D14" s="369">
+        <f>num_dynamics</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="370">
+        <v>18</v>
+      </c>
+      <c r="F14" s="371">
+        <v>4500</v>
+      </c>
+      <c r="G14" s="155" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="369" t="s">
+        <v>374</v>
+      </c>
+      <c r="B15" s="375" t="s">
+        <v>375</v>
+      </c>
+      <c r="C15" s="369" t="s">
+        <v>363</v>
+      </c>
+      <c r="D15" s="369">
+        <f>num_dynamics</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="370">
+        <v>23</v>
+      </c>
+      <c r="F15" s="371">
+        <v>5750</v>
+      </c>
+      <c r="G15" s="155" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="369" t="s">
+        <v>376</v>
+      </c>
+      <c r="B16" s="375" t="s">
+        <v>377</v>
+      </c>
+      <c r="C16" s="369" t="s">
+        <v>363</v>
+      </c>
+      <c r="D16" s="369">
+        <f>num_dynamics</f>
+        <v>0</v>
+      </c>
+      <c r="E16" s="370">
+        <v>18</v>
+      </c>
+      <c r="F16" s="371">
+        <v>4500</v>
+      </c>
+      <c r="G16" s="155" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="372">
+        <v>1.7</v>
+      </c>
+      <c r="B17" s="373" t="s">
+        <v>379</v>
+      </c>
+      <c r="C17" s="372"/>
+      <c r="D17" s="372"/>
+      <c r="E17" s="372"/>
+      <c r="F17" s="374"/>
+      <c r="G17" s="373"/>
+    </row>
+    <row r="18" spans="1:7" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="369" t="s">
+        <v>380</v>
+      </c>
+      <c r="B18" s="375" t="s">
+        <v>381</v>
+      </c>
+      <c r="C18" s="369" t="s">
+        <v>363</v>
+      </c>
+      <c r="D18" s="369">
+        <f>num_custom_functions</f>
+        <v>0</v>
+      </c>
+      <c r="E18" s="370">
+        <v>25</v>
+      </c>
+      <c r="F18" s="371">
+        <v>1250</v>
+      </c>
+      <c r="G18" s="155" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="369" t="s">
+        <v>383</v>
+      </c>
+      <c r="B19" s="375" t="s">
+        <v>384</v>
+      </c>
+      <c r="C19" s="369" t="s">
+        <v>363</v>
+      </c>
+      <c r="D19" s="369">
+        <f>num_custom_functions</f>
+        <v>0</v>
+      </c>
+      <c r="E19" s="370">
+        <v>27</v>
+      </c>
+      <c r="F19" s="371">
+        <v>1350</v>
+      </c>
+      <c r="G19" s="155" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="369" t="s">
+        <v>385</v>
+      </c>
+      <c r="B20" s="375" t="s">
+        <v>386</v>
+      </c>
+      <c r="C20" s="369" t="s">
+        <v>363</v>
+      </c>
+      <c r="D20" s="369">
+        <f>num_custom_functions</f>
+        <v>0</v>
+      </c>
+      <c r="E20" s="370">
+        <v>23</v>
+      </c>
+      <c r="F20" s="371">
+        <v>1150</v>
+      </c>
+      <c r="G20" s="155" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="369">
+        <v>1.8</v>
+      </c>
+      <c r="B21" s="155" t="s">
+        <v>388</v>
+      </c>
+      <c r="C21" s="369" t="s">
+        <v>354</v>
+      </c>
+      <c r="D21" s="369">
+        <f>crf_pages_complete</f>
+        <v>0</v>
+      </c>
+      <c r="E21" s="370">
+        <v>80</v>
+      </c>
+      <c r="F21" s="371">
+        <v>28000</v>
+      </c>
+      <c r="G21" s="155" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="369">
+        <v>1.9</v>
+      </c>
+      <c r="B22" s="155" t="s">
+        <v>389</v>
+      </c>
+      <c r="C22" s="369" t="s">
+        <v>352</v>
+      </c>
+      <c r="D22" s="369">
+        <f>num_unique_crf_pages</f>
+        <v>0</v>
+      </c>
+      <c r="E22" s="370">
+        <v>80</v>
+      </c>
+      <c r="F22" s="371">
+        <v>4800</v>
+      </c>
+      <c r="G22" s="155" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="364"/>
+      <c r="B23" s="363"/>
+      <c r="C23" s="364"/>
+      <c r="D23" s="364"/>
+      <c r="E23" s="364"/>
+      <c r="F23" s="376"/>
+      <c r="G23" s="363"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="377" t="s">
+        <v>100</v>
+      </c>
+      <c r="B24" s="378"/>
+      <c r="C24" s="379"/>
+      <c r="D24" s="379"/>
+      <c r="E24" s="379"/>
+      <c r="F24" s="380">
         <v>153400</v>
       </c>
-      <c r="G4" s="396"/>
-    </row>
-    <row r="5" spans="1:7" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="397">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="B5" s="156" t="s">
-        <v>352</v>
-      </c>
-      <c r="C5" s="397" t="s">
-        <v>353</v>
-      </c>
-      <c r="D5" s="397">
-        <f>num_unique_crf_pages</f>
-        <v>0</v>
-      </c>
-      <c r="E5" s="398">
-        <v>350</v>
-      </c>
-      <c r="F5" s="399">
-        <v>21000</v>
-      </c>
-      <c r="G5" s="156" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="397">
-        <v>1.2</v>
-      </c>
-      <c r="B6" s="156" t="s">
-        <v>352</v>
-      </c>
-      <c r="C6" s="397" t="s">
-        <v>355</v>
-      </c>
-      <c r="D6" s="397">
-        <f>crf_pages_complete</f>
-        <v>0</v>
-      </c>
-      <c r="E6" s="398">
-        <v>80</v>
-      </c>
-      <c r="F6" s="399">
-        <v>28000</v>
-      </c>
-      <c r="G6" s="156" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="397">
-        <v>1.3</v>
-      </c>
-      <c r="B7" s="156" t="s">
-        <v>357</v>
-      </c>
-      <c r="C7" s="397" t="s">
-        <v>353</v>
-      </c>
-      <c r="D7" s="397">
-        <f>num_unique_crf_pages</f>
-        <v>0</v>
-      </c>
-      <c r="E7" s="398">
-        <v>80</v>
-      </c>
-      <c r="F7" s="399">
-        <v>4800</v>
-      </c>
-      <c r="G7" s="156" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="397">
-        <v>1.4</v>
-      </c>
-      <c r="B8" s="156" t="s">
-        <v>359</v>
-      </c>
-      <c r="C8" s="397" t="s">
-        <v>355</v>
-      </c>
-      <c r="D8" s="397">
-        <f>crf_pages_complete</f>
-        <v>0</v>
-      </c>
-      <c r="E8" s="398">
-        <v>30</v>
-      </c>
-      <c r="F8" s="399">
-        <v>10500</v>
-      </c>
-      <c r="G8" s="156" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="400">
-        <v>1.5</v>
-      </c>
-      <c r="B9" s="401" t="s">
-        <v>361</v>
-      </c>
-      <c r="C9" s="400"/>
-      <c r="D9" s="400"/>
-      <c r="E9" s="400"/>
-      <c r="F9" s="402"/>
-      <c r="G9" s="401"/>
-    </row>
-    <row r="10" spans="1:7" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="397" t="s">
-        <v>362</v>
-      </c>
-      <c r="B10" s="403" t="s">
-        <v>363</v>
-      </c>
-      <c r="C10" s="397" t="s">
-        <v>364</v>
-      </c>
-      <c r="D10" s="397">
-        <f>num_unique_edit_checks</f>
-        <v>0</v>
-      </c>
-      <c r="E10" s="398">
-        <v>12</v>
-      </c>
-      <c r="F10" s="399">
-        <v>10800</v>
-      </c>
-      <c r="G10" s="156" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="397" t="s">
-        <v>366</v>
-      </c>
-      <c r="B11" s="403" t="s">
-        <v>367</v>
-      </c>
-      <c r="C11" s="397" t="s">
-        <v>364</v>
-      </c>
-      <c r="D11" s="397">
-        <f>num_unique_edit_checks</f>
-        <v>0</v>
-      </c>
-      <c r="E11" s="398">
-        <v>18</v>
-      </c>
-      <c r="F11" s="399">
-        <v>16200</v>
-      </c>
-      <c r="G11" s="156" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="397" t="s">
-        <v>368</v>
-      </c>
-      <c r="B12" s="403" t="s">
-        <v>369</v>
-      </c>
-      <c r="C12" s="397" t="s">
-        <v>364</v>
-      </c>
-      <c r="D12" s="397">
-        <f>num_unique_edit_checks</f>
-        <v>0</v>
-      </c>
-      <c r="E12" s="398">
-        <v>12</v>
-      </c>
-      <c r="F12" s="399">
-        <v>10800</v>
-      </c>
-      <c r="G12" s="156" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="400">
-        <v>1.6</v>
-      </c>
-      <c r="B13" s="401" t="s">
-        <v>371</v>
-      </c>
-      <c r="C13" s="400"/>
-      <c r="D13" s="400"/>
-      <c r="E13" s="400"/>
-      <c r="F13" s="402"/>
-      <c r="G13" s="401"/>
-    </row>
-    <row r="14" spans="1:7" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="397" t="s">
-        <v>372</v>
-      </c>
-      <c r="B14" s="403" t="s">
-        <v>373</v>
-      </c>
-      <c r="C14" s="397" t="s">
-        <v>364</v>
-      </c>
-      <c r="D14" s="397">
-        <f>num_dynamics</f>
-        <v>0</v>
-      </c>
-      <c r="E14" s="398">
-        <v>18</v>
-      </c>
-      <c r="F14" s="399">
-        <v>4500</v>
-      </c>
-      <c r="G14" s="156" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="397" t="s">
-        <v>375</v>
-      </c>
-      <c r="B15" s="403" t="s">
-        <v>376</v>
-      </c>
-      <c r="C15" s="397" t="s">
-        <v>364</v>
-      </c>
-      <c r="D15" s="397">
-        <f>num_dynamics</f>
-        <v>0</v>
-      </c>
-      <c r="E15" s="398">
-        <v>23</v>
-      </c>
-      <c r="F15" s="399">
-        <v>5750</v>
-      </c>
-      <c r="G15" s="156" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="397" t="s">
-        <v>377</v>
-      </c>
-      <c r="B16" s="403" t="s">
-        <v>378</v>
-      </c>
-      <c r="C16" s="397" t="s">
-        <v>364</v>
-      </c>
-      <c r="D16" s="397">
-        <f>num_dynamics</f>
-        <v>0</v>
-      </c>
-      <c r="E16" s="398">
-        <v>18</v>
-      </c>
-      <c r="F16" s="399">
-        <v>4500</v>
-      </c>
-      <c r="G16" s="156" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="400">
-        <v>1.7</v>
-      </c>
-      <c r="B17" s="401" t="s">
-        <v>380</v>
-      </c>
-      <c r="C17" s="400"/>
-      <c r="D17" s="400"/>
-      <c r="E17" s="400"/>
-      <c r="F17" s="402"/>
-      <c r="G17" s="401"/>
-    </row>
-    <row r="18" spans="1:7" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="397" t="s">
-        <v>381</v>
-      </c>
-      <c r="B18" s="403" t="s">
-        <v>382</v>
-      </c>
-      <c r="C18" s="397" t="s">
-        <v>364</v>
-      </c>
-      <c r="D18" s="397">
-        <f>num_custom_functions</f>
-        <v>0</v>
-      </c>
-      <c r="E18" s="398">
-        <v>25</v>
-      </c>
-      <c r="F18" s="399">
-        <v>1250</v>
-      </c>
-      <c r="G18" s="156" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="397" t="s">
-        <v>384</v>
-      </c>
-      <c r="B19" s="403" t="s">
-        <v>385</v>
-      </c>
-      <c r="C19" s="397" t="s">
-        <v>364</v>
-      </c>
-      <c r="D19" s="397">
-        <f>num_custom_functions</f>
-        <v>0</v>
-      </c>
-      <c r="E19" s="398">
-        <v>27</v>
-      </c>
-      <c r="F19" s="399">
-        <v>1350</v>
-      </c>
-      <c r="G19" s="156" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="397" t="s">
-        <v>386</v>
-      </c>
-      <c r="B20" s="403" t="s">
-        <v>387</v>
-      </c>
-      <c r="C20" s="397" t="s">
-        <v>364</v>
-      </c>
-      <c r="D20" s="397">
-        <f>num_custom_functions</f>
-        <v>0</v>
-      </c>
-      <c r="E20" s="398">
-        <v>23</v>
-      </c>
-      <c r="F20" s="399">
-        <v>1150</v>
-      </c>
-      <c r="G20" s="156" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="397">
-        <v>1.8</v>
-      </c>
-      <c r="B21" s="156" t="s">
-        <v>389</v>
-      </c>
-      <c r="C21" s="397" t="s">
-        <v>355</v>
-      </c>
-      <c r="D21" s="397">
-        <f>crf_pages_complete</f>
-        <v>0</v>
-      </c>
-      <c r="E21" s="398">
-        <v>80</v>
-      </c>
-      <c r="F21" s="399">
-        <v>28000</v>
-      </c>
-      <c r="G21" s="156" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="397">
-        <v>1.9</v>
-      </c>
-      <c r="B22" s="156" t="s">
-        <v>390</v>
-      </c>
-      <c r="C22" s="397" t="s">
-        <v>353</v>
-      </c>
-      <c r="D22" s="397">
-        <f>num_unique_crf_pages</f>
-        <v>0</v>
-      </c>
-      <c r="E22" s="398">
-        <v>80</v>
-      </c>
-      <c r="F22" s="399">
-        <v>4800</v>
-      </c>
-      <c r="G22" s="156" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="392"/>
-      <c r="B23" s="391"/>
-      <c r="C23" s="392"/>
-      <c r="D23" s="392"/>
-      <c r="E23" s="392"/>
-      <c r="F23" s="404"/>
-      <c r="G23" s="391"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="405" t="s">
-        <v>101</v>
-      </c>
-      <c r="B24" s="406"/>
-      <c r="C24" s="407"/>
-      <c r="D24" s="407"/>
-      <c r="E24" s="407"/>
-      <c r="F24" s="408">
-        <v>153400</v>
-      </c>
-      <c r="G24" s="406"/>
+      <c r="G24" s="378"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -6492,7 +6493,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D7DCEFE-E123-471C-9149-5641B59C77A4}">
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
@@ -6503,899 +6504,899 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="161" t="s">
+      <c r="A1" s="160" t="s">
+        <v>147</v>
+      </c>
+      <c r="B1" s="160"/>
+      <c r="C1" s="136"/>
+      <c r="D1" s="161"/>
+      <c r="E1" s="162"/>
+      <c r="F1" s="163"/>
+      <c r="G1" s="135"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="164"/>
+      <c r="B2" s="135"/>
+      <c r="C2" s="136"/>
+      <c r="D2" s="161"/>
+      <c r="E2" s="162"/>
+      <c r="F2" s="163"/>
+      <c r="G2" s="135"/>
+    </row>
+    <row r="3" spans="1:7" ht="5.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="164"/>
+      <c r="B3" s="135"/>
+      <c r="C3" s="136"/>
+      <c r="D3" s="165"/>
+      <c r="E3" s="166"/>
+      <c r="F3" s="167"/>
+      <c r="G3" s="135"/>
+    </row>
+    <row r="4" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="429" t="s">
         <v>148</v>
       </c>
-      <c r="B1" s="161"/>
-      <c r="C1" s="137"/>
-      <c r="D1" s="162"/>
-      <c r="E1" s="163"/>
-      <c r="F1" s="164"/>
-      <c r="G1" s="136"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="165"/>
-      <c r="B2" s="136"/>
-      <c r="C2" s="137"/>
-      <c r="D2" s="162"/>
-      <c r="E2" s="163"/>
-      <c r="F2" s="164"/>
-      <c r="G2" s="136"/>
-    </row>
-    <row r="3" spans="1:7" ht="5.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="165"/>
-      <c r="B3" s="136"/>
-      <c r="C3" s="137"/>
-      <c r="D3" s="166"/>
-      <c r="E3" s="167"/>
-      <c r="F3" s="168"/>
-      <c r="G3" s="136"/>
-    </row>
-    <row r="4" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="356" t="s">
+      <c r="B4" s="429"/>
+      <c r="C4" s="168" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="169" t="s">
         <v>149</v>
       </c>
-      <c r="B4" s="356"/>
-      <c r="C4" s="169" t="s">
+      <c r="E4" s="170" t="s">
         <v>58</v>
       </c>
-      <c r="D4" s="170" t="s">
+      <c r="F4" s="171" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" s="168" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="430" t="s">
         <v>150</v>
       </c>
-      <c r="E4" s="171" t="s">
-        <v>59</v>
-      </c>
-      <c r="F4" s="172" t="s">
-        <v>60</v>
-      </c>
-      <c r="G4" s="169" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="357" t="s">
-        <v>151</v>
-      </c>
-      <c r="B5" s="358"/>
-      <c r="C5" s="173"/>
-      <c r="D5" s="174"/>
-      <c r="E5" s="175"/>
-      <c r="F5" s="176">
+      <c r="B5" s="431"/>
+      <c r="C5" s="172"/>
+      <c r="D5" s="173"/>
+      <c r="E5" s="174"/>
+      <c r="F5" s="175">
         <f>SUM(F6:F6)</f>
         <v>4500</v>
       </c>
-      <c r="G5" s="177"/>
+      <c r="G5" s="176"/>
     </row>
     <row r="6" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="178" t="s">
+      <c r="A6" s="177" t="s">
+        <v>151</v>
+      </c>
+      <c r="B6" s="178" t="s">
         <v>152</v>
       </c>
-      <c r="B6" s="179" t="s">
-        <v>153</v>
-      </c>
-      <c r="C6" s="180" t="s">
-        <v>63</v>
-      </c>
-      <c r="D6" s="181">
+      <c r="C6" s="179" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" s="180">
         <v>30</v>
       </c>
-      <c r="E6" s="182">
+      <c r="E6" s="181">
         <v>150</v>
       </c>
-      <c r="F6" s="183">
+      <c r="F6" s="182">
         <f>D6*E6</f>
         <v>4500</v>
       </c>
-      <c r="G6" s="184" t="s">
+      <c r="G6" s="183" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="184"/>
+      <c r="B7" s="185"/>
+      <c r="C7" s="186"/>
+      <c r="D7" s="187"/>
+      <c r="E7" s="188"/>
+      <c r="F7" s="189"/>
+      <c r="G7" s="186"/>
+    </row>
+    <row r="8" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="430" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="185"/>
-      <c r="B7" s="186"/>
-      <c r="C7" s="187"/>
-      <c r="D7" s="188"/>
-      <c r="E7" s="189"/>
-      <c r="F7" s="190"/>
-      <c r="G7" s="187"/>
-    </row>
-    <row r="8" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="357" t="s">
-        <v>155</v>
-      </c>
-      <c r="B8" s="358"/>
-      <c r="C8" s="191"/>
-      <c r="D8" s="192"/>
-      <c r="E8" s="193"/>
-      <c r="F8" s="176">
+      <c r="B8" s="431"/>
+      <c r="C8" s="190"/>
+      <c r="D8" s="191"/>
+      <c r="E8" s="192"/>
+      <c r="F8" s="175">
         <f>SUM(F9:F11)</f>
         <v>11700</v>
       </c>
-      <c r="G8" s="194"/>
+      <c r="G8" s="193"/>
     </row>
     <row r="9" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="195">
+      <c r="A9" s="194">
         <v>2.1</v>
       </c>
-      <c r="B9" s="128" t="s">
-        <v>156</v>
-      </c>
-      <c r="C9" s="129" t="s">
-        <v>63</v>
-      </c>
-      <c r="D9" s="130">
+      <c r="B9" s="127" t="s">
+        <v>155</v>
+      </c>
+      <c r="C9" s="128" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" s="129">
         <v>30</v>
       </c>
-      <c r="E9" s="196">
+      <c r="E9" s="195">
         <v>150</v>
       </c>
-      <c r="F9" s="197">
+      <c r="F9" s="196">
         <f>D9*E9</f>
         <v>4500</v>
       </c>
-      <c r="G9" s="128" t="s">
+      <c r="G9" s="127" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="194">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B10" s="127" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="195">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="B10" s="128" t="s">
-        <v>158</v>
-      </c>
-      <c r="C10" s="129" t="s">
-        <v>63</v>
-      </c>
-      <c r="D10" s="130">
+      <c r="C10" s="128" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="129">
         <v>30</v>
       </c>
-      <c r="E10" s="196">
+      <c r="E10" s="195">
         <v>150</v>
       </c>
-      <c r="F10" s="197">
+      <c r="F10" s="196">
         <f t="shared" ref="F10:F11" si="0">D10*E10</f>
         <v>4500</v>
       </c>
-      <c r="G10" s="128" t="s">
+      <c r="G10" s="127" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="194">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="B11" s="127" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="195">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="B11" s="128" t="s">
-        <v>160</v>
-      </c>
-      <c r="C11" s="129" t="s">
-        <v>63</v>
-      </c>
-      <c r="D11" s="130">
+      <c r="C11" s="128" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="129">
         <v>20</v>
       </c>
-      <c r="E11" s="196">
+      <c r="E11" s="195">
         <v>135</v>
       </c>
-      <c r="F11" s="197">
+      <c r="F11" s="196">
         <f t="shared" si="0"/>
         <v>2700</v>
       </c>
-      <c r="G11" s="128" t="s">
+      <c r="G11" s="127" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="197"/>
+      <c r="B12" s="198"/>
+      <c r="C12" s="199"/>
+      <c r="D12" s="200"/>
+      <c r="E12" s="201"/>
+      <c r="F12" s="202"/>
+      <c r="G12" s="198"/>
+    </row>
+    <row r="13" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="430" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="198"/>
-      <c r="B12" s="199"/>
-      <c r="C12" s="200"/>
-      <c r="D12" s="201"/>
-      <c r="E12" s="202"/>
-      <c r="F12" s="203"/>
-      <c r="G12" s="199"/>
-    </row>
-    <row r="13" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="357" t="s">
-        <v>162</v>
-      </c>
-      <c r="B13" s="358"/>
-      <c r="C13" s="191"/>
-      <c r="D13" s="192"/>
-      <c r="E13" s="193"/>
-      <c r="F13" s="176">
+      <c r="B13" s="431"/>
+      <c r="C13" s="190"/>
+      <c r="D13" s="191"/>
+      <c r="E13" s="192"/>
+      <c r="F13" s="175">
         <f>SUM(F14:F27)</f>
         <v>19000</v>
       </c>
-      <c r="G13" s="194"/>
+      <c r="G13" s="193"/>
     </row>
     <row r="14" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="195" t="s">
+      <c r="A14" s="194" t="s">
+        <v>162</v>
+      </c>
+      <c r="B14" s="127" t="s">
         <v>163</v>
       </c>
-      <c r="B14" s="128" t="s">
+      <c r="C14" s="128" t="s">
         <v>164</v>
       </c>
-      <c r="C14" s="129" t="s">
+      <c r="D14" s="129">
+        <f>num_unique_terms_cm</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="195">
+        <v>7</v>
+      </c>
+      <c r="F14" s="196">
+        <f>D14*E14</f>
+        <v>0</v>
+      </c>
+      <c r="G14" s="127" t="s">
         <v>165</v>
       </c>
-      <c r="D14" s="130">
-        <f>num_unique_terms_cm</f>
-        <v>0</v>
-      </c>
-      <c r="E14" s="196">
-        <v>7</v>
-      </c>
-      <c r="F14" s="197">
-        <f>D14*E14</f>
-        <v>0</v>
-      </c>
-      <c r="G14" s="128" t="s">
+    </row>
+    <row r="15" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="194" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="195" t="s">
+      <c r="B15" s="127" t="s">
         <v>167</v>
       </c>
-      <c r="B15" s="128" t="s">
+      <c r="C15" s="128" t="s">
+        <v>164</v>
+      </c>
+      <c r="D15" s="129">
+        <f>num_unique_terms_aemh</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="195">
+        <v>5</v>
+      </c>
+      <c r="F15" s="196">
+        <f t="shared" ref="F15:F27" si="1">D15*E15</f>
+        <v>0</v>
+      </c>
+      <c r="G15" s="127" t="s">
         <v>168</v>
       </c>
-      <c r="C15" s="129" t="s">
-        <v>165</v>
-      </c>
-      <c r="D15" s="130">
-        <f>num_unique_terms_aemh</f>
-        <v>0</v>
-      </c>
-      <c r="E15" s="196">
-        <v>5</v>
-      </c>
-      <c r="F15" s="197">
-        <f t="shared" ref="F15:F27" si="1">D15*E15</f>
-        <v>0</v>
-      </c>
-      <c r="G15" s="128" t="s">
+    </row>
+    <row r="16" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="194" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="195" t="s">
+      <c r="B16" s="127" t="s">
         <v>170</v>
       </c>
-      <c r="B16" s="128" t="s">
+      <c r="C16" s="128" t="s">
         <v>171</v>
       </c>
-      <c r="C16" s="129" t="s">
+      <c r="D16" s="129">
+        <f>crf_pages_total</f>
+        <v>0</v>
+      </c>
+      <c r="E16" s="195">
+        <v>3</v>
+      </c>
+      <c r="F16" s="196">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="127" t="s">
         <v>172</v>
       </c>
-      <c r="D16" s="130">
-        <f>crf_pages_total</f>
-        <v>0</v>
-      </c>
-      <c r="E16" s="196">
-        <v>3</v>
-      </c>
-      <c r="F16" s="197">
+    </row>
+    <row r="17" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="194" t="s">
+        <v>173</v>
+      </c>
+      <c r="B17" s="127" t="s">
+        <v>174</v>
+      </c>
+      <c r="C17" s="128" t="s">
+        <v>175</v>
+      </c>
+      <c r="D17" s="129">
+        <f>manual_queries_total</f>
+        <v>0</v>
+      </c>
+      <c r="E17" s="195">
+        <v>25</v>
+      </c>
+      <c r="F17" s="196">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G16" s="128" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="195" t="s">
-        <v>174</v>
-      </c>
-      <c r="B17" s="128" t="s">
-        <v>175</v>
-      </c>
-      <c r="C17" s="129" t="s">
+      <c r="G17" s="127" t="s">
         <v>176</v>
       </c>
-      <c r="D17" s="130">
-        <f>manual_queries_total</f>
-        <v>0</v>
-      </c>
-      <c r="E17" s="196">
-        <v>25</v>
-      </c>
-      <c r="F17" s="197">
+    </row>
+    <row r="18" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="194" t="s">
+        <v>177</v>
+      </c>
+      <c r="B18" s="127" t="s">
+        <v>178</v>
+      </c>
+      <c r="C18" s="128" t="s">
+        <v>179</v>
+      </c>
+      <c r="D18" s="129">
+        <f>auto_queries_total</f>
+        <v>0</v>
+      </c>
+      <c r="E18" s="195">
+        <v>10</v>
+      </c>
+      <c r="F18" s="196">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G17" s="128" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="195" t="s">
-        <v>178</v>
-      </c>
-      <c r="B18" s="128" t="s">
-        <v>179</v>
-      </c>
-      <c r="C18" s="129" t="s">
+      <c r="G18" s="127" t="s">
         <v>180</v>
       </c>
-      <c r="D18" s="130">
-        <f>auto_queries_total</f>
-        <v>0</v>
-      </c>
-      <c r="E18" s="196">
-        <v>10</v>
-      </c>
-      <c r="F18" s="197">
+    </row>
+    <row r="19" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="194" t="s">
+        <v>181</v>
+      </c>
+      <c r="B19" s="127" t="s">
+        <v>182</v>
+      </c>
+      <c r="C19" s="128" t="s">
+        <v>183</v>
+      </c>
+      <c r="D19" s="180">
+        <f>enroll_dur * 4</f>
+        <v>0</v>
+      </c>
+      <c r="E19" s="181">
+        <v>1000</v>
+      </c>
+      <c r="F19" s="196">
+        <f>D19*E19</f>
+        <v>0</v>
+      </c>
+      <c r="G19" s="127" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="194" t="s">
+        <v>185</v>
+      </c>
+      <c r="B20" s="127" t="s">
+        <v>186</v>
+      </c>
+      <c r="C20" s="128" t="s">
+        <v>183</v>
+      </c>
+      <c r="D20" s="180">
+        <f>enroll_dur * 4</f>
+        <v>0</v>
+      </c>
+      <c r="E20" s="181">
+        <v>500</v>
+      </c>
+      <c r="F20" s="196">
+        <f>D20*E20</f>
+        <v>0</v>
+      </c>
+      <c r="G20" s="127" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="194" t="s">
+        <v>188</v>
+      </c>
+      <c r="B21" s="127" t="s">
+        <v>189</v>
+      </c>
+      <c r="C21" s="128" t="s">
+        <v>190</v>
+      </c>
+      <c r="D21" s="129">
+        <f>num_local_lab*num_lab_panel</f>
+        <v>0</v>
+      </c>
+      <c r="E21" s="195">
+        <v>200</v>
+      </c>
+      <c r="F21" s="196">
+        <f>D21*E21</f>
+        <v>0</v>
+      </c>
+      <c r="G21" s="127" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="194" t="s">
+        <v>192</v>
+      </c>
+      <c r="B22" s="127" t="s">
+        <v>193</v>
+      </c>
+      <c r="C22" s="128" t="s">
+        <v>194</v>
+      </c>
+      <c r="D22" s="129">
+        <f>num_external_data_source</f>
+        <v>0</v>
+      </c>
+      <c r="E22" s="203">
+        <v>2000</v>
+      </c>
+      <c r="F22" s="196">
+        <f>D22*E22</f>
+        <v>0</v>
+      </c>
+      <c r="G22" s="127" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="194" t="s">
+        <v>196</v>
+      </c>
+      <c r="B23" s="127" t="s">
+        <v>197</v>
+      </c>
+      <c r="C23" s="128" t="s">
+        <v>198</v>
+      </c>
+      <c r="D23" s="129">
+        <f>external_data_reconcilation</f>
+        <v>0</v>
+      </c>
+      <c r="E23" s="195">
+        <v>500</v>
+      </c>
+      <c r="F23" s="196">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G18" s="128" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="195" t="s">
-        <v>182</v>
-      </c>
-      <c r="B19" s="128" t="s">
-        <v>183</v>
-      </c>
-      <c r="C19" s="129" t="s">
-        <v>184</v>
-      </c>
-      <c r="D19" s="181">
-        <f>enroll_dur * 4</f>
-        <v>0</v>
-      </c>
-      <c r="E19" s="182">
-        <v>1000</v>
-      </c>
-      <c r="F19" s="197">
-        <f>D19*E19</f>
-        <v>0</v>
-      </c>
-      <c r="G19" s="128" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="195" t="s">
-        <v>186</v>
-      </c>
-      <c r="B20" s="128" t="s">
-        <v>187</v>
-      </c>
-      <c r="C20" s="129" t="s">
-        <v>184</v>
-      </c>
-      <c r="D20" s="181">
-        <f>enroll_dur * 4</f>
-        <v>0</v>
-      </c>
-      <c r="E20" s="182">
-        <v>500</v>
-      </c>
-      <c r="F20" s="197">
-        <f>D20*E20</f>
-        <v>0</v>
-      </c>
-      <c r="G20" s="128" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="195" t="s">
-        <v>189</v>
-      </c>
-      <c r="B21" s="128" t="s">
-        <v>190</v>
-      </c>
-      <c r="C21" s="129" t="s">
-        <v>191</v>
-      </c>
-      <c r="D21" s="130">
-        <f>num_local_lab*num_lab_panel</f>
-        <v>0</v>
-      </c>
-      <c r="E21" s="196">
+      <c r="G23" s="127" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="194" t="s">
         <v>200</v>
       </c>
-      <c r="F21" s="197">
-        <f>D21*E21</f>
-        <v>0</v>
-      </c>
-      <c r="G21" s="128" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="195" t="s">
-        <v>193</v>
-      </c>
-      <c r="B22" s="128" t="s">
-        <v>194</v>
-      </c>
-      <c r="C22" s="129" t="s">
-        <v>195</v>
-      </c>
-      <c r="D22" s="130">
-        <f>num_external_data_source</f>
-        <v>0</v>
-      </c>
-      <c r="E22" s="204">
-        <v>2000</v>
-      </c>
-      <c r="F22" s="197">
-        <f>D22*E22</f>
-        <v>0</v>
-      </c>
-      <c r="G22" s="128" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="195" t="s">
-        <v>197</v>
-      </c>
-      <c r="B23" s="128" t="s">
-        <v>198</v>
-      </c>
-      <c r="C23" s="129" t="s">
-        <v>199</v>
-      </c>
-      <c r="D23" s="130">
-        <f>external_data_reconcilation</f>
-        <v>0</v>
-      </c>
-      <c r="E23" s="196">
-        <v>500</v>
-      </c>
-      <c r="F23" s="197">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G23" s="128" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="195" t="s">
+      <c r="B24" s="127" t="s">
         <v>201</v>
       </c>
-      <c r="B24" s="128" t="s">
+      <c r="C24" s="128" t="s">
         <v>202</v>
       </c>
-      <c r="C24" s="129" t="s">
-        <v>203</v>
-      </c>
-      <c r="D24" s="130">
+      <c r="D24" s="129">
         <v>1</v>
       </c>
-      <c r="E24" s="196">
+      <c r="E24" s="195">
         <v>10000</v>
       </c>
-      <c r="F24" s="197">
+      <c r="F24" s="196">
         <f t="shared" si="1"/>
         <v>10000</v>
       </c>
-      <c r="G24" s="128" t="s">
+      <c r="G24" s="127" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="194" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="195" t="s">
+      <c r="B25" s="127" t="s">
         <v>205</v>
       </c>
-      <c r="B25" s="128" t="s">
-        <v>206</v>
-      </c>
-      <c r="C25" s="205" t="s">
-        <v>203</v>
-      </c>
-      <c r="D25" s="130">
+      <c r="C25" s="204" t="s">
+        <v>202</v>
+      </c>
+      <c r="D25" s="129">
         <v>1</v>
       </c>
-      <c r="E25" s="196">
+      <c r="E25" s="195">
         <v>3000</v>
       </c>
-      <c r="F25" s="197">
+      <c r="F25" s="196">
         <f t="shared" si="1"/>
         <v>3000</v>
       </c>
-      <c r="G25" s="128" t="s">
+      <c r="G25" s="127" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="194" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="195" t="s">
+      <c r="B26" s="127" t="s">
         <v>208</v>
       </c>
-      <c r="B26" s="128" t="s">
-        <v>209</v>
-      </c>
-      <c r="C26" s="129" t="s">
-        <v>203</v>
-      </c>
-      <c r="D26" s="130">
+      <c r="C26" s="128" t="s">
+        <v>202</v>
+      </c>
+      <c r="D26" s="129">
         <v>1</v>
       </c>
-      <c r="E26" s="196">
+      <c r="E26" s="195">
         <v>1000</v>
       </c>
-      <c r="F26" s="197">
+      <c r="F26" s="196">
         <f t="shared" si="1"/>
         <v>1000</v>
       </c>
-      <c r="G26" s="128" t="s">
+      <c r="G26" s="127" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="194" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="195" t="s">
+      <c r="B27" s="127" t="s">
         <v>211</v>
       </c>
-      <c r="B27" s="128" t="s">
-        <v>212</v>
-      </c>
-      <c r="C27" s="129" t="s">
-        <v>203</v>
-      </c>
-      <c r="D27" s="130">
+      <c r="C27" s="128" t="s">
+        <v>202</v>
+      </c>
+      <c r="D27" s="129">
         <v>1</v>
       </c>
-      <c r="E27" s="206">
+      <c r="E27" s="205">
         <v>5000</v>
       </c>
-      <c r="F27" s="207">
+      <c r="F27" s="206">
         <f t="shared" si="1"/>
         <v>5000</v>
       </c>
-      <c r="G27" s="128" t="s">
+      <c r="G27" s="127" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="197"/>
+      <c r="B28" s="198"/>
+      <c r="C28" s="199"/>
+      <c r="D28" s="200"/>
+      <c r="E28" s="201"/>
+      <c r="F28" s="202"/>
+      <c r="G28" s="198"/>
+    </row>
+    <row r="29" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="430" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="198"/>
-      <c r="B28" s="199"/>
-      <c r="C28" s="200"/>
-      <c r="D28" s="201"/>
-      <c r="E28" s="202"/>
-      <c r="F28" s="203"/>
-      <c r="G28" s="199"/>
-    </row>
-    <row r="29" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="357" t="s">
+      <c r="B29" s="431"/>
+      <c r="C29" s="190"/>
+      <c r="D29" s="191"/>
+      <c r="E29" s="192"/>
+      <c r="F29" s="175">
+        <f>SUM(F30:F37)</f>
+        <v>0</v>
+      </c>
+      <c r="G29" s="193"/>
+    </row>
+    <row r="30" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="128">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="B30" s="127" t="s">
         <v>214</v>
       </c>
-      <c r="B29" s="358"/>
-      <c r="C29" s="191"/>
-      <c r="D29" s="192"/>
-      <c r="E29" s="193"/>
-      <c r="F29" s="176">
-        <f>SUM(F30:F37)</f>
-        <v>0</v>
-      </c>
-      <c r="G29" s="194"/>
-    </row>
-    <row r="30" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="129">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="B30" s="128" t="s">
+      <c r="C30" s="114" t="s">
+        <v>78</v>
+      </c>
+      <c r="D30" s="129">
+        <f>data_review_listings</f>
+        <v>0</v>
+      </c>
+      <c r="E30" s="195">
+        <v>100</v>
+      </c>
+      <c r="F30" s="196">
+        <f>D30*E30</f>
+        <v>0</v>
+      </c>
+      <c r="G30" s="127" t="s">
         <v>215</v>
       </c>
-      <c r="C30" s="115" t="s">
-        <v>79</v>
-      </c>
-      <c r="D30" s="130">
+    </row>
+    <row r="31" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="194" t="s">
+        <v>216</v>
+      </c>
+      <c r="B31" s="127" t="s">
+        <v>217</v>
+      </c>
+      <c r="C31" s="128" t="s">
+        <v>78</v>
+      </c>
+      <c r="D31" s="129">
         <f>data_review_listings</f>
         <v>0</v>
       </c>
-      <c r="E30" s="196">
+      <c r="E31" s="195">
+        <v>350</v>
+      </c>
+      <c r="F31" s="196">
+        <f t="shared" ref="F31:F37" si="2">D31*E31</f>
+        <v>0</v>
+      </c>
+      <c r="G31" s="127" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="194" t="s">
+        <v>219</v>
+      </c>
+      <c r="B32" s="127" t="s">
+        <v>220</v>
+      </c>
+      <c r="C32" s="128" t="s">
+        <v>99</v>
+      </c>
+      <c r="D32" s="129">
+        <f>total_dur</f>
+        <v>0</v>
+      </c>
+      <c r="E32" s="195">
+        <v>200</v>
+      </c>
+      <c r="F32" s="196">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G32" s="127" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="194" t="s">
+        <v>222</v>
+      </c>
+      <c r="B33" s="127" t="s">
+        <v>223</v>
+      </c>
+      <c r="C33" s="128" t="s">
+        <v>224</v>
+      </c>
+      <c r="D33" s="129">
+        <f>protocol_deviation_check</f>
+        <v>0</v>
+      </c>
+      <c r="E33" s="195">
         <v>100</v>
       </c>
-      <c r="F30" s="197">
-        <f>D30*E30</f>
-        <v>0</v>
-      </c>
-      <c r="G30" s="128" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="195" t="s">
-        <v>217</v>
-      </c>
-      <c r="B31" s="128" t="s">
-        <v>218</v>
-      </c>
-      <c r="C31" s="129" t="s">
-        <v>79</v>
-      </c>
-      <c r="D31" s="130">
-        <f>data_review_listings</f>
-        <v>0</v>
-      </c>
-      <c r="E31" s="196">
+      <c r="F33" s="196">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G33" s="127" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="194" t="s">
+        <v>226</v>
+      </c>
+      <c r="B34" s="127" t="s">
+        <v>227</v>
+      </c>
+      <c r="C34" s="128" t="s">
+        <v>224</v>
+      </c>
+      <c r="D34" s="129">
+        <f>protocol_deviation_check</f>
+        <v>0</v>
+      </c>
+      <c r="E34" s="195">
         <v>350</v>
       </c>
-      <c r="F31" s="197">
-        <f t="shared" ref="F31:F37" si="2">D31*E31</f>
-        <v>0</v>
-      </c>
-      <c r="G31" s="128" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="195" t="s">
-        <v>220</v>
-      </c>
-      <c r="B32" s="128" t="s">
-        <v>221</v>
-      </c>
-      <c r="C32" s="129" t="s">
-        <v>100</v>
-      </c>
-      <c r="D32" s="130">
+      <c r="F34" s="196">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G34" s="127" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="194" t="s">
+        <v>229</v>
+      </c>
+      <c r="B35" s="127" t="s">
+        <v>230</v>
+      </c>
+      <c r="C35" s="128" t="s">
+        <v>99</v>
+      </c>
+      <c r="D35" s="129">
         <f>total_dur</f>
         <v>0</v>
       </c>
-      <c r="E32" s="196">
-        <v>200</v>
-      </c>
-      <c r="F32" s="197">
+      <c r="E35" s="195">
+        <v>300</v>
+      </c>
+      <c r="F35" s="196">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G32" s="128" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="195" t="s">
-        <v>223</v>
-      </c>
-      <c r="B33" s="128" t="s">
-        <v>224</v>
-      </c>
-      <c r="C33" s="129" t="s">
-        <v>225</v>
-      </c>
-      <c r="D33" s="130">
-        <f>protocol_deviation_check</f>
-        <v>0</v>
-      </c>
-      <c r="E33" s="196">
-        <v>100</v>
-      </c>
-      <c r="F33" s="197">
+      <c r="G35" s="127" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="194" t="s">
+        <v>232</v>
+      </c>
+      <c r="B36" s="127" t="s">
+        <v>233</v>
+      </c>
+      <c r="C36" s="128" t="s">
+        <v>234</v>
+      </c>
+      <c r="D36" s="129">
+        <f>num_data_metrics_report</f>
+        <v>0</v>
+      </c>
+      <c r="E36" s="195">
+        <v>700</v>
+      </c>
+      <c r="F36" s="196">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G33" s="128" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="195" t="s">
-        <v>227</v>
-      </c>
-      <c r="B34" s="128" t="s">
-        <v>228</v>
-      </c>
-      <c r="C34" s="129" t="s">
-        <v>225</v>
-      </c>
-      <c r="D34" s="130">
-        <f>protocol_deviation_check</f>
-        <v>0</v>
-      </c>
-      <c r="E34" s="196">
-        <v>350</v>
-      </c>
-      <c r="F34" s="197">
+      <c r="G36" s="127" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="194" t="s">
+        <v>236</v>
+      </c>
+      <c r="B37" s="127" t="s">
+        <v>237</v>
+      </c>
+      <c r="C37" s="128" t="s">
+        <v>99</v>
+      </c>
+      <c r="D37" s="129">
+        <f>total_dur</f>
+        <v>0</v>
+      </c>
+      <c r="E37" s="195">
+        <v>300</v>
+      </c>
+      <c r="F37" s="196">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G34" s="128" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="195" t="s">
-        <v>230</v>
-      </c>
-      <c r="B35" s="128" t="s">
-        <v>231</v>
-      </c>
-      <c r="C35" s="129" t="s">
-        <v>100</v>
-      </c>
-      <c r="D35" s="130">
-        <f>total_dur</f>
-        <v>0</v>
-      </c>
-      <c r="E35" s="196">
-        <v>300</v>
-      </c>
-      <c r="F35" s="197">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G35" s="128" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="195" t="s">
-        <v>233</v>
-      </c>
-      <c r="B36" s="128" t="s">
-        <v>234</v>
-      </c>
-      <c r="C36" s="129" t="s">
-        <v>235</v>
-      </c>
-      <c r="D36" s="130">
-        <f>num_data_metrics_report</f>
-        <v>0</v>
-      </c>
-      <c r="E36" s="196">
-        <v>700</v>
-      </c>
-      <c r="F36" s="197">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G36" s="128" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="195" t="s">
-        <v>237</v>
-      </c>
-      <c r="B37" s="128" t="s">
+      <c r="G37" s="127" t="s">
         <v>238</v>
       </c>
-      <c r="C37" s="129" t="s">
-        <v>100</v>
-      </c>
-      <c r="D37" s="130">
-        <f>total_dur</f>
-        <v>0</v>
-      </c>
-      <c r="E37" s="196">
-        <v>300</v>
-      </c>
-      <c r="F37" s="197">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G37" s="128" t="s">
+    </row>
+    <row r="38" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="197"/>
+      <c r="B38" s="198"/>
+      <c r="C38" s="199"/>
+      <c r="D38" s="200"/>
+      <c r="E38" s="201"/>
+      <c r="F38" s="202"/>
+      <c r="G38" s="198"/>
+    </row>
+    <row r="39" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="430" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="198"/>
-      <c r="B38" s="199"/>
-      <c r="C38" s="200"/>
-      <c r="D38" s="201"/>
-      <c r="E38" s="202"/>
-      <c r="F38" s="203"/>
-      <c r="G38" s="199"/>
-    </row>
-    <row r="39" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="357" t="s">
-        <v>240</v>
-      </c>
-      <c r="B39" s="358"/>
-      <c r="C39" s="191"/>
-      <c r="D39" s="192"/>
-      <c r="E39" s="193"/>
-      <c r="F39" s="176">
+      <c r="B39" s="431"/>
+      <c r="C39" s="190"/>
+      <c r="D39" s="191"/>
+      <c r="E39" s="192"/>
+      <c r="F39" s="175">
         <f>SUM(F40:F42)</f>
         <v>3000</v>
       </c>
-      <c r="G39" s="194"/>
+      <c r="G39" s="193"/>
     </row>
     <row r="40" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="195" t="s">
+      <c r="A40" s="194" t="s">
+        <v>240</v>
+      </c>
+      <c r="B40" s="127" t="s">
         <v>241</v>
       </c>
-      <c r="B40" s="128" t="s">
+      <c r="C40" s="128" t="s">
         <v>242</v>
       </c>
-      <c r="C40" s="129" t="s">
+      <c r="D40" s="129">
+        <f>num_sites</f>
+        <v>0</v>
+      </c>
+      <c r="E40" s="195">
+        <v>500</v>
+      </c>
+      <c r="F40" s="196">
+        <f>D40*E40</f>
+        <v>0</v>
+      </c>
+      <c r="G40" s="127" t="s">
         <v>243</v>
       </c>
-      <c r="D40" s="130">
-        <f>num_sites</f>
-        <v>0</v>
-      </c>
-      <c r="E40" s="196">
-        <v>500</v>
-      </c>
-      <c r="F40" s="197">
-        <f>D40*E40</f>
-        <v>0</v>
-      </c>
-      <c r="G40" s="128" t="s">
+    </row>
+    <row r="41" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="194" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="195" t="s">
+      <c r="B41" s="127" t="s">
         <v>245</v>
       </c>
-      <c r="B41" s="128" t="s">
+      <c r="C41" s="128" t="s">
         <v>246</v>
       </c>
-      <c r="C41" s="129" t="s">
-        <v>247</v>
-      </c>
-      <c r="D41" s="130">
+      <c r="D41" s="129">
         <f>3</f>
         <v>3</v>
       </c>
-      <c r="E41" s="196">
+      <c r="E41" s="195">
         <v>500</v>
       </c>
-      <c r="F41" s="197">
+      <c r="F41" s="196">
         <f t="shared" ref="F41:F42" si="3">D41*E41</f>
         <v>1500</v>
       </c>
-      <c r="G41" s="128" t="s">
+      <c r="G41" s="127" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="194" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="195" t="s">
+      <c r="B42" s="127" t="s">
         <v>249</v>
       </c>
-      <c r="B42" s="128" t="s">
-        <v>250</v>
-      </c>
-      <c r="C42" s="129" t="s">
-        <v>247</v>
-      </c>
-      <c r="D42" s="130">
+      <c r="C42" s="128" t="s">
+        <v>246</v>
+      </c>
+      <c r="D42" s="129">
         <v>3</v>
       </c>
-      <c r="E42" s="196">
+      <c r="E42" s="195">
         <v>500</v>
       </c>
-      <c r="F42" s="197">
+      <c r="F42" s="196">
         <f t="shared" si="3"/>
         <v>1500</v>
       </c>
-      <c r="G42" s="128" t="s">
-        <v>251</v>
+      <c r="G42" s="127" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="208"/>
-      <c r="B43" s="209"/>
-      <c r="C43" s="210"/>
-      <c r="D43" s="211"/>
-      <c r="E43" s="212"/>
-      <c r="F43" s="213"/>
-      <c r="G43" s="214"/>
+      <c r="A43" s="207"/>
+      <c r="B43" s="208"/>
+      <c r="C43" s="209"/>
+      <c r="D43" s="210"/>
+      <c r="E43" s="211"/>
+      <c r="F43" s="212"/>
+      <c r="G43" s="213"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="355" t="s">
-        <v>101</v>
-      </c>
-      <c r="B44" s="355"/>
-      <c r="C44" s="215"/>
-      <c r="D44" s="216"/>
-      <c r="E44" s="217"/>
-      <c r="F44" s="218">
+      <c r="A44" s="428" t="s">
+        <v>100</v>
+      </c>
+      <c r="B44" s="428"/>
+      <c r="C44" s="214"/>
+      <c r="D44" s="215"/>
+      <c r="E44" s="216"/>
+      <c r="F44" s="217">
         <f>SUM(F5,F8,F13,F29,F39)</f>
         <v>38200</v>
       </c>
-      <c r="G44" s="149"/>
+      <c r="G44" s="148"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -7427,161 +7428,161 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="219" t="s">
+      <c r="A1" s="218" t="s">
+        <v>251</v>
+      </c>
+      <c r="B1" s="219"/>
+      <c r="C1" s="220"/>
+      <c r="D1" s="220"/>
+      <c r="E1" s="220"/>
+      <c r="F1" s="220"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="220"/>
+      <c r="B2" s="220"/>
+      <c r="C2" s="432"/>
+      <c r="D2" s="432"/>
+      <c r="E2" s="432"/>
+      <c r="F2" s="220"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="221" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="222" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="223" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="224" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="225" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" s="226" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="227" t="s">
         <v>252</v>
       </c>
-      <c r="B1" s="220"/>
-      <c r="C1" s="221"/>
-      <c r="D1" s="221"/>
-      <c r="E1" s="221"/>
-      <c r="F1" s="221"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="221"/>
-      <c r="B2" s="221"/>
-      <c r="C2" s="359"/>
-      <c r="D2" s="359"/>
-      <c r="E2" s="359"/>
-      <c r="F2" s="221"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="222" t="s">
-        <v>57</v>
-      </c>
-      <c r="B3" s="223" t="s">
-        <v>58</v>
-      </c>
-      <c r="C3" s="224" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="225" t="s">
-        <v>59</v>
-      </c>
-      <c r="E3" s="226" t="s">
-        <v>60</v>
-      </c>
-      <c r="F3" s="227" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="228" t="s">
-        <v>253</v>
-      </c>
-      <c r="B4" s="229"/>
-      <c r="C4" s="230"/>
-      <c r="D4" s="231"/>
-      <c r="E4" s="232">
+      <c r="B4" s="228"/>
+      <c r="C4" s="229"/>
+      <c r="D4" s="230"/>
+      <c r="E4" s="231">
         <f>SUM(E5:E8)</f>
         <v>13000</v>
       </c>
-      <c r="F4" s="233"/>
+      <c r="F4" s="232"/>
     </row>
     <row r="5" spans="1:6" ht="75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="234" t="s">
-        <v>254</v>
-      </c>
-      <c r="B5" s="235" t="s">
-        <v>203</v>
-      </c>
-      <c r="C5" s="236">
+      <c r="A5" s="233" t="s">
+        <v>253</v>
+      </c>
+      <c r="B5" s="234" t="s">
+        <v>202</v>
+      </c>
+      <c r="C5" s="235">
         <v>1</v>
       </c>
-      <c r="D5" s="237">
+      <c r="D5" s="236">
         <v>1500</v>
       </c>
-      <c r="E5" s="238">
+      <c r="E5" s="237">
         <f>C5*D5</f>
         <v>1500</v>
       </c>
-      <c r="F5" s="239" t="s">
+      <c r="F5" s="238" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="233" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="234" t="s">
-        <v>256</v>
-      </c>
-      <c r="B6" s="235" t="s">
-        <v>203</v>
-      </c>
-      <c r="C6" s="236">
+      <c r="B6" s="234" t="s">
+        <v>202</v>
+      </c>
+      <c r="C6" s="235">
         <v>1</v>
       </c>
-      <c r="D6" s="237">
+      <c r="D6" s="236">
         <v>10000</v>
       </c>
-      <c r="E6" s="238">
+      <c r="E6" s="237">
         <f>C6*D6</f>
         <v>10000</v>
       </c>
-      <c r="F6" s="239" t="s">
+      <c r="F6" s="238" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="187.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="239" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="187.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="240" t="s">
+      <c r="B7" s="240" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7" s="241">
+        <f>total_dur</f>
+        <v>0</v>
+      </c>
+      <c r="D7" s="242">
+        <v>2250</v>
+      </c>
+      <c r="E7" s="237">
+        <f>C7*D7</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="233" t="s">
         <v>258</v>
       </c>
-      <c r="B7" s="241" t="s">
-        <v>100</v>
-      </c>
-      <c r="C7" s="242">
-        <f>total_dur</f>
-        <v>0</v>
-      </c>
-      <c r="D7" s="243">
-        <v>2250</v>
-      </c>
-      <c r="E7" s="238">
-        <f>C7*D7</f>
-        <v>0</v>
-      </c>
-      <c r="F7" s="234" t="s">
+    </row>
+    <row r="8" spans="1:6" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="239" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="240" t="s">
-        <v>260</v>
-      </c>
-      <c r="B8" s="241" t="s">
-        <v>203</v>
-      </c>
-      <c r="C8" s="242">
+      <c r="B8" s="240" t="s">
+        <v>202</v>
+      </c>
+      <c r="C8" s="241">
         <v>1</v>
       </c>
-      <c r="D8" s="243">
+      <c r="D8" s="242">
         <v>1500</v>
       </c>
-      <c r="E8" s="238">
+      <c r="E8" s="237">
         <f>C8*D8</f>
         <v>1500</v>
       </c>
-      <c r="F8" s="234" t="s">
-        <v>261</v>
+      <c r="F8" s="233" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="244"/>
-      <c r="B9" s="245"/>
-      <c r="C9" s="246"/>
-      <c r="D9" s="247"/>
-      <c r="E9" s="248"/>
-      <c r="F9" s="221"/>
+      <c r="A9" s="243"/>
+      <c r="B9" s="244"/>
+      <c r="C9" s="245"/>
+      <c r="D9" s="246"/>
+      <c r="E9" s="247"/>
+      <c r="F9" s="220"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="249" t="s">
-        <v>101</v>
-      </c>
-      <c r="B10" s="250"/>
-      <c r="C10" s="251"/>
-      <c r="D10" s="252"/>
-      <c r="E10" s="253">
+      <c r="A10" s="248" t="s">
+        <v>100</v>
+      </c>
+      <c r="B10" s="249"/>
+      <c r="C10" s="250"/>
+      <c r="D10" s="251"/>
+      <c r="E10" s="252">
         <f>SUM(E5:E8)</f>
         <v>13000</v>
       </c>
-      <c r="F10" s="221"/>
+      <c r="F10" s="220"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7601,1032 +7602,1032 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" style="257" customWidth="1"/>
-    <col min="2" max="2" width="5.33203125" style="350" customWidth="1"/>
-    <col min="3" max="3" width="6" style="350" customWidth="1"/>
-    <col min="4" max="4" width="68.109375" style="351" customWidth="1"/>
-    <col min="5" max="5" width="17.44140625" style="352" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.6640625" style="350" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="353" customWidth="1"/>
-    <col min="8" max="8" width="12" style="353" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="221"/>
+    <col min="1" max="1" width="3.33203125" style="256" customWidth="1"/>
+    <col min="2" max="2" width="5.33203125" style="349" customWidth="1"/>
+    <col min="3" max="3" width="6" style="349" customWidth="1"/>
+    <col min="4" max="4" width="68.109375" style="350" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" style="351" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.6640625" style="349" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="352" customWidth="1"/>
+    <col min="8" max="8" width="12" style="352" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="220"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="254"/>
-      <c r="B1" s="255"/>
-      <c r="C1" s="255"/>
-      <c r="D1" s="255"/>
-      <c r="E1" s="256"/>
-      <c r="F1" s="256"/>
-      <c r="G1" s="256"/>
-      <c r="H1" s="256"/>
+      <c r="A1" s="253"/>
+      <c r="B1" s="254"/>
+      <c r="C1" s="254"/>
+      <c r="D1" s="254"/>
+      <c r="E1" s="255"/>
+      <c r="F1" s="255"/>
+      <c r="G1" s="255"/>
+      <c r="H1" s="255"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B2" s="446" t="s">
-        <v>415</v>
-      </c>
-      <c r="C2" s="258"/>
-      <c r="D2" s="258"/>
-      <c r="E2" s="258"/>
-      <c r="F2" s="258"/>
-      <c r="G2" s="258"/>
-      <c r="H2" s="259"/>
+      <c r="B2" s="410" t="s">
+        <v>414</v>
+      </c>
+      <c r="C2" s="257"/>
+      <c r="D2" s="257"/>
+      <c r="E2" s="257"/>
+      <c r="F2" s="257"/>
+      <c r="G2" s="257"/>
+      <c r="H2" s="258"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B3" s="260" t="s">
+      <c r="B3" s="259" t="s">
+        <v>261</v>
+      </c>
+      <c r="C3" s="260"/>
+      <c r="D3" s="260"/>
+      <c r="E3" s="260"/>
+      <c r="F3" s="260"/>
+      <c r="G3" s="260"/>
+      <c r="H3" s="261"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="262"/>
+      <c r="B4" s="263"/>
+      <c r="C4" s="264"/>
+      <c r="D4" s="265"/>
+      <c r="E4" s="266"/>
+      <c r="F4" s="266"/>
+      <c r="G4" s="266"/>
+      <c r="H4" s="267"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="220"/>
+      <c r="B5" s="268"/>
+      <c r="C5" s="266"/>
+      <c r="D5" s="266"/>
+      <c r="E5" s="266"/>
+      <c r="F5" s="266"/>
+      <c r="G5" s="266"/>
+      <c r="H5" s="267"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="220"/>
+      <c r="B6" s="263" t="s">
         <v>262</v>
       </c>
-      <c r="C3" s="261"/>
-      <c r="D3" s="261"/>
-      <c r="E3" s="261"/>
-      <c r="F3" s="261"/>
-      <c r="G3" s="261"/>
-      <c r="H3" s="262"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="263"/>
-      <c r="B4" s="264"/>
-      <c r="C4" s="265"/>
-      <c r="D4" s="266"/>
-      <c r="E4" s="267"/>
-      <c r="F4" s="267"/>
-      <c r="G4" s="267"/>
-      <c r="H4" s="268"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="221"/>
-      <c r="B5" s="269"/>
-      <c r="C5" s="267"/>
-      <c r="D5" s="267"/>
-      <c r="E5" s="267"/>
-      <c r="F5" s="267"/>
-      <c r="G5" s="267"/>
-      <c r="H5" s="268"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="221"/>
-      <c r="B6" s="264" t="s">
+      <c r="C6" s="265"/>
+      <c r="D6" s="265"/>
+      <c r="E6" s="266"/>
+      <c r="F6" s="266"/>
+      <c r="G6" s="266"/>
+      <c r="H6" s="267"/>
+    </row>
+    <row r="7" spans="1:8" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="220"/>
+      <c r="B7" s="269"/>
+      <c r="C7" s="270">
+        <v>1</v>
+      </c>
+      <c r="D7" s="271" t="s">
         <v>263</v>
       </c>
-      <c r="C6" s="266"/>
-      <c r="D6" s="266"/>
-      <c r="E6" s="267"/>
-      <c r="F6" s="267"/>
-      <c r="G6" s="267"/>
-      <c r="H6" s="268"/>
-    </row>
-    <row r="7" spans="1:8" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="221"/>
-      <c r="B7" s="270"/>
-      <c r="C7" s="271">
+      <c r="E7" s="266"/>
+      <c r="F7" s="266"/>
+      <c r="G7" s="266"/>
+      <c r="H7" s="267"/>
+    </row>
+    <row r="8" spans="1:8" ht="55.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="272"/>
+      <c r="B8" s="269"/>
+      <c r="C8" s="270">
+        <v>2</v>
+      </c>
+      <c r="D8" s="271" t="s">
+        <v>264</v>
+      </c>
+      <c r="E8" s="266"/>
+      <c r="F8" s="266"/>
+      <c r="G8" s="266"/>
+      <c r="H8" s="267"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="269"/>
+      <c r="C9" s="270">
+        <v>3</v>
+      </c>
+      <c r="D9" s="273" t="s">
+        <v>265</v>
+      </c>
+      <c r="E9" s="266"/>
+      <c r="F9" s="266"/>
+      <c r="G9" s="266"/>
+      <c r="H9" s="267"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="220"/>
+      <c r="B10" s="269"/>
+      <c r="C10" s="270">
+        <v>4</v>
+      </c>
+      <c r="D10" s="273" t="s">
+        <v>266</v>
+      </c>
+      <c r="E10" s="266"/>
+      <c r="F10" s="266"/>
+      <c r="G10" s="266"/>
+      <c r="H10" s="267"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="274"/>
+      <c r="B11" s="269"/>
+      <c r="C11" s="270">
+        <v>5</v>
+      </c>
+      <c r="D11" s="273" t="s">
+        <v>267</v>
+      </c>
+      <c r="E11" s="275"/>
+      <c r="F11" s="275"/>
+      <c r="G11" s="275"/>
+      <c r="H11" s="276"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="274"/>
+      <c r="B12" s="437"/>
+      <c r="C12" s="438"/>
+      <c r="D12" s="439"/>
+      <c r="E12" s="277" t="s">
+        <v>57</v>
+      </c>
+      <c r="F12" s="277" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="278" t="s">
+        <v>58</v>
+      </c>
+      <c r="H12" s="279" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B13" s="280" t="s">
+        <v>269</v>
+      </c>
+      <c r="C13" s="281"/>
+      <c r="D13" s="281"/>
+      <c r="E13" s="282" t="s">
+        <v>270</v>
+      </c>
+      <c r="F13" s="282">
         <v>1</v>
       </c>
-      <c r="D7" s="272" t="s">
-        <v>264</v>
-      </c>
-      <c r="E7" s="267"/>
-      <c r="F7" s="267"/>
-      <c r="G7" s="267"/>
-      <c r="H7" s="268"/>
-    </row>
-    <row r="8" spans="1:8" ht="55.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="273"/>
-      <c r="B8" s="270"/>
-      <c r="C8" s="271">
-        <v>2</v>
-      </c>
-      <c r="D8" s="272" t="s">
-        <v>265</v>
-      </c>
-      <c r="E8" s="267"/>
-      <c r="F8" s="267"/>
-      <c r="G8" s="267"/>
-      <c r="H8" s="268"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="270"/>
-      <c r="C9" s="271">
-        <v>3</v>
-      </c>
-      <c r="D9" s="274" t="s">
-        <v>266</v>
-      </c>
-      <c r="E9" s="267"/>
-      <c r="F9" s="267"/>
-      <c r="G9" s="267"/>
-      <c r="H9" s="268"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="221"/>
-      <c r="B10" s="270"/>
-      <c r="C10" s="271">
-        <v>4</v>
-      </c>
-      <c r="D10" s="274" t="s">
-        <v>267</v>
-      </c>
-      <c r="E10" s="267"/>
-      <c r="F10" s="267"/>
-      <c r="G10" s="267"/>
-      <c r="H10" s="268"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="275"/>
-      <c r="B11" s="270"/>
-      <c r="C11" s="271">
-        <v>5</v>
-      </c>
-      <c r="D11" s="274" t="s">
-        <v>268</v>
-      </c>
-      <c r="E11" s="276"/>
-      <c r="F11" s="276"/>
-      <c r="G11" s="276"/>
-      <c r="H11" s="277"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="275"/>
-      <c r="B12" s="364"/>
-      <c r="C12" s="365"/>
-      <c r="D12" s="366"/>
-      <c r="E12" s="278" t="s">
-        <v>58</v>
-      </c>
-      <c r="F12" s="278" t="s">
-        <v>7</v>
-      </c>
-      <c r="G12" s="279" t="s">
-        <v>59</v>
-      </c>
-      <c r="H12" s="280" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B13" s="281" t="s">
-        <v>270</v>
-      </c>
-      <c r="C13" s="282"/>
-      <c r="D13" s="282"/>
-      <c r="E13" s="283" t="s">
-        <v>271</v>
-      </c>
-      <c r="F13" s="283">
-        <v>1</v>
-      </c>
-      <c r="G13" s="284">
+      <c r="G13" s="283">
         <v>15000</v>
       </c>
-      <c r="H13" s="285">
+      <c r="H13" s="284">
         <f>F13*G13</f>
         <v>15000</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B14" s="286"/>
-      <c r="C14" s="274" t="s">
-        <v>416</v>
-      </c>
-      <c r="D14" s="274"/>
-      <c r="E14" s="287"/>
-      <c r="F14" s="288"/>
-      <c r="G14" s="288"/>
-      <c r="H14" s="289"/>
+      <c r="B14" s="285"/>
+      <c r="C14" s="273" t="s">
+        <v>415</v>
+      </c>
+      <c r="D14" s="273"/>
+      <c r="E14" s="286"/>
+      <c r="F14" s="287"/>
+      <c r="G14" s="287"/>
+      <c r="H14" s="288"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B15" s="286"/>
-      <c r="C15" s="274"/>
-      <c r="D15" s="274" t="s">
+      <c r="B15" s="285"/>
+      <c r="C15" s="273"/>
+      <c r="D15" s="273" t="s">
+        <v>271</v>
+      </c>
+      <c r="E15" s="289"/>
+      <c r="F15" s="290"/>
+      <c r="G15" s="290"/>
+      <c r="H15" s="291"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B16" s="285"/>
+      <c r="C16" s="273"/>
+      <c r="D16" s="273" t="s">
         <v>272</v>
       </c>
-      <c r="E15" s="290"/>
-      <c r="F15" s="291"/>
-      <c r="G15" s="291"/>
-      <c r="H15" s="292"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B16" s="286"/>
-      <c r="C16" s="274"/>
-      <c r="D16" s="274" t="s">
+      <c r="E16" s="289"/>
+      <c r="F16" s="290"/>
+      <c r="G16" s="290"/>
+      <c r="H16" s="291"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B17" s="285"/>
+      <c r="C17" s="273"/>
+      <c r="D17" s="273" t="s">
         <v>273</v>
       </c>
-      <c r="E16" s="290"/>
-      <c r="F16" s="291"/>
-      <c r="G16" s="291"/>
-      <c r="H16" s="292"/>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B17" s="286"/>
-      <c r="C17" s="274"/>
-      <c r="D17" s="274" t="s">
+      <c r="E17" s="289"/>
+      <c r="F17" s="290"/>
+      <c r="G17" s="290"/>
+      <c r="H17" s="291"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B18" s="285"/>
+      <c r="C18" s="273"/>
+      <c r="D18" s="273" t="s">
         <v>274</v>
       </c>
-      <c r="E17" s="290"/>
-      <c r="F17" s="291"/>
-      <c r="G17" s="291"/>
-      <c r="H17" s="292"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B18" s="286"/>
-      <c r="C18" s="274"/>
-      <c r="D18" s="274" t="s">
+      <c r="E18" s="289"/>
+      <c r="F18" s="290"/>
+      <c r="G18" s="290"/>
+      <c r="H18" s="291"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B19" s="285"/>
+      <c r="C19" s="273"/>
+      <c r="D19" s="273" t="s">
         <v>275</v>
       </c>
-      <c r="E18" s="290"/>
-      <c r="F18" s="291"/>
-      <c r="G18" s="291"/>
-      <c r="H18" s="292"/>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B19" s="286"/>
-      <c r="C19" s="274"/>
-      <c r="D19" s="274" t="s">
+      <c r="E19" s="289"/>
+      <c r="F19" s="290"/>
+      <c r="G19" s="290"/>
+      <c r="H19" s="291"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B20" s="292"/>
+      <c r="C20" s="293"/>
+      <c r="D20" s="293"/>
+      <c r="E20" s="294"/>
+      <c r="F20" s="295"/>
+      <c r="G20" s="295"/>
+      <c r="H20" s="296"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B21" s="280" t="s">
         <v>276</v>
       </c>
-      <c r="E19" s="290"/>
-      <c r="F19" s="291"/>
-      <c r="G19" s="291"/>
-      <c r="H19" s="292"/>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B20" s="293"/>
-      <c r="C20" s="294"/>
-      <c r="D20" s="294"/>
-      <c r="E20" s="295"/>
-      <c r="F20" s="296"/>
-      <c r="G20" s="296"/>
-      <c r="H20" s="297"/>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B21" s="281" t="s">
+      <c r="C21" s="281"/>
+      <c r="D21" s="281"/>
+      <c r="E21" s="282" t="s">
         <v>277</v>
       </c>
-      <c r="C21" s="282"/>
-      <c r="D21" s="282"/>
-      <c r="E21" s="283" t="s">
-        <v>278</v>
-      </c>
-      <c r="F21" s="283">
+      <c r="F21" s="282">
         <v>1</v>
       </c>
-      <c r="G21" s="284">
+      <c r="G21" s="283">
         <v>50000</v>
       </c>
-      <c r="H21" s="285">
+      <c r="H21" s="284">
         <f>F21*G21</f>
         <v>50000</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B22" s="286"/>
-      <c r="C22" s="274" t="s">
+      <c r="B22" s="285"/>
+      <c r="C22" s="273" t="s">
+        <v>278</v>
+      </c>
+      <c r="D22" s="273"/>
+      <c r="E22" s="297"/>
+      <c r="F22" s="298"/>
+      <c r="G22" s="298"/>
+      <c r="H22" s="299"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B23" s="285"/>
+      <c r="C23" s="273"/>
+      <c r="D23" s="273" t="s">
         <v>279</v>
       </c>
-      <c r="D22" s="274"/>
-      <c r="E22" s="298"/>
-      <c r="F22" s="299"/>
-      <c r="G22" s="299"/>
-      <c r="H22" s="300"/>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B23" s="286"/>
-      <c r="C23" s="274"/>
-      <c r="D23" s="274" t="s">
+      <c r="E23" s="300"/>
+      <c r="F23" s="293"/>
+      <c r="G23" s="293"/>
+      <c r="H23" s="301"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B24" s="285"/>
+      <c r="C24" s="273"/>
+      <c r="D24" s="273" t="s">
         <v>280</v>
       </c>
-      <c r="E23" s="301"/>
-      <c r="F23" s="294"/>
-      <c r="G23" s="294"/>
-      <c r="H23" s="302"/>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B24" s="286"/>
-      <c r="C24" s="274"/>
-      <c r="D24" s="274" t="s">
+      <c r="E24" s="300"/>
+      <c r="F24" s="293"/>
+      <c r="G24" s="293"/>
+      <c r="H24" s="301"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B25" s="285"/>
+      <c r="C25" s="273"/>
+      <c r="D25" s="273" t="s">
         <v>281</v>
       </c>
-      <c r="E24" s="301"/>
-      <c r="F24" s="294"/>
-      <c r="G24" s="294"/>
-      <c r="H24" s="302"/>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B25" s="286"/>
-      <c r="C25" s="274"/>
-      <c r="D25" s="274" t="s">
+      <c r="E25" s="300"/>
+      <c r="F25" s="293"/>
+      <c r="G25" s="293"/>
+      <c r="H25" s="301"/>
+    </row>
+    <row r="26" spans="2:8" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="B26" s="285"/>
+      <c r="C26" s="273"/>
+      <c r="D26" s="271" t="s">
         <v>282</v>
       </c>
-      <c r="E25" s="301"/>
-      <c r="F25" s="294"/>
-      <c r="G25" s="294"/>
-      <c r="H25" s="302"/>
-    </row>
-    <row r="26" spans="2:8" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="B26" s="286"/>
-      <c r="C26" s="274"/>
-      <c r="D26" s="272" t="s">
+      <c r="E26" s="300"/>
+      <c r="F26" s="293"/>
+      <c r="G26" s="293"/>
+      <c r="H26" s="301"/>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B27" s="285"/>
+      <c r="C27" s="273"/>
+      <c r="D27" s="273" t="s">
         <v>283</v>
       </c>
-      <c r="E26" s="301"/>
-      <c r="F26" s="294"/>
-      <c r="G26" s="294"/>
-      <c r="H26" s="302"/>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B27" s="286"/>
-      <c r="C27" s="274"/>
-      <c r="D27" s="274" t="s">
+      <c r="E27" s="300"/>
+      <c r="F27" s="293"/>
+      <c r="G27" s="293"/>
+      <c r="H27" s="301"/>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B28" s="285"/>
+      <c r="C28" s="273"/>
+      <c r="D28" s="273" t="s">
         <v>284</v>
       </c>
-      <c r="E27" s="301"/>
-      <c r="F27" s="294"/>
-      <c r="G27" s="294"/>
-      <c r="H27" s="302"/>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B28" s="286"/>
-      <c r="C28" s="274"/>
-      <c r="D28" s="274" t="s">
+      <c r="E28" s="300"/>
+      <c r="F28" s="293"/>
+      <c r="G28" s="293"/>
+      <c r="H28" s="301"/>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B29" s="285"/>
+      <c r="C29" s="273"/>
+      <c r="D29" s="273" t="s">
         <v>285</v>
       </c>
-      <c r="E28" s="301"/>
-      <c r="F28" s="294"/>
-      <c r="G28" s="294"/>
-      <c r="H28" s="302"/>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B29" s="286"/>
-      <c r="C29" s="274"/>
-      <c r="D29" s="274" t="s">
+      <c r="E29" s="440"/>
+      <c r="F29" s="441"/>
+      <c r="G29" s="441"/>
+      <c r="H29" s="442"/>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B30" s="285"/>
+      <c r="C30" s="273"/>
+      <c r="D30" s="273" t="s">
         <v>286</v>
       </c>
-      <c r="E29" s="367"/>
-      <c r="F29" s="368"/>
-      <c r="G29" s="368"/>
-      <c r="H29" s="369"/>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B30" s="286"/>
-      <c r="C30" s="274"/>
-      <c r="D30" s="274" t="s">
+      <c r="E30" s="443"/>
+      <c r="F30" s="444"/>
+      <c r="G30" s="444"/>
+      <c r="H30" s="445"/>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B31" s="285"/>
+      <c r="C31" s="273"/>
+      <c r="D31" s="273" t="s">
         <v>287</v>
       </c>
-      <c r="E30" s="370"/>
-      <c r="F30" s="371"/>
-      <c r="G30" s="371"/>
-      <c r="H30" s="372"/>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B31" s="286"/>
-      <c r="C31" s="274"/>
-      <c r="D31" s="274" t="s">
+      <c r="E31" s="300"/>
+      <c r="F31" s="293"/>
+      <c r="G31" s="293"/>
+      <c r="H31" s="301"/>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B32" s="285"/>
+      <c r="C32" s="273"/>
+      <c r="D32" s="273" t="s">
         <v>288</v>
       </c>
-      <c r="E31" s="301"/>
-      <c r="F31" s="294"/>
-      <c r="G31" s="294"/>
-      <c r="H31" s="302"/>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B32" s="286"/>
-      <c r="C32" s="274"/>
-      <c r="D32" s="274" t="s">
+      <c r="E32" s="300"/>
+      <c r="F32" s="293"/>
+      <c r="G32" s="293"/>
+      <c r="H32" s="301"/>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B33" s="285"/>
+      <c r="C33" s="273"/>
+      <c r="D33" s="273" t="s">
         <v>289</v>
       </c>
-      <c r="E32" s="301"/>
-      <c r="F32" s="294"/>
-      <c r="G32" s="294"/>
-      <c r="H32" s="302"/>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B33" s="286"/>
-      <c r="C33" s="274"/>
-      <c r="D33" s="274" t="s">
+      <c r="E33" s="300"/>
+      <c r="F33" s="293"/>
+      <c r="G33" s="293"/>
+      <c r="H33" s="301"/>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B34" s="285"/>
+      <c r="C34" s="273"/>
+      <c r="D34" s="273" t="s">
         <v>290</v>
       </c>
-      <c r="E33" s="301"/>
-      <c r="F33" s="294"/>
-      <c r="G33" s="294"/>
-      <c r="H33" s="302"/>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B34" s="286"/>
-      <c r="C34" s="274"/>
-      <c r="D34" s="274" t="s">
+      <c r="E34" s="300"/>
+      <c r="F34" s="293"/>
+      <c r="G34" s="293"/>
+      <c r="H34" s="301"/>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B35" s="285"/>
+      <c r="C35" s="273"/>
+      <c r="D35" s="273" t="s">
         <v>291</v>
       </c>
-      <c r="E34" s="301"/>
-      <c r="F34" s="294"/>
-      <c r="G34" s="294"/>
-      <c r="H34" s="302"/>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B35" s="286"/>
-      <c r="C35" s="274"/>
-      <c r="D35" s="274" t="s">
+      <c r="E35" s="300"/>
+      <c r="F35" s="293"/>
+      <c r="G35" s="293"/>
+      <c r="H35" s="301"/>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B36" s="285"/>
+      <c r="C36" s="273"/>
+      <c r="D36" s="273"/>
+      <c r="E36" s="302"/>
+      <c r="F36" s="303"/>
+      <c r="G36" s="303"/>
+      <c r="H36" s="304"/>
+    </row>
+    <row r="37" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="280" t="s">
         <v>292</v>
       </c>
-      <c r="E35" s="301"/>
-      <c r="F35" s="294"/>
-      <c r="G35" s="294"/>
-      <c r="H35" s="302"/>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B36" s="286"/>
-      <c r="C36" s="274"/>
-      <c r="D36" s="274"/>
-      <c r="E36" s="303"/>
-      <c r="F36" s="304"/>
-      <c r="G36" s="304"/>
-      <c r="H36" s="305"/>
-    </row>
-    <row r="37" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="281" t="s">
+      <c r="C37" s="281"/>
+      <c r="D37" s="305" t="s">
         <v>293</v>
       </c>
-      <c r="C37" s="282"/>
-      <c r="D37" s="306" t="s">
+      <c r="E37" s="282" t="s">
         <v>294</v>
       </c>
-      <c r="E37" s="283" t="s">
+      <c r="F37" s="306">
+        <v>0</v>
+      </c>
+      <c r="G37" s="283">
+        <v>4000</v>
+      </c>
+      <c r="H37" s="284">
+        <f>F37*G37</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B38" s="280"/>
+      <c r="C38" s="281"/>
+      <c r="D38" s="307" t="s">
         <v>295</v>
       </c>
-      <c r="F37" s="307">
-        <v>0</v>
-      </c>
-      <c r="G37" s="284">
-        <v>4000</v>
-      </c>
-      <c r="H37" s="285">
-        <f>F37*G37</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B38" s="281"/>
-      <c r="C38" s="282"/>
-      <c r="D38" s="308" t="s">
+      <c r="E38" s="282" t="s">
         <v>296</v>
       </c>
-      <c r="E38" s="283" t="s">
-        <v>297</v>
-      </c>
-      <c r="F38" s="307">
+      <c r="F38" s="306">
         <f>total_dur</f>
         <v>0</v>
       </c>
-      <c r="G38" s="284">
+      <c r="G38" s="283">
         <f>G37*(1-0.2)</f>
         <v>3200</v>
       </c>
-      <c r="H38" s="285">
+      <c r="H38" s="284">
         <f>F38*G38</f>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="286"/>
-      <c r="C39" s="274" t="s">
-        <v>279</v>
-      </c>
-      <c r="D39" s="274"/>
-      <c r="E39" s="373" t="s">
+      <c r="B39" s="285"/>
+      <c r="C39" s="273" t="s">
+        <v>278</v>
+      </c>
+      <c r="D39" s="273"/>
+      <c r="E39" s="446" t="s">
+        <v>297</v>
+      </c>
+      <c r="F39" s="447"/>
+      <c r="G39" s="447"/>
+      <c r="H39" s="448"/>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B40" s="285"/>
+      <c r="C40" s="273"/>
+      <c r="D40" s="271" t="s">
         <v>298</v>
       </c>
-      <c r="F39" s="374"/>
-      <c r="G39" s="374"/>
-      <c r="H39" s="375"/>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B40" s="286"/>
-      <c r="C40" s="274"/>
-      <c r="D40" s="272" t="s">
+      <c r="E40" s="300"/>
+      <c r="F40" s="293"/>
+      <c r="G40" s="293"/>
+      <c r="H40" s="301"/>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B41" s="285"/>
+      <c r="C41" s="273"/>
+      <c r="D41" s="271" t="s">
         <v>299</v>
       </c>
-      <c r="E40" s="301"/>
-      <c r="F40" s="294"/>
-      <c r="G40" s="294"/>
-      <c r="H40" s="302"/>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B41" s="286"/>
-      <c r="C41" s="274"/>
-      <c r="D41" s="272" t="s">
+      <c r="E41" s="300"/>
+      <c r="F41" s="293"/>
+      <c r="G41" s="293"/>
+      <c r="H41" s="301"/>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B42" s="285"/>
+      <c r="C42" s="273"/>
+      <c r="D42" s="271" t="s">
         <v>300</v>
       </c>
-      <c r="E41" s="301"/>
-      <c r="F41" s="294"/>
-      <c r="G41" s="294"/>
-      <c r="H41" s="302"/>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B42" s="286"/>
-      <c r="C42" s="274"/>
-      <c r="D42" s="272" t="s">
+      <c r="E42" s="300"/>
+      <c r="F42" s="293"/>
+      <c r="G42" s="293"/>
+      <c r="H42" s="301"/>
+    </row>
+    <row r="43" spans="2:8" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="285"/>
+      <c r="C43" s="273"/>
+      <c r="D43" s="271" t="s">
         <v>301</v>
       </c>
-      <c r="E42" s="301"/>
-      <c r="F42" s="294"/>
-      <c r="G42" s="294"/>
-      <c r="H42" s="302"/>
-    </row>
-    <row r="43" spans="2:8" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="286"/>
-      <c r="C43" s="274"/>
-      <c r="D43" s="272" t="s">
+      <c r="E43" s="300"/>
+      <c r="F43" s="293"/>
+      <c r="G43" s="293"/>
+      <c r="H43" s="301"/>
+    </row>
+    <row r="44" spans="2:8" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="285"/>
+      <c r="C44" s="273"/>
+      <c r="D44" s="271" t="s">
         <v>302</v>
       </c>
-      <c r="E43" s="301"/>
-      <c r="F43" s="294"/>
-      <c r="G43" s="294"/>
-      <c r="H43" s="302"/>
-    </row>
-    <row r="44" spans="2:8" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="286"/>
-      <c r="C44" s="274"/>
-      <c r="D44" s="272" t="s">
+      <c r="E44" s="300"/>
+      <c r="F44" s="293"/>
+      <c r="G44" s="293"/>
+      <c r="H44" s="301"/>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B45" s="285"/>
+      <c r="C45" s="273"/>
+      <c r="D45" s="271" t="s">
         <v>303</v>
       </c>
-      <c r="E44" s="301"/>
-      <c r="F44" s="294"/>
-      <c r="G44" s="294"/>
-      <c r="H44" s="302"/>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B45" s="286"/>
-      <c r="C45" s="274"/>
-      <c r="D45" s="272" t="s">
+      <c r="E45" s="300"/>
+      <c r="F45" s="293"/>
+      <c r="G45" s="293"/>
+      <c r="H45" s="301"/>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B46" s="285"/>
+      <c r="C46" s="273"/>
+      <c r="D46" s="271" t="s">
         <v>304</v>
       </c>
-      <c r="E45" s="301"/>
-      <c r="F45" s="294"/>
-      <c r="G45" s="294"/>
-      <c r="H45" s="302"/>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B46" s="286"/>
-      <c r="C46" s="274"/>
-      <c r="D46" s="272" t="s">
+      <c r="E46" s="300"/>
+      <c r="F46" s="293"/>
+      <c r="G46" s="293"/>
+      <c r="H46" s="301"/>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B47" s="285"/>
+      <c r="C47" s="273"/>
+      <c r="D47" s="271" t="s">
         <v>305</v>
       </c>
-      <c r="E46" s="301"/>
-      <c r="F46" s="294"/>
-      <c r="G46" s="294"/>
-      <c r="H46" s="302"/>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B47" s="286"/>
-      <c r="C47" s="274"/>
-      <c r="D47" s="272" t="s">
+      <c r="E47" s="300"/>
+      <c r="F47" s="293"/>
+      <c r="G47" s="293"/>
+      <c r="H47" s="301"/>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B48" s="285"/>
+      <c r="C48" s="273"/>
+      <c r="D48" s="271" t="s">
         <v>306</v>
       </c>
-      <c r="E47" s="301"/>
-      <c r="F47" s="294"/>
-      <c r="G47" s="294"/>
-      <c r="H47" s="302"/>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B48" s="286"/>
-      <c r="C48" s="274"/>
-      <c r="D48" s="272" t="s">
+      <c r="E48" s="300"/>
+      <c r="F48" s="293"/>
+      <c r="G48" s="293"/>
+      <c r="H48" s="301"/>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B49" s="285"/>
+      <c r="C49" s="273"/>
+      <c r="D49" s="271" t="s">
         <v>307</v>
       </c>
-      <c r="E48" s="301"/>
-      <c r="F48" s="294"/>
-      <c r="G48" s="294"/>
-      <c r="H48" s="302"/>
-    </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B49" s="286"/>
-      <c r="C49" s="274"/>
-      <c r="D49" s="272" t="s">
+      <c r="E49" s="300"/>
+      <c r="F49" s="293"/>
+      <c r="G49" s="293"/>
+      <c r="H49" s="301"/>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B50" s="285"/>
+      <c r="C50" s="273"/>
+      <c r="D50" s="271" t="s">
         <v>308</v>
       </c>
-      <c r="E49" s="301"/>
-      <c r="F49" s="294"/>
-      <c r="G49" s="294"/>
-      <c r="H49" s="302"/>
-    </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B50" s="286"/>
-      <c r="C50" s="274"/>
-      <c r="D50" s="272" t="s">
+      <c r="E50" s="300"/>
+      <c r="F50" s="293"/>
+      <c r="G50" s="293"/>
+      <c r="H50" s="301"/>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B51" s="269"/>
+      <c r="C51" s="273"/>
+      <c r="D51" s="271" t="s">
         <v>309</v>
       </c>
-      <c r="E50" s="301"/>
-      <c r="F50" s="294"/>
-      <c r="G50" s="294"/>
-      <c r="H50" s="302"/>
-    </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B51" s="270"/>
-      <c r="C51" s="274"/>
-      <c r="D51" s="272" t="s">
+      <c r="E51" s="300"/>
+      <c r="F51" s="293"/>
+      <c r="G51" s="293"/>
+      <c r="H51" s="301"/>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B52" s="269"/>
+      <c r="C52" s="273"/>
+      <c r="D52" s="271" t="s">
         <v>310</v>
       </c>
-      <c r="E51" s="301"/>
-      <c r="F51" s="294"/>
-      <c r="G51" s="294"/>
-      <c r="H51" s="302"/>
-    </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B52" s="270"/>
-      <c r="C52" s="274"/>
-      <c r="D52" s="272" t="s">
+      <c r="E52" s="300"/>
+      <c r="F52" s="293"/>
+      <c r="G52" s="293"/>
+      <c r="H52" s="301"/>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B53" s="269"/>
+      <c r="C53" s="273"/>
+      <c r="D53" s="271" t="s">
         <v>311</v>
       </c>
-      <c r="E52" s="301"/>
-      <c r="F52" s="294"/>
-      <c r="G52" s="294"/>
-      <c r="H52" s="302"/>
-    </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B53" s="270"/>
-      <c r="C53" s="274"/>
-      <c r="D53" s="272" t="s">
+      <c r="E53" s="300"/>
+      <c r="F53" s="293"/>
+      <c r="G53" s="293"/>
+      <c r="H53" s="301"/>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B54" s="269"/>
+      <c r="C54" s="265"/>
+      <c r="D54" s="271" t="s">
         <v>312</v>
       </c>
-      <c r="E53" s="301"/>
-      <c r="F53" s="294"/>
-      <c r="G53" s="294"/>
-      <c r="H53" s="302"/>
-    </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B54" s="270"/>
-      <c r="C54" s="266"/>
-      <c r="D54" s="272" t="s">
+      <c r="E54" s="300"/>
+      <c r="F54" s="293"/>
+      <c r="G54" s="293"/>
+      <c r="H54" s="301"/>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B55" s="269"/>
+      <c r="C55" s="265"/>
+      <c r="D55" s="273"/>
+      <c r="E55" s="302"/>
+      <c r="F55" s="303"/>
+      <c r="G55" s="303"/>
+      <c r="H55" s="304"/>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B56" s="308" t="s">
         <v>313</v>
       </c>
-      <c r="E54" s="301"/>
-      <c r="F54" s="294"/>
-      <c r="G54" s="294"/>
-      <c r="H54" s="302"/>
-    </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B55" s="270"/>
-      <c r="C55" s="266"/>
-      <c r="D55" s="274"/>
-      <c r="E55" s="303"/>
-      <c r="F55" s="304"/>
-      <c r="G55" s="304"/>
-      <c r="H55" s="305"/>
-    </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B56" s="309" t="s">
-        <v>314</v>
-      </c>
-      <c r="C56" s="310"/>
-      <c r="D56" s="311"/>
-      <c r="E56" s="312" t="s">
-        <v>203</v>
-      </c>
-      <c r="F56" s="312">
+      <c r="C56" s="309"/>
+      <c r="D56" s="310"/>
+      <c r="E56" s="311" t="s">
+        <v>202</v>
+      </c>
+      <c r="F56" s="311">
         <v>1</v>
       </c>
-      <c r="G56" s="313">
+      <c r="G56" s="312">
         <v>40000</v>
       </c>
-      <c r="H56" s="314">
+      <c r="H56" s="313">
         <f>F56*G56</f>
         <v>40000</v>
       </c>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B57" s="270"/>
-      <c r="C57" s="265" t="s">
+      <c r="B57" s="269"/>
+      <c r="C57" s="264" t="s">
+        <v>314</v>
+      </c>
+      <c r="D57" s="273"/>
+      <c r="E57" s="314"/>
+      <c r="F57" s="314"/>
+      <c r="G57" s="315"/>
+      <c r="H57" s="316"/>
+    </row>
+    <row r="58" spans="2:8" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="B58" s="269"/>
+      <c r="C58" s="265"/>
+      <c r="D58" s="271" t="s">
         <v>315</v>
       </c>
-      <c r="D57" s="274"/>
-      <c r="E57" s="315"/>
-      <c r="F57" s="315"/>
-      <c r="G57" s="316"/>
-      <c r="H57" s="317"/>
-    </row>
-    <row r="58" spans="2:8" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="B58" s="270"/>
-      <c r="C58" s="266"/>
-      <c r="D58" s="272" t="s">
+      <c r="E58" s="317" t="s">
         <v>316</v>
       </c>
-      <c r="E58" s="318" t="s">
+      <c r="F58" s="317"/>
+      <c r="G58" s="318">
+        <v>1000</v>
+      </c>
+      <c r="H58" s="316"/>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B59" s="269"/>
+      <c r="C59" s="265"/>
+      <c r="D59" s="273" t="s">
         <v>317</v>
       </c>
-      <c r="F58" s="318"/>
-      <c r="G58" s="319">
-        <v>1000</v>
-      </c>
-      <c r="H58" s="317"/>
-    </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B59" s="270"/>
-      <c r="C59" s="266"/>
-      <c r="D59" s="274" t="s">
+      <c r="E59" s="314" t="s">
+        <v>316</v>
+      </c>
+      <c r="F59" s="314"/>
+      <c r="G59" s="319">
+        <v>2500</v>
+      </c>
+      <c r="H59" s="316"/>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B60" s="285"/>
+      <c r="C60" s="265"/>
+      <c r="D60" s="273" t="s">
         <v>318</v>
       </c>
-      <c r="E59" s="315" t="s">
-        <v>317</v>
-      </c>
-      <c r="F59" s="315"/>
-      <c r="G59" s="320">
-        <v>2500</v>
-      </c>
-      <c r="H59" s="317"/>
-    </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B60" s="286"/>
-      <c r="C60" s="266"/>
-      <c r="D60" s="274" t="s">
+      <c r="E60" s="314" t="s">
+        <v>316</v>
+      </c>
+      <c r="F60" s="314"/>
+      <c r="G60" s="319">
+        <v>500</v>
+      </c>
+      <c r="H60" s="316"/>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B61" s="285"/>
+      <c r="C61" s="265"/>
+      <c r="D61" s="273" t="s">
         <v>319</v>
       </c>
-      <c r="E60" s="315" t="s">
-        <v>317</v>
-      </c>
-      <c r="F60" s="315"/>
-      <c r="G60" s="320">
+      <c r="E61" s="314" t="s">
+        <v>320</v>
+      </c>
+      <c r="F61" s="314"/>
+      <c r="G61" s="319">
+        <v>5000</v>
+      </c>
+      <c r="H61" s="316"/>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B62" s="449"/>
+      <c r="C62" s="450"/>
+      <c r="D62" s="451"/>
+      <c r="E62" s="314"/>
+      <c r="F62" s="314"/>
+      <c r="G62" s="319"/>
+      <c r="H62" s="316"/>
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B63" s="285"/>
+      <c r="C63" s="264" t="s">
+        <v>321</v>
+      </c>
+      <c r="D63" s="273"/>
+      <c r="E63" s="314"/>
+      <c r="F63" s="314"/>
+      <c r="G63" s="319"/>
+      <c r="H63" s="316"/>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B64" s="285"/>
+      <c r="C64" s="265"/>
+      <c r="D64" s="273" t="s">
+        <v>322</v>
+      </c>
+      <c r="E64" s="314" t="s">
+        <v>323</v>
+      </c>
+      <c r="F64" s="314"/>
+      <c r="G64" s="319">
+        <v>1500</v>
+      </c>
+      <c r="H64" s="316"/>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B65" s="269"/>
+      <c r="C65" s="265"/>
+      <c r="D65" s="273" t="s">
+        <v>324</v>
+      </c>
+      <c r="E65" s="314" t="s">
+        <v>323</v>
+      </c>
+      <c r="F65" s="314"/>
+      <c r="G65" s="319">
+        <v>1500</v>
+      </c>
+      <c r="H65" s="316"/>
+    </row>
+    <row r="66" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B66" s="269"/>
+      <c r="C66" s="265"/>
+      <c r="D66" s="273" t="s">
+        <v>325</v>
+      </c>
+      <c r="E66" s="314" t="s">
+        <v>78</v>
+      </c>
+      <c r="F66" s="314"/>
+      <c r="G66" s="319">
         <v>500</v>
       </c>
-      <c r="H60" s="317"/>
-    </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B61" s="286"/>
-      <c r="C61" s="266"/>
-      <c r="D61" s="274" t="s">
+      <c r="H66" s="316"/>
+    </row>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B67" s="269"/>
+      <c r="C67" s="265"/>
+      <c r="D67" s="273" t="s">
+        <v>326</v>
+      </c>
+      <c r="E67" s="320" t="s">
+        <v>327</v>
+      </c>
+      <c r="F67" s="320"/>
+      <c r="G67" s="321">
+        <v>250</v>
+      </c>
+      <c r="H67" s="322"/>
+    </row>
+    <row r="68" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B68" s="269"/>
+      <c r="C68" s="265"/>
+      <c r="D68" s="271" t="s">
+        <v>328</v>
+      </c>
+      <c r="E68" s="314" t="s">
+        <v>329</v>
+      </c>
+      <c r="F68" s="314"/>
+      <c r="G68" s="319">
+        <v>500</v>
+      </c>
+      <c r="H68" s="316"/>
+    </row>
+    <row r="69" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B69" s="268"/>
+      <c r="C69" s="266"/>
+      <c r="D69" s="323"/>
+      <c r="E69" s="324"/>
+      <c r="F69" s="325"/>
+      <c r="G69" s="326"/>
+      <c r="H69" s="327"/>
+    </row>
+    <row r="70" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B70" s="269"/>
+      <c r="C70" s="264" t="s">
+        <v>330</v>
+      </c>
+      <c r="D70" s="273"/>
+      <c r="E70" s="324"/>
+      <c r="F70" s="325"/>
+      <c r="G70" s="326"/>
+      <c r="H70" s="327"/>
+    </row>
+    <row r="71" spans="2:8" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B71" s="269"/>
+      <c r="C71" s="265"/>
+      <c r="D71" s="271" t="s">
+        <v>331</v>
+      </c>
+      <c r="E71" s="452" t="s">
+        <v>332</v>
+      </c>
+      <c r="F71" s="452"/>
+      <c r="G71" s="452"/>
+      <c r="H71" s="453"/>
+    </row>
+    <row r="72" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B72" s="269"/>
+      <c r="C72" s="265"/>
+      <c r="D72" s="271" t="s">
+        <v>333</v>
+      </c>
+      <c r="E72" s="433" t="s">
+        <v>332</v>
+      </c>
+      <c r="F72" s="433"/>
+      <c r="G72" s="433"/>
+      <c r="H72" s="434"/>
+    </row>
+    <row r="73" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B73" s="268"/>
+      <c r="C73" s="266"/>
+      <c r="D73" s="323"/>
+      <c r="E73" s="328"/>
+      <c r="F73" s="270"/>
+      <c r="G73" s="326"/>
+      <c r="H73" s="327"/>
+    </row>
+    <row r="74" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B74" s="269"/>
+      <c r="C74" s="264" t="s">
+        <v>334</v>
+      </c>
+      <c r="D74" s="273"/>
+      <c r="E74" s="324"/>
+      <c r="F74" s="325"/>
+      <c r="G74" s="326"/>
+      <c r="H74" s="327"/>
+    </row>
+    <row r="75" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B75" s="269"/>
+      <c r="C75" s="265"/>
+      <c r="D75" s="271" t="s">
+        <v>335</v>
+      </c>
+      <c r="E75" s="314" t="s">
+        <v>336</v>
+      </c>
+      <c r="F75" s="314"/>
+      <c r="G75" s="319">
+        <v>500</v>
+      </c>
+      <c r="H75" s="329"/>
+    </row>
+    <row r="76" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B76" s="269"/>
+      <c r="C76" s="265"/>
+      <c r="D76" s="271" t="s">
+        <v>337</v>
+      </c>
+      <c r="E76" s="330" t="s">
         <v>320</v>
       </c>
-      <c r="E61" s="315" t="s">
-        <v>321</v>
-      </c>
-      <c r="F61" s="315"/>
-      <c r="G61" s="320">
-        <v>5000</v>
-      </c>
-      <c r="H61" s="317"/>
-    </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B62" s="376"/>
-      <c r="C62" s="377"/>
-      <c r="D62" s="378"/>
-      <c r="E62" s="315"/>
-      <c r="F62" s="315"/>
-      <c r="G62" s="320"/>
-      <c r="H62" s="317"/>
-    </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B63" s="286"/>
-      <c r="C63" s="265" t="s">
-        <v>322</v>
-      </c>
-      <c r="D63" s="274"/>
-      <c r="E63" s="315"/>
-      <c r="F63" s="315"/>
-      <c r="G63" s="320"/>
-      <c r="H63" s="317"/>
-    </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B64" s="286"/>
-      <c r="C64" s="266"/>
-      <c r="D64" s="274" t="s">
+      <c r="F76" s="330"/>
+      <c r="G76" s="331">
+        <v>500</v>
+      </c>
+      <c r="H76" s="332"/>
+    </row>
+    <row r="77" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B77" s="269"/>
+      <c r="C77" s="265"/>
+      <c r="D77" s="271" t="s">
+        <v>338</v>
+      </c>
+      <c r="E77" s="314" t="s">
         <v>323</v>
       </c>
-      <c r="E64" s="315" t="s">
-        <v>324</v>
-      </c>
-      <c r="F64" s="315"/>
-      <c r="G64" s="320">
-        <v>1500</v>
-      </c>
-      <c r="H64" s="317"/>
-    </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B65" s="270"/>
-      <c r="C65" s="266"/>
-      <c r="D65" s="274" t="s">
-        <v>325</v>
-      </c>
-      <c r="E65" s="315" t="s">
-        <v>324</v>
-      </c>
-      <c r="F65" s="315"/>
-      <c r="G65" s="320">
-        <v>1500</v>
-      </c>
-      <c r="H65" s="317"/>
-    </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B66" s="270"/>
-      <c r="C66" s="266"/>
-      <c r="D66" s="274" t="s">
-        <v>326</v>
-      </c>
-      <c r="E66" s="315" t="s">
-        <v>79</v>
-      </c>
-      <c r="F66" s="315"/>
-      <c r="G66" s="320">
-        <v>500</v>
-      </c>
-      <c r="H66" s="317"/>
-    </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B67" s="270"/>
-      <c r="C67" s="266"/>
-      <c r="D67" s="274" t="s">
-        <v>327</v>
-      </c>
-      <c r="E67" s="321" t="s">
-        <v>328</v>
-      </c>
-      <c r="F67" s="321"/>
-      <c r="G67" s="322">
+      <c r="F77" s="314"/>
+      <c r="G77" s="319">
         <v>250</v>
       </c>
-      <c r="H67" s="323"/>
-    </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B68" s="270"/>
-      <c r="C68" s="266"/>
-      <c r="D68" s="272" t="s">
-        <v>329</v>
-      </c>
-      <c r="E68" s="315" t="s">
-        <v>330</v>
-      </c>
-      <c r="F68" s="315"/>
-      <c r="G68" s="320">
-        <v>500</v>
-      </c>
-      <c r="H68" s="317"/>
-    </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B69" s="269"/>
-      <c r="C69" s="267"/>
-      <c r="D69" s="324"/>
-      <c r="E69" s="325"/>
-      <c r="F69" s="326"/>
-      <c r="G69" s="327"/>
-      <c r="H69" s="328"/>
-    </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B70" s="270"/>
-      <c r="C70" s="265" t="s">
-        <v>331</v>
-      </c>
-      <c r="D70" s="274"/>
-      <c r="E70" s="325"/>
-      <c r="F70" s="326"/>
-      <c r="G70" s="327"/>
-      <c r="H70" s="328"/>
-    </row>
-    <row r="71" spans="2:8" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="270"/>
-      <c r="C71" s="266"/>
-      <c r="D71" s="272" t="s">
-        <v>332</v>
-      </c>
-      <c r="E71" s="379" t="s">
-        <v>333</v>
-      </c>
-      <c r="F71" s="379"/>
-      <c r="G71" s="379"/>
-      <c r="H71" s="380"/>
-    </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B72" s="270"/>
-      <c r="C72" s="266"/>
-      <c r="D72" s="272" t="s">
-        <v>334</v>
-      </c>
-      <c r="E72" s="360" t="s">
-        <v>333</v>
-      </c>
-      <c r="F72" s="360"/>
-      <c r="G72" s="360"/>
-      <c r="H72" s="361"/>
-    </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B73" s="269"/>
-      <c r="C73" s="267"/>
-      <c r="D73" s="324"/>
-      <c r="E73" s="329"/>
-      <c r="F73" s="271"/>
-      <c r="G73" s="327"/>
-      <c r="H73" s="328"/>
-    </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B74" s="270"/>
-      <c r="C74" s="265" t="s">
-        <v>335</v>
-      </c>
-      <c r="D74" s="274"/>
-      <c r="E74" s="325"/>
-      <c r="F74" s="326"/>
-      <c r="G74" s="327"/>
-      <c r="H74" s="328"/>
-    </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B75" s="270"/>
-      <c r="C75" s="266"/>
-      <c r="D75" s="272" t="s">
-        <v>336</v>
-      </c>
-      <c r="E75" s="315" t="s">
-        <v>337</v>
-      </c>
-      <c r="F75" s="315"/>
-      <c r="G75" s="320">
-        <v>500</v>
-      </c>
-      <c r="H75" s="330"/>
-    </row>
-    <row r="76" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B76" s="270"/>
-      <c r="C76" s="266"/>
-      <c r="D76" s="272" t="s">
-        <v>338</v>
-      </c>
-      <c r="E76" s="331" t="s">
-        <v>321</v>
-      </c>
-      <c r="F76" s="331"/>
-      <c r="G76" s="332">
-        <v>500</v>
-      </c>
-      <c r="H76" s="333"/>
-    </row>
-    <row r="77" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B77" s="270"/>
-      <c r="C77" s="266"/>
-      <c r="D77" s="272" t="s">
+      <c r="H77" s="329"/>
+    </row>
+    <row r="78" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B78" s="269"/>
+      <c r="C78" s="265"/>
+      <c r="D78" s="271" t="s">
         <v>339</v>
       </c>
-      <c r="E77" s="315" t="s">
-        <v>324</v>
-      </c>
-      <c r="F77" s="315"/>
-      <c r="G77" s="320">
+      <c r="E78" s="320" t="s">
+        <v>323</v>
+      </c>
+      <c r="F78" s="320"/>
+      <c r="G78" s="321">
         <v>250</v>
       </c>
-      <c r="H77" s="330"/>
-    </row>
-    <row r="78" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B78" s="270"/>
-      <c r="C78" s="266"/>
-      <c r="D78" s="272" t="s">
+      <c r="H78" s="333"/>
+    </row>
+    <row r="79" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B79" s="269"/>
+      <c r="C79" s="265"/>
+      <c r="D79" s="271" t="s">
         <v>340</v>
       </c>
-      <c r="E78" s="321" t="s">
-        <v>324</v>
-      </c>
-      <c r="F78" s="321"/>
-      <c r="G78" s="322">
-        <v>250</v>
-      </c>
-      <c r="H78" s="334"/>
-    </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B79" s="270"/>
-      <c r="C79" s="266"/>
-      <c r="D79" s="272" t="s">
+      <c r="E79" s="435" t="s">
         <v>341</v>
       </c>
-      <c r="E79" s="362" t="s">
+      <c r="F79" s="435"/>
+      <c r="G79" s="435"/>
+      <c r="H79" s="436"/>
+    </row>
+    <row r="80" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B80" s="268"/>
+      <c r="C80" s="266"/>
+      <c r="D80" s="323"/>
+      <c r="E80" s="324"/>
+      <c r="F80" s="325"/>
+      <c r="G80" s="334"/>
+      <c r="H80" s="335"/>
+    </row>
+    <row r="81" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B81" s="336"/>
+      <c r="C81" s="337"/>
+      <c r="D81" s="338" t="s">
         <v>342</v>
       </c>
-      <c r="F79" s="362"/>
-      <c r="G79" s="362"/>
-      <c r="H79" s="363"/>
-    </row>
-    <row r="80" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B80" s="269"/>
-      <c r="C80" s="267"/>
-      <c r="D80" s="324"/>
-      <c r="E80" s="325"/>
-      <c r="F80" s="326"/>
-      <c r="G80" s="335"/>
-      <c r="H80" s="336"/>
-    </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B81" s="337"/>
-      <c r="C81" s="338"/>
-      <c r="D81" s="339" t="s">
+      <c r="E81" s="339"/>
+      <c r="F81" s="340"/>
+      <c r="G81" s="341"/>
+      <c r="H81" s="342"/>
+    </row>
+    <row r="82" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B82" s="343" t="s">
         <v>343</v>
       </c>
-      <c r="E81" s="340"/>
-      <c r="F81" s="341"/>
-      <c r="G81" s="342"/>
-      <c r="H81" s="343"/>
-    </row>
-    <row r="82" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B82" s="344" t="s">
-        <v>344</v>
-      </c>
-      <c r="C82" s="345"/>
-      <c r="D82" s="346"/>
-      <c r="E82" s="347"/>
-      <c r="F82" s="347"/>
-      <c r="G82" s="348"/>
-      <c r="H82" s="349">
+      <c r="C82" s="344"/>
+      <c r="D82" s="345"/>
+      <c r="E82" s="346"/>
+      <c r="F82" s="346"/>
+      <c r="G82" s="347"/>
+      <c r="H82" s="348">
         <f>SUM(H21,H38,H56)</f>
         <v>90000</v>
       </c>

--- a/templates_xlsx/template_full.xlsx
+++ b/templates_xlsx/template_full.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MichaelChen\AppData\Local\Programs\Python\Python312\budget_proposal_auto_formula\templates_xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68494065-2224-4437-B0C9-CBF002DC729C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{026AA43A-42B1-4F9D-946A-1B72C7875335}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{20B4707C-B100-4A46-8BB4-CCB0641CFCE7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="6" xr2:uid="{20B4707C-B100-4A46-8BB4-CCB0641CFCE7}"/>
   </bookViews>
   <sheets>
     <sheet name="Study Information" sheetId="2" r:id="rId1"/>
@@ -126,7 +126,7 @@
     <author>Michael Chen</author>
   </authors>
   <commentList>
-    <comment ref="D29" authorId="0" shapeId="0" xr:uid="{9F6655F6-4C2D-44D0-96BC-FB5F9FE3391C}">
+    <comment ref="D35" authorId="0" shapeId="0" xr:uid="{9F6655F6-4C2D-44D0-96BC-FB5F9FE3391C}">
       <text>
         <r>
           <rPr>
@@ -146,7 +146,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="437">
   <si>
     <t>Study Assumptions</t>
   </si>
@@ -1387,9 +1387,6 @@
     <t>Grand Total Before Discount</t>
   </si>
   <si>
-    <t>Total Budget for EDETEK Activities Before Discount</t>
-  </si>
-  <si>
     <t>Total Budget After Discount</t>
   </si>
   <si>
@@ -1445,6 +1442,57 @@
   </si>
   <si>
     <t>Screen Failure Rate</t>
+  </si>
+  <si>
+    <t>NCA PK and Statistical Analysis</t>
+  </si>
+  <si>
+    <t>1. PK Analysis Plan</t>
+  </si>
+  <si>
+    <t>2. Data Cleaning and Preparation</t>
+  </si>
+  <si>
+    <t>3. Perform PK analysis</t>
+  </si>
+  <si>
+    <t>4. Perform Statistical Analysis</t>
+  </si>
+  <si>
+    <t>5. Final Report</t>
+  </si>
+  <si>
+    <t>6. Project Management</t>
+  </si>
+  <si>
+    <t>Application Services</t>
+  </si>
+  <si>
+    <t>Professional Services</t>
+  </si>
+  <si>
+    <t>Total Pass-Through</t>
+  </si>
+  <si>
+    <t>Part 5 - NCA PK and Statistical Analysis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pass-Through - Quote </t>
+  </si>
+  <si>
+    <t>Total Budget Before Discount</t>
+  </si>
+  <si>
+    <t>SDTM Spec</t>
+  </si>
+  <si>
+    <t>ADaM Spec</t>
+  </si>
+  <si>
+    <t>aCRF, Define, SDRG</t>
+  </si>
+  <si>
+    <t>Define &amp; ADRG (with Analysis Results)</t>
   </si>
 </sst>
 </file>
@@ -1855,7 +1903,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="23">
+  <fills count="26">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1985,6 +2033,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFAEAAAA"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -2323,12 +2389,14 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
-      <bottom style="medium">
-        <color rgb="FF8497B0"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -2342,7 +2410,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="455">
+  <cellXfs count="479">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3454,16 +3522,10 @@
     <xf numFmtId="6" fontId="49" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="6" fontId="51" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="6" fontId="53" fillId="20" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -3503,6 +3565,67 @@
     <xf numFmtId="6" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="49" fillId="23" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="49" fillId="25" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="49" fillId="22" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="20" fillId="22" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="13" fillId="22" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="20" fillId="22" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="13" fillId="22" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="21" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3604,9 +3727,6 @@
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -3951,8 +4071,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DA76FB6-84D1-457D-BDD9-D6A1E1668C49}">
   <dimension ref="A1:D102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="C80" sqref="C80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3999,7 +4119,7 @@
       <c r="C6" s="3"/>
     </row>
     <row r="7" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="454" t="s">
+      <c r="A7" s="416" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="9"/>
@@ -4007,7 +4127,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="3"/>
@@ -4394,7 +4514,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="33" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B54" s="32"/>
       <c r="C54" s="30"/>
@@ -4798,10 +4918,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{493603F5-0B96-455F-BB1E-DEF5B790632C}">
-  <dimension ref="A1:B58"/>
+  <dimension ref="A1:B66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4888,7 +5008,7 @@
       </c>
       <c r="B13" s="394">
         <f>IFERROR('eClinical Setup'!F24, 0)</f>
-        <v>153400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -4906,7 +5026,7 @@
       </c>
       <c r="B15" s="396">
         <f>SUM(B13:B14)</f>
-        <v>191600</v>
+        <v>38200</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -4921,7 +5041,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="382"/>
-      <c r="B18" s="398"/>
+      <c r="B18" s="397"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="391" t="s">
@@ -4932,7 +5052,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="399" t="s">
+      <c r="A20" s="398" t="s">
         <v>60</v>
       </c>
       <c r="B20" s="394">
@@ -4941,74 +5061,74 @@
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="399" t="s">
+      <c r="A21" s="398" t="s">
         <v>64</v>
       </c>
       <c r="B21" s="394">
         <f>IFERROR('Biostatistics and Programming'!E9, 0)</f>
-        <v>0</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="399" t="s">
+      <c r="A22" s="398" t="s">
         <v>71</v>
       </c>
       <c r="B22" s="394">
-        <f>IFERROR('Biostatistics and Programming'!E15, 0)</f>
-        <v>0</v>
+        <f>IFERROR('Biostatistics and Programming'!E18, 0)</f>
+        <v>8000</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="399" t="s">
+      <c r="A23" s="398" t="s">
         <v>75</v>
       </c>
       <c r="B23" s="394">
-        <f>IFERROR('Biostatistics and Programming'!E21, 0)</f>
+        <f>IFERROR('Biostatistics and Programming'!E27, 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="399" t="s">
+      <c r="A24" s="398" t="s">
         <v>81</v>
       </c>
       <c r="B24" s="394">
-        <f>IFERROR('Biostatistics and Programming'!E33, 0)</f>
+        <f>IFERROR('Biostatistics and Programming'!E39, 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="399" t="s">
+      <c r="A25" s="398" t="s">
         <v>85</v>
       </c>
       <c r="B25" s="394">
-        <f>IFERROR('Biostatistics and Programming'!E38, 0)</f>
+        <f>IFERROR('Biostatistics and Programming'!E44, 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="399" t="s">
+      <c r="A26" s="398" t="s">
+        <v>408</v>
+      </c>
+      <c r="B26" s="394">
+        <f>IFERROR('Biostatistics and Programming'!E47, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="398" t="s">
         <v>409</v>
       </c>
-      <c r="B26" s="394">
-        <f>IFERROR('Biostatistics and Programming'!E41, 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="399" t="s">
-        <v>410</v>
-      </c>
       <c r="B27" s="394">
-        <f>IFERROR('Biostatistics and Programming'!E45, 0)</f>
+        <f>IFERROR('Biostatistics and Programming'!E51, 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="399" t="s">
+      <c r="A28" s="398" t="s">
         <v>94</v>
       </c>
       <c r="B28" s="394">
-        <f>IFERROR('Biostatistics and Programming'!E49, 0)</f>
+        <f>IFERROR('Biostatistics and Programming'!E55, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5018,7 +5138,7 @@
       </c>
       <c r="B29" s="396">
         <f>SUM(B20:B28)</f>
-        <v>0</v>
+        <v>17000</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -5027,25 +5147,25 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="384" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B31" s="364"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="391" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B33" s="392" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="411" t="s">
-        <v>417</v>
-      </c>
-      <c r="B34" s="413">
+      <c r="A34" s="407" t="s">
+        <v>416</v>
+      </c>
+      <c r="B34" s="409">
         <f>IFERROR('CONFORM Informatics'!H82, 0)</f>
-        <v>90000</v>
+        <v>105000</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -5054,106 +5174,183 @@
       </c>
       <c r="B35" s="396">
         <f>SUM(B34)</f>
-        <v>90000</v>
+        <v>105000</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="414"/>
-      <c r="B36" s="415"/>
+      <c r="A36" s="410"/>
+      <c r="B36" s="411"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="412" t="s">
+      <c r="A37" s="408"/>
+      <c r="B37" s="412"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="384" t="s">
+        <v>430</v>
+      </c>
+      <c r="B38" s="364"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="384"/>
+      <c r="B39" s="364"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="417" t="s">
+        <v>420</v>
+      </c>
+      <c r="B40" s="418" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="419" t="s">
+        <v>421</v>
+      </c>
+      <c r="B41" s="420"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="419" t="s">
+        <v>422</v>
+      </c>
+      <c r="B42" s="420"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="419" t="s">
+        <v>423</v>
+      </c>
+      <c r="B43" s="420"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="421" t="s">
+        <v>424</v>
+      </c>
+      <c r="B44" s="420"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="421" t="s">
+        <v>425</v>
+      </c>
+      <c r="B45" s="420"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="421" t="s">
+        <v>426</v>
+      </c>
+      <c r="B46" s="420"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="422" t="s">
         <v>400</v>
       </c>
-      <c r="B37" s="416">
-        <f>SUM(B8,B15,B29,B35)</f>
-        <v>294600</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="395"/>
-      <c r="B38" s="361"/>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="395"/>
-      <c r="B39" s="361"/>
-    </row>
-    <row r="40" spans="1:2" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="400" t="s">
-        <v>391</v>
-      </c>
-      <c r="B40" s="397"/>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="401" t="s">
+      <c r="B47" s="423"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="424"/>
+      <c r="B48" s="425"/>
+    </row>
+    <row r="49" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A49" s="426" t="s">
+        <v>431</v>
+      </c>
+      <c r="B49" s="385"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="427" t="s">
+        <v>427</v>
+      </c>
+      <c r="B50" s="428"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="427" t="s">
+        <v>428</v>
+      </c>
+      <c r="B51" s="428"/>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="429" t="s">
+        <v>429</v>
+      </c>
+      <c r="B52" s="430"/>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="429"/>
+      <c r="B53" s="431"/>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="429" t="s">
+        <v>432</v>
+      </c>
+      <c r="B54" s="431">
+        <f>SUM(B8,B15,B29,B35,B47,B52)</f>
+        <v>173200</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" s="429"/>
+      <c r="B55" s="431"/>
+    </row>
+    <row r="56" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A56" s="399" t="s">
         <v>401</v>
       </c>
-      <c r="B41" s="402">
-        <f>SUM(B8,B15,B29,B35)</f>
-        <v>294600</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A48" s="403" t="s">
+      <c r="B56" s="400"/>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" s="395"/>
+      <c r="B57" s="361"/>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" s="378"/>
+      <c r="B58" s="361"/>
+    </row>
+    <row r="59" spans="1:2" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A59" s="401"/>
+      <c r="B59" s="379"/>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" s="361"/>
+      <c r="B60" s="379"/>
+    </row>
+    <row r="61" spans="1:2" ht="115.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="402" t="s">
         <v>402</v>
       </c>
-      <c r="B48" s="404"/>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" s="395"/>
-      <c r="B49" s="361"/>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" s="378"/>
-      <c r="B50" s="361"/>
-    </row>
-    <row r="51" spans="1:2" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A51" s="405"/>
-      <c r="B51" s="379"/>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" s="361"/>
-      <c r="B52" s="379"/>
-    </row>
-    <row r="53" spans="1:2" ht="115.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="406" t="s">
+      <c r="B61" s="364"/>
+    </row>
+    <row r="62" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="403" t="s">
         <v>403</v>
       </c>
-      <c r="B53" s="364"/>
-    </row>
-    <row r="54" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="407" t="s">
+      <c r="B62" s="445"/>
+    </row>
+    <row r="63" spans="1:2" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="404" t="s">
         <v>404</v>
       </c>
-      <c r="B54" s="420"/>
-    </row>
-    <row r="55" spans="1:2" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="408" t="s">
+      <c r="B63" s="446"/>
+    </row>
+    <row r="64" spans="1:2" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="404" t="s">
         <v>405</v>
       </c>
-      <c r="B55" s="421"/>
-    </row>
-    <row r="56" spans="1:2" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="408" t="s">
+      <c r="B64" s="446"/>
+    </row>
+    <row r="65" spans="1:2" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="404" t="s">
         <v>406</v>
       </c>
-      <c r="B56" s="421"/>
-    </row>
-    <row r="57" spans="1:2" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="408" t="s">
+      <c r="B65" s="446"/>
+    </row>
+    <row r="66" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A66" s="405" t="s">
         <v>407</v>
       </c>
-      <c r="B57" s="421"/>
-    </row>
-    <row r="58" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A58" s="409" t="s">
-        <v>408</v>
-      </c>
-      <c r="B58" s="422"/>
+      <c r="B66" s="447"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B54:B58"/>
+    <mergeCell ref="B62:B66"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5161,10 +5358,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9CCC714-F1CA-4447-8DC7-009E1C781FE3}">
-  <dimension ref="A1:E54"/>
+  <dimension ref="A1:E60"/>
   <sheetViews>
-    <sheetView zoomScale="95" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView topLeftCell="A32" zoomScale="95" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5184,9 +5381,9 @@
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="45"/>
       <c r="B2" s="43"/>
-      <c r="C2" s="423"/>
-      <c r="D2" s="423"/>
-      <c r="E2" s="423"/>
+      <c r="C2" s="448"/>
+      <c r="D2" s="448"/>
+      <c r="E2" s="448"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="46" t="s">
@@ -5286,224 +5483,239 @@
       <c r="C9" s="64"/>
       <c r="D9" s="65"/>
       <c r="E9" s="66">
-        <f>SUM(E12:E13)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="67" t="s">
-        <v>65</v>
-      </c>
-      <c r="B10" s="68" t="s">
+        <f>SUM(E13:E16)</f>
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="425" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="433" t="s">
+        <v>433</v>
+      </c>
+      <c r="B10" s="434" t="s">
         <v>66</v>
       </c>
-      <c r="C10" s="55">
-        <f>sdtm_tdd</f>
-        <v>0</v>
-      </c>
-      <c r="D10" s="69">
-        <v>650</v>
-      </c>
-      <c r="E10" s="57">
-        <f t="shared" ref="E10:E11" si="0">C10*D10</f>
+      <c r="C10" s="432">
+        <f>sdtm_tdd + sdtm_sd</f>
+        <v>0</v>
+      </c>
+      <c r="D10" s="437">
+        <v>220</v>
+      </c>
+      <c r="E10" s="440">
+        <f>C10*D10</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="67" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B11" s="68" t="s">
         <v>66</v>
       </c>
       <c r="C11" s="55">
+        <f>sdtm_tdd</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="69">
+        <v>650</v>
+      </c>
+      <c r="E11" s="57">
+        <f t="shared" ref="E11:E12" si="0">C11*D11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="67" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" s="68" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" s="55">
         <f>sdtm_sd</f>
         <v>0</v>
       </c>
-      <c r="D11" s="69">
+      <c r="D12" s="69">
         <v>1300</v>
       </c>
-      <c r="E11" s="57">
+      <c r="E12" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="70" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="70" t="s">
         <v>68</v>
       </c>
-      <c r="B12" s="71"/>
-      <c r="C12" s="72">
-        <f>SUM(C10:C11)</f>
-        <v>0</v>
-      </c>
-      <c r="D12" s="73"/>
-      <c r="E12" s="74">
-        <f>SUM(E10:E11)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="75" t="s">
+      <c r="B13" s="71"/>
+      <c r="C13" s="72">
+        <f>sdtm_tdd +sdtm_sd</f>
+        <v>0</v>
+      </c>
+      <c r="D13" s="73"/>
+      <c r="E13" s="74">
+        <f>SUM(E10:E12)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="75" t="s">
         <v>69</v>
       </c>
-      <c r="B13" s="76" t="s">
+      <c r="B14" s="76" t="s">
         <v>70</v>
       </c>
-      <c r="C13" s="32">
+      <c r="C14" s="32">
         <f>sdtm_fr</f>
         <v>0</v>
       </c>
-      <c r="D13" s="77">
+      <c r="D14" s="77">
         <v>1500</v>
       </c>
-      <c r="E13" s="57">
-        <f>C13*D13</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="78"/>
-      <c r="B14" s="79"/>
-      <c r="C14" s="59"/>
-      <c r="D14" s="79"/>
-      <c r="E14" s="78"/>
+      <c r="E14" s="57">
+        <f>C14*D14</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="80" t="s">
+      <c r="A15" s="442" t="s">
+        <v>435</v>
+      </c>
+      <c r="B15" s="360" t="s">
+        <v>202</v>
+      </c>
+      <c r="C15" s="369">
+        <v>1</v>
+      </c>
+      <c r="D15" s="443">
+        <v>6000</v>
+      </c>
+      <c r="E15" s="444">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="442" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="360" t="s">
+        <v>202</v>
+      </c>
+      <c r="C16" s="369">
+        <v>1</v>
+      </c>
+      <c r="D16" s="443">
+        <v>3000</v>
+      </c>
+      <c r="E16" s="444">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="78"/>
+      <c r="B17" s="79"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="79"/>
+      <c r="E17" s="78"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="80" t="s">
         <v>71</v>
       </c>
-      <c r="B15" s="81"/>
-      <c r="C15" s="82"/>
-      <c r="D15" s="83"/>
-      <c r="E15" s="84">
-        <f>SUM(E18:E19)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="67" t="s">
+      <c r="B18" s="81"/>
+      <c r="C18" s="82"/>
+      <c r="D18" s="83"/>
+      <c r="E18" s="84">
+        <f>SUM(E22:E25)</f>
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="435" t="s">
+        <v>434</v>
+      </c>
+      <c r="B19" s="436" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" s="438">
+        <f>adam_simp + adam_compl</f>
+        <v>0</v>
+      </c>
+      <c r="D19" s="439">
+        <v>660</v>
+      </c>
+      <c r="E19" s="441">
+        <f>C19*D19</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="68" t="s">
+      <c r="B20" s="68" t="s">
         <v>72</v>
       </c>
-      <c r="C16" s="55">
+      <c r="C20" s="55">
         <f>adam_simp</f>
         <v>0</v>
       </c>
-      <c r="D16" s="69">
+      <c r="D20" s="69">
         <v>2350</v>
       </c>
-      <c r="E16" s="57">
-        <f>C16*D16</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="67" t="s">
+      <c r="E20" s="57">
+        <f>C20*D20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="68" t="s">
+      <c r="B21" s="68" t="s">
         <v>72</v>
       </c>
-      <c r="C17" s="55">
+      <c r="C21" s="55">
         <f>adam_compl</f>
         <v>0</v>
       </c>
-      <c r="D17" s="69">
+      <c r="D21" s="69">
         <v>3200</v>
       </c>
-      <c r="E17" s="57">
-        <f>C17*D17</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="70" t="s">
+      <c r="E21" s="57">
+        <f>C21*D21</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="70" t="s">
         <v>73</v>
       </c>
-      <c r="B18" s="71"/>
-      <c r="C18" s="72">
-        <f>SUM(C16:C17)</f>
-        <v>0</v>
-      </c>
-      <c r="D18" s="73"/>
-      <c r="E18" s="74">
-        <f>SUM(E16:E17)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="75" t="s">
+      <c r="B22" s="71"/>
+      <c r="C22" s="72">
+        <f>adam_simp + adam_compl</f>
+        <v>0</v>
+      </c>
+      <c r="D22" s="73"/>
+      <c r="E22" s="74">
+        <f>SUM(E19:E21)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="75" t="s">
         <v>74</v>
       </c>
-      <c r="B19" s="76" t="s">
+      <c r="B23" s="76" t="s">
         <v>70</v>
       </c>
-      <c r="C19" s="32">
+      <c r="C23" s="32">
         <f>adam_fr</f>
         <v>0</v>
       </c>
-      <c r="D19" s="77">
+      <c r="D23" s="77">
         <v>2000</v>
-      </c>
-      <c r="E19" s="57">
-        <f>C19*D19</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="85"/>
-      <c r="B20" s="86"/>
-      <c r="C20" s="87"/>
-      <c r="D20" s="88"/>
-      <c r="E20" s="89"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="80" t="s">
-        <v>75</v>
-      </c>
-      <c r="B21" s="81"/>
-      <c r="C21" s="82"/>
-      <c r="D21" s="83"/>
-      <c r="E21" s="84">
-        <f>SUM(E28:E31)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="67" t="s">
-        <v>35</v>
-      </c>
-      <c r="B22" s="68" t="s">
-        <v>76</v>
-      </c>
-      <c r="C22" s="55">
-        <f>tlf_final_unique_tables</f>
-        <v>0</v>
-      </c>
-      <c r="D22" s="69">
-        <v>950</v>
-      </c>
-      <c r="E22" s="57">
-        <f>C22*D22</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="67" t="s">
-        <v>36</v>
-      </c>
-      <c r="B23" s="68" t="s">
-        <v>76</v>
-      </c>
-      <c r="C23" s="55">
-        <f>tlf_final_repeat_tables</f>
-        <v>0</v>
-      </c>
-      <c r="D23" s="69">
-        <v>350</v>
       </c>
       <c r="E23" s="57">
         <f>C23*D23</f>
@@ -5511,205 +5723,201 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="67" t="s">
-        <v>37</v>
-      </c>
-      <c r="B24" s="68" t="s">
-        <v>77</v>
-      </c>
-      <c r="C24" s="55">
-        <f>tlf_final_unique_figures</f>
-        <v>0</v>
-      </c>
-      <c r="D24" s="69">
-        <v>1000</v>
-      </c>
-      <c r="E24" s="57">
-        <f t="shared" ref="E24:E27" si="1">C24*D24</f>
-        <v>0</v>
+      <c r="A24" s="442" t="s">
+        <v>436</v>
+      </c>
+      <c r="B24" s="360" t="s">
+        <v>202</v>
+      </c>
+      <c r="C24" s="369">
+        <v>1</v>
+      </c>
+      <c r="D24" s="443">
+        <v>5000</v>
+      </c>
+      <c r="E24" s="444">
+        <v>5000</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="67" t="s">
-        <v>38</v>
-      </c>
-      <c r="B25" s="68" t="s">
-        <v>77</v>
-      </c>
-      <c r="C25" s="55">
-        <f>tlf_final_repeat_figures</f>
-        <v>0</v>
-      </c>
-      <c r="D25" s="69">
-        <v>375</v>
-      </c>
-      <c r="E25" s="57">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="A25" s="442" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="360" t="s">
+        <v>202</v>
+      </c>
+      <c r="C25" s="369">
+        <v>1</v>
+      </c>
+      <c r="D25" s="443">
+        <v>3000</v>
+      </c>
+      <c r="E25" s="444">
+        <v>3000</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="67" t="s">
-        <v>39</v>
-      </c>
-      <c r="B26" s="68" t="s">
-        <v>78</v>
-      </c>
-      <c r="C26" s="55">
-        <f>tlf_final_unique_listings</f>
-        <v>0</v>
-      </c>
-      <c r="D26" s="69">
-        <v>690</v>
-      </c>
-      <c r="E26" s="57">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="A26" s="85"/>
+      <c r="B26" s="86"/>
+      <c r="C26" s="87"/>
+      <c r="D26" s="88"/>
+      <c r="E26" s="89"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="67" t="s">
-        <v>40</v>
-      </c>
-      <c r="B27" s="68" t="s">
-        <v>78</v>
-      </c>
-      <c r="C27" s="55">
-        <f>tlf_final_repeat_listings</f>
-        <v>0</v>
-      </c>
-      <c r="D27" s="69">
-        <v>250</v>
-      </c>
-      <c r="E27" s="57">
-        <f t="shared" si="1"/>
+      <c r="A27" s="80" t="s">
+        <v>75</v>
+      </c>
+      <c r="B27" s="81"/>
+      <c r="C27" s="82"/>
+      <c r="D27" s="83"/>
+      <c r="E27" s="84">
+        <f>SUM(E34:E37)</f>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="70" t="s">
-        <v>79</v>
-      </c>
-      <c r="B28" s="71"/>
-      <c r="C28" s="90">
-        <f>SUM(C22:C27)</f>
-        <v>0</v>
-      </c>
-      <c r="D28" s="73"/>
-      <c r="E28" s="74">
-        <f>SUM(E22:E27)</f>
+      <c r="A28" s="67" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" s="68" t="s">
+        <v>76</v>
+      </c>
+      <c r="C28" s="55">
+        <f>tlf_final_unique_tables</f>
+        <v>0</v>
+      </c>
+      <c r="D28" s="69">
+        <v>950</v>
+      </c>
+      <c r="E28" s="57">
+        <f>C28*D28</f>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="67" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" s="68" t="s">
+        <v>76</v>
+      </c>
+      <c r="C29" s="55">
+        <f>tlf_final_repeat_tables</f>
+        <v>0</v>
+      </c>
+      <c r="D29" s="69">
+        <v>350</v>
+      </c>
+      <c r="E29" s="57">
+        <f>C29*D29</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="67" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" s="68" t="s">
+        <v>77</v>
+      </c>
+      <c r="C30" s="55">
+        <f>tlf_final_unique_figures</f>
+        <v>0</v>
+      </c>
+      <c r="D30" s="69">
+        <v>1000</v>
+      </c>
+      <c r="E30" s="57">
+        <f t="shared" ref="E30:E33" si="1">C30*D30</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="67" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" s="68" t="s">
+        <v>77</v>
+      </c>
+      <c r="C31" s="55">
+        <f>tlf_final_repeat_figures</f>
+        <v>0</v>
+      </c>
+      <c r="D31" s="69">
+        <v>375</v>
+      </c>
+      <c r="E31" s="57">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="67" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" s="68" t="s">
+        <v>78</v>
+      </c>
+      <c r="C32" s="55">
+        <f>tlf_final_unique_listings</f>
+        <v>0</v>
+      </c>
+      <c r="D32" s="69">
+        <v>690</v>
+      </c>
+      <c r="E32" s="57">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="67" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33" s="68" t="s">
+        <v>78</v>
+      </c>
+      <c r="C33" s="55">
+        <f>tlf_final_repeat_listings</f>
+        <v>0</v>
+      </c>
+      <c r="D33" s="69">
+        <v>250</v>
+      </c>
+      <c r="E33" s="57">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="70" t="s">
+        <v>79</v>
+      </c>
+      <c r="B34" s="71"/>
+      <c r="C34" s="90">
+        <f>SUM(C28:C33)</f>
+        <v>0</v>
+      </c>
+      <c r="D34" s="73"/>
+      <c r="E34" s="74">
+        <f>SUM(E28:E33)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="67" t="s">
+        <v>410</v>
+      </c>
+      <c r="B35" s="68" t="s">
         <v>411</v>
       </c>
-      <c r="B29" s="68" t="s">
-        <v>412</v>
-      </c>
-      <c r="C29" s="55">
+      <c r="C35" s="55">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="D29" s="69">
-        <f>E28/2</f>
-        <v>0</v>
-      </c>
-      <c r="E29" s="57">
-        <f>C29*D29</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="89" t="s">
-        <v>418</v>
-      </c>
-      <c r="B30" s="417" t="s">
-        <v>70</v>
-      </c>
-      <c r="C30" s="418">
-        <f>tlf_ia_fr</f>
-        <v>0</v>
-      </c>
-      <c r="D30" s="419">
-        <v>5000</v>
-      </c>
-      <c r="E30" s="57">
-        <f>C30*D30</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="91" t="s">
-        <v>80</v>
-      </c>
-      <c r="B31" s="92" t="s">
-        <v>70</v>
-      </c>
-      <c r="C31" s="93">
-        <f>tlf_final_fr</f>
-        <v>0</v>
-      </c>
-      <c r="D31" s="94">
-        <v>5000</v>
-      </c>
-      <c r="E31" s="57">
-        <f>C31*D31</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="95"/>
-      <c r="B32" s="96"/>
-      <c r="C32" s="97"/>
-      <c r="D32" s="98"/>
-      <c r="E32" s="99"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="80" t="s">
-        <v>81</v>
-      </c>
-      <c r="B33" s="81"/>
-      <c r="C33" s="82"/>
-      <c r="D33" s="83"/>
-      <c r="E33" s="84">
-        <f>SUM(E34:E36)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="100" t="s">
-        <v>82</v>
-      </c>
-      <c r="B34" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="C34" s="32">
-        <f>sdtm_dmc_fr</f>
-        <v>0</v>
-      </c>
-      <c r="D34" s="101">
-        <v>1500</v>
-      </c>
-      <c r="E34" s="57">
-        <f>C34*D34</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="100" t="s">
-        <v>83</v>
-      </c>
-      <c r="B35" s="102" t="s">
-        <v>70</v>
-      </c>
-      <c r="C35" s="32">
-        <f>adam_dmc_fr</f>
-        <v>0</v>
-      </c>
-      <c r="D35" s="101">
-        <v>2000</v>
+      <c r="D35" s="69">
+        <f>E34/2</f>
+        <v>0</v>
       </c>
       <c r="E35" s="57">
         <f>C35*D35</f>
@@ -5717,17 +5925,17 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="100" t="s">
-        <v>84</v>
-      </c>
-      <c r="B36" s="43" t="s">
+      <c r="A36" s="89" t="s">
+        <v>417</v>
+      </c>
+      <c r="B36" s="413" t="s">
         <v>70</v>
       </c>
-      <c r="C36" s="32">
-        <f>tlf_dmc_fr</f>
-        <v>0</v>
-      </c>
-      <c r="D36" s="101">
+      <c r="C36" s="414">
+        <f>tlf_ia_fr</f>
+        <v>0</v>
+      </c>
+      <c r="D36" s="415">
         <v>5000</v>
       </c>
       <c r="E36" s="57">
@@ -5736,250 +5944,345 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="103"/>
-      <c r="B37" s="104"/>
-      <c r="C37" s="105"/>
-      <c r="D37" s="104"/>
-      <c r="E37" s="103"/>
+      <c r="A37" s="91" t="s">
+        <v>80</v>
+      </c>
+      <c r="B37" s="92" t="s">
+        <v>70</v>
+      </c>
+      <c r="C37" s="93">
+        <f>tlf_final_fr</f>
+        <v>0</v>
+      </c>
+      <c r="D37" s="94">
+        <v>5000</v>
+      </c>
+      <c r="E37" s="57">
+        <f>C37*D37</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="80" t="s">
-        <v>85</v>
-      </c>
-      <c r="B38" s="106"/>
-      <c r="C38" s="107"/>
-      <c r="D38" s="108"/>
-      <c r="E38" s="84">
-        <f>E39</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="53" t="s">
-        <v>86</v>
-      </c>
-      <c r="B39" s="76" t="s">
-        <v>87</v>
-      </c>
-      <c r="C39" s="55">
-        <f>num_meetings</f>
-        <v>0</v>
-      </c>
-      <c r="D39" s="77">
-        <v>500</v>
-      </c>
-      <c r="E39" s="57">
-        <f>C39*D39</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="109"/>
-      <c r="B40" s="79"/>
-      <c r="C40" s="110"/>
-      <c r="D40" s="111"/>
-      <c r="E40" s="112"/>
+      <c r="A38" s="95"/>
+      <c r="B38" s="96"/>
+      <c r="C38" s="97"/>
+      <c r="D38" s="98"/>
+      <c r="E38" s="99"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="80" t="s">
+        <v>81</v>
+      </c>
+      <c r="B39" s="81"/>
+      <c r="C39" s="82"/>
+      <c r="D39" s="83"/>
+      <c r="E39" s="84">
+        <f>SUM(E40:E42)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="100" t="s">
+        <v>82</v>
+      </c>
+      <c r="B40" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="C40" s="32">
+        <f>sdtm_dmc_fr</f>
+        <v>0</v>
+      </c>
+      <c r="D40" s="101">
+        <v>1500</v>
+      </c>
+      <c r="E40" s="57">
+        <f>C40*D40</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="80" t="s">
-        <v>88</v>
-      </c>
-      <c r="B41" s="106"/>
-      <c r="C41" s="107"/>
-      <c r="D41" s="108"/>
-      <c r="E41" s="84">
-        <f>SUM(E42:E43)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A42" s="53" t="s">
-        <v>89</v>
-      </c>
-      <c r="B42" s="76" t="s">
+      <c r="A41" s="100" t="s">
+        <v>83</v>
+      </c>
+      <c r="B41" s="102" t="s">
         <v>70</v>
       </c>
-      <c r="C42" s="55">
-        <f>dsur_years</f>
-        <v>0</v>
-      </c>
-      <c r="D42" s="77">
-        <v>3000</v>
+      <c r="C41" s="32">
+        <f>adam_dmc_fr</f>
+        <v>0</v>
+      </c>
+      <c r="D41" s="101">
+        <v>2000</v>
+      </c>
+      <c r="E41" s="57">
+        <f>C41*D41</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="100" t="s">
+        <v>84</v>
+      </c>
+      <c r="B42" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="C42" s="32">
+        <f>tlf_dmc_fr</f>
+        <v>0</v>
+      </c>
+      <c r="D42" s="101">
+        <v>5000</v>
       </c>
       <c r="E42" s="57">
         <f>C42*D42</f>
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A43" s="53" t="s">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="103"/>
+      <c r="B43" s="104"/>
+      <c r="C43" s="105"/>
+      <c r="D43" s="104"/>
+      <c r="E43" s="103"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="80" t="s">
+        <v>85</v>
+      </c>
+      <c r="B44" s="106"/>
+      <c r="C44" s="107"/>
+      <c r="D44" s="108"/>
+      <c r="E44" s="84">
+        <f>E45</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="53" t="s">
+        <v>86</v>
+      </c>
+      <c r="B45" s="76" t="s">
+        <v>87</v>
+      </c>
+      <c r="C45" s="55">
+        <f>num_meetings</f>
+        <v>0</v>
+      </c>
+      <c r="D45" s="77">
+        <v>500</v>
+      </c>
+      <c r="E45" s="57">
+        <f>C45*D45</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="109"/>
+      <c r="B46" s="79"/>
+      <c r="C46" s="110"/>
+      <c r="D46" s="111"/>
+      <c r="E46" s="112"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="80" t="s">
+        <v>88</v>
+      </c>
+      <c r="B47" s="106"/>
+      <c r="C47" s="107"/>
+      <c r="D47" s="108"/>
+      <c r="E47" s="84">
+        <f>SUM(E48:E49)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A48" s="53" t="s">
+        <v>89</v>
+      </c>
+      <c r="B48" s="76" t="s">
+        <v>70</v>
+      </c>
+      <c r="C48" s="55">
+        <f>dsur_years</f>
+        <v>0</v>
+      </c>
+      <c r="D48" s="77">
+        <v>3000</v>
+      </c>
+      <c r="E48" s="57">
+        <f>C48*D48</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A49" s="53" t="s">
         <v>90</v>
       </c>
-      <c r="B43" s="76" t="s">
+      <c r="B49" s="76" t="s">
         <v>70</v>
       </c>
-      <c r="C43" s="55">
+      <c r="C49" s="55">
         <f>dsur_years</f>
         <v>0</v>
       </c>
-      <c r="D43" s="77">
+      <c r="D49" s="77">
         <v>5000</v>
       </c>
-      <c r="E43" s="57">
-        <f>C43*D43</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="109"/>
-      <c r="B44" s="79"/>
-      <c r="C44" s="110"/>
-      <c r="D44" s="111"/>
-      <c r="E44" s="112"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="80" t="s">
+      <c r="E49" s="57">
+        <f>C49*D49</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="109"/>
+      <c r="B50" s="79"/>
+      <c r="C50" s="110"/>
+      <c r="D50" s="111"/>
+      <c r="E50" s="112"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="80" t="s">
         <v>91</v>
       </c>
-      <c r="B45" s="106"/>
-      <c r="C45" s="107"/>
-      <c r="D45" s="108"/>
-      <c r="E45" s="84">
-        <f>SUM(E46:E47)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="113" t="s">
+      <c r="B51" s="106"/>
+      <c r="C51" s="107"/>
+      <c r="D51" s="108"/>
+      <c r="E51" s="84">
+        <f>SUM(E52:E53)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="113" t="s">
         <v>92</v>
       </c>
-      <c r="B46" s="114" t="s">
+      <c r="B52" s="114" t="s">
         <v>70</v>
       </c>
-      <c r="C46" s="115">
+      <c r="C52" s="115">
         <f>investigator_years</f>
         <v>0</v>
       </c>
-      <c r="D46" s="116">
+      <c r="D52" s="116">
         <v>5000</v>
       </c>
-      <c r="E46" s="57">
-        <f>C46*D46</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="113" t="s">
+      <c r="E52" s="57">
+        <f>C52*D52</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="113" t="s">
         <v>93</v>
       </c>
-      <c r="B47" s="114" t="s">
+      <c r="B53" s="114" t="s">
         <v>70</v>
       </c>
-      <c r="C47" s="115">
+      <c r="C53" s="115">
         <f>investigator_years</f>
         <v>0</v>
       </c>
-      <c r="D47" s="116">
+      <c r="D53" s="116">
         <v>5000</v>
       </c>
-      <c r="E47" s="57">
-        <f>C47*D47</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="117"/>
-      <c r="B48" s="118"/>
-      <c r="C48" s="119"/>
-      <c r="D48" s="120"/>
-      <c r="E48" s="121"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="122" t="s">
+      <c r="E53" s="57">
+        <f>C53*D53</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="117"/>
+      <c r="B54" s="118"/>
+      <c r="C54" s="119"/>
+      <c r="D54" s="120"/>
+      <c r="E54" s="121"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="122" t="s">
         <v>94</v>
       </c>
-      <c r="B49" s="123"/>
-      <c r="C49" s="124"/>
-      <c r="D49" s="125"/>
-      <c r="E49" s="126">
-        <f>SUM(E50:E52)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A50" s="127" t="s">
+      <c r="B55" s="123"/>
+      <c r="C55" s="124"/>
+      <c r="D55" s="125"/>
+      <c r="E55" s="126">
+        <f>SUM(E56:E58)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A56" s="127" t="s">
         <v>95</v>
       </c>
-      <c r="B50" s="128" t="s">
+      <c r="B56" s="128" t="s">
         <v>96</v>
       </c>
-      <c r="C50" s="129">
+      <c r="C56" s="129">
         <f>patient_profile</f>
         <v>0</v>
       </c>
-      <c r="D50" s="130">
+      <c r="D56" s="130">
         <v>100</v>
       </c>
-      <c r="E50" s="57">
-        <f t="shared" ref="E50:E52" si="2">C50*D50</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A51" s="127" t="s">
+      <c r="E56" s="57">
+        <f t="shared" ref="E56:E58" si="2">C56*D56</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A57" s="127" t="s">
         <v>97</v>
       </c>
-      <c r="B51" s="128" t="s">
+      <c r="B57" s="128" t="s">
         <v>96</v>
       </c>
-      <c r="C51" s="129">
+      <c r="C57" s="129">
         <f>patient_profile</f>
         <v>0</v>
       </c>
-      <c r="D51" s="130">
+      <c r="D57" s="130">
         <v>500</v>
       </c>
-      <c r="E51" s="57">
+      <c r="E57" s="57">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A52" s="127" t="s">
+    <row r="58" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A58" s="127" t="s">
         <v>98</v>
       </c>
-      <c r="B52" s="128" t="s">
+      <c r="B58" s="128" t="s">
         <v>99</v>
       </c>
-      <c r="C52" s="129">
+      <c r="C58" s="129">
         <f>total_dur</f>
         <v>0</v>
       </c>
-      <c r="D52" s="130">
+      <c r="D58" s="130">
         <v>500</v>
       </c>
-      <c r="E52" s="57">
+      <c r="E58" s="57">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="117"/>
-      <c r="B53" s="118"/>
-      <c r="C53" s="119"/>
-      <c r="D53" s="120"/>
-      <c r="E53" s="121"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="131" t="s">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="117"/>
+      <c r="B59" s="118"/>
+      <c r="C59" s="119"/>
+      <c r="D59" s="120"/>
+      <c r="E59" s="121"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="131" t="s">
         <v>100</v>
       </c>
-      <c r="B54" s="132"/>
-      <c r="C54" s="133"/>
-      <c r="D54" s="132"/>
-      <c r="E54" s="134">
-        <f>SUM(E4, E9, E15, E21, E33, E38, E41, E45, E49)</f>
-        <v>0</v>
+      <c r="B60" s="132"/>
+      <c r="C60" s="133"/>
+      <c r="D60" s="132"/>
+      <c r="E60" s="134">
+        <f>SUM(E4, E9, E18, E27, E39, E44, E47, E51, E55)</f>
+        <v>17000</v>
       </c>
     </row>
   </sheetData>
@@ -5996,8 +6299,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ED3B6E4-C050-4017-B765-0D254B3EA43B}">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6026,10 +6329,10 @@
       <c r="G2" s="363"/>
     </row>
     <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="424" t="s">
+      <c r="A3" s="449" t="s">
         <v>148</v>
       </c>
-      <c r="B3" s="425"/>
+      <c r="B3" s="450"/>
       <c r="C3" s="365" t="s">
         <v>57</v>
       </c>
@@ -6047,15 +6350,16 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="426" t="s">
+      <c r="A4" s="451" t="s">
         <v>350</v>
       </c>
-      <c r="B4" s="427"/>
+      <c r="B4" s="452"/>
       <c r="C4" s="366"/>
       <c r="D4" s="366"/>
       <c r="E4" s="366"/>
       <c r="F4" s="367">
-        <v>153400</v>
+        <f>SUM(F5:F22)</f>
+        <v>0</v>
       </c>
       <c r="G4" s="368"/>
     </row>
@@ -6077,7 +6381,8 @@
         <v>350</v>
       </c>
       <c r="F5" s="371">
-        <v>21000</v>
+        <f>E5*D5</f>
+        <v>0</v>
       </c>
       <c r="G5" s="155" t="s">
         <v>353</v>
@@ -6101,7 +6406,8 @@
         <v>80</v>
       </c>
       <c r="F6" s="371">
-        <v>28000</v>
+        <f>E6*D6</f>
+        <v>0</v>
       </c>
       <c r="G6" s="155" t="s">
         <v>355</v>
@@ -6125,7 +6431,8 @@
         <v>80</v>
       </c>
       <c r="F7" s="371">
-        <v>4800</v>
+        <f>E7*D7</f>
+        <v>0</v>
       </c>
       <c r="G7" s="155" t="s">
         <v>357</v>
@@ -6149,7 +6456,8 @@
         <v>30</v>
       </c>
       <c r="F8" s="371">
-        <v>10500</v>
+        <f>E8*D8</f>
+        <v>0</v>
       </c>
       <c r="G8" s="155" t="s">
         <v>359</v>
@@ -6186,7 +6494,8 @@
         <v>12</v>
       </c>
       <c r="F10" s="371">
-        <v>10800</v>
+        <f>E10*D10</f>
+        <v>0</v>
       </c>
       <c r="G10" s="155" t="s">
         <v>364</v>
@@ -6210,7 +6519,8 @@
         <v>18</v>
       </c>
       <c r="F11" s="371">
-        <v>16200</v>
+        <f>E11*D11</f>
+        <v>0</v>
       </c>
       <c r="G11" s="155" t="s">
         <v>364</v>
@@ -6234,7 +6544,8 @@
         <v>12</v>
       </c>
       <c r="F12" s="371">
-        <v>10800</v>
+        <f>E12*D12</f>
+        <v>0</v>
       </c>
       <c r="G12" s="155" t="s">
         <v>369</v>
@@ -6271,7 +6582,8 @@
         <v>18</v>
       </c>
       <c r="F14" s="371">
-        <v>4500</v>
+        <f>E14*D14</f>
+        <v>0</v>
       </c>
       <c r="G14" s="155" t="s">
         <v>373</v>
@@ -6295,7 +6607,8 @@
         <v>23</v>
       </c>
       <c r="F15" s="371">
-        <v>5750</v>
+        <f>E15*D15</f>
+        <v>0</v>
       </c>
       <c r="G15" s="155" t="s">
         <v>373</v>
@@ -6319,7 +6632,8 @@
         <v>18</v>
       </c>
       <c r="F16" s="371">
-        <v>4500</v>
+        <f>E16*D16</f>
+        <v>0</v>
       </c>
       <c r="G16" s="155" t="s">
         <v>378</v>
@@ -6356,7 +6670,8 @@
         <v>25</v>
       </c>
       <c r="F18" s="371">
-        <v>1250</v>
+        <f>E18*D18</f>
+        <v>0</v>
       </c>
       <c r="G18" s="155" t="s">
         <v>382</v>
@@ -6380,7 +6695,8 @@
         <v>27</v>
       </c>
       <c r="F19" s="371">
-        <v>1350</v>
+        <f>E19*D19</f>
+        <v>0</v>
       </c>
       <c r="G19" s="155" t="s">
         <v>382</v>
@@ -6404,7 +6720,8 @@
         <v>23</v>
       </c>
       <c r="F20" s="371">
-        <v>1150</v>
+        <f>E20*D20</f>
+        <v>0</v>
       </c>
       <c r="G20" s="155" t="s">
         <v>387</v>
@@ -6428,7 +6745,8 @@
         <v>80</v>
       </c>
       <c r="F21" s="371">
-        <v>28000</v>
+        <f>E21*D21</f>
+        <v>0</v>
       </c>
       <c r="G21" s="155" t="s">
         <v>359</v>
@@ -6452,7 +6770,8 @@
         <v>80</v>
       </c>
       <c r="F22" s="371">
-        <v>4800</v>
+        <f>E22*D22</f>
+        <v>0</v>
       </c>
       <c r="G22" s="155" t="s">
         <v>390</v>
@@ -6476,7 +6795,8 @@
       <c r="D24" s="379"/>
       <c r="E24" s="379"/>
       <c r="F24" s="380">
-        <v>153400</v>
+        <f>SUM(F5:F22)</f>
+        <v>0</v>
       </c>
       <c r="G24" s="378"/>
     </row>
@@ -6494,7 +6814,7 @@
   <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6533,10 +6853,10 @@
       <c r="G3" s="135"/>
     </row>
     <row r="4" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="429" t="s">
+      <c r="A4" s="454" t="s">
         <v>148</v>
       </c>
-      <c r="B4" s="429"/>
+      <c r="B4" s="454"/>
       <c r="C4" s="168" t="s">
         <v>57</v>
       </c>
@@ -6554,10 +6874,10 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="430" t="s">
+      <c r="A5" s="455" t="s">
         <v>150</v>
       </c>
-      <c r="B5" s="431"/>
+      <c r="B5" s="456"/>
       <c r="C5" s="172"/>
       <c r="D5" s="173"/>
       <c r="E5" s="174"/>
@@ -6601,10 +6921,10 @@
       <c r="G7" s="186"/>
     </row>
     <row r="8" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="430" t="s">
+      <c r="A8" s="455" t="s">
         <v>154</v>
       </c>
-      <c r="B8" s="431"/>
+      <c r="B8" s="456"/>
       <c r="C8" s="190"/>
       <c r="D8" s="191"/>
       <c r="E8" s="192"/>
@@ -6696,10 +7016,10 @@
       <c r="G12" s="198"/>
     </row>
     <row r="13" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="430" t="s">
+      <c r="A13" s="455" t="s">
         <v>161</v>
       </c>
-      <c r="B13" s="431"/>
+      <c r="B13" s="456"/>
       <c r="C13" s="190"/>
       <c r="D13" s="191"/>
       <c r="E13" s="192"/>
@@ -7065,10 +7385,10 @@
       <c r="G28" s="198"/>
     </row>
     <row r="29" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="430" t="s">
+      <c r="A29" s="455" t="s">
         <v>213</v>
       </c>
-      <c r="B29" s="431"/>
+      <c r="B29" s="456"/>
       <c r="C29" s="190"/>
       <c r="D29" s="191"/>
       <c r="E29" s="192"/>
@@ -7288,10 +7608,10 @@
       <c r="G38" s="198"/>
     </row>
     <row r="39" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="430" t="s">
+      <c r="A39" s="455" t="s">
         <v>239</v>
       </c>
-      <c r="B39" s="431"/>
+      <c r="B39" s="456"/>
       <c r="C39" s="190"/>
       <c r="D39" s="191"/>
       <c r="E39" s="192"/>
@@ -7385,10 +7705,10 @@
       <c r="G43" s="213"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="428" t="s">
+      <c r="A44" s="453" t="s">
         <v>100</v>
       </c>
-      <c r="B44" s="428"/>
+      <c r="B44" s="453"/>
       <c r="C44" s="214"/>
       <c r="D44" s="215"/>
       <c r="E44" s="216"/>
@@ -7416,7 +7736,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7160DE5A-F936-4447-9D92-7E4E05EAEA09}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -7440,9 +7760,9 @@
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="220"/>
       <c r="B2" s="220"/>
-      <c r="C2" s="432"/>
-      <c r="D2" s="432"/>
-      <c r="E2" s="432"/>
+      <c r="C2" s="457"/>
+      <c r="D2" s="457"/>
+      <c r="E2" s="457"/>
       <c r="F2" s="220"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -7596,8 +7916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2762E0EF-4FE9-4E15-AE25-D732DFD3DB57}">
   <dimension ref="A1:H82"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A67" zoomScale="99" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H82" sqref="H82"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A27" zoomScale="99" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L37" sqref="L37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7624,8 +7944,8 @@
       <c r="H1" s="255"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B2" s="410" t="s">
-        <v>414</v>
+      <c r="B2" s="406" t="s">
+        <v>413</v>
       </c>
       <c r="C2" s="257"/>
       <c r="D2" s="257"/>
@@ -7748,9 +8068,9 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="274"/>
-      <c r="B12" s="437"/>
-      <c r="C12" s="438"/>
-      <c r="D12" s="439"/>
+      <c r="B12" s="462"/>
+      <c r="C12" s="463"/>
+      <c r="D12" s="464"/>
       <c r="E12" s="277" t="s">
         <v>57</v>
       </c>
@@ -7787,7 +8107,7 @@
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B14" s="285"/>
       <c r="C14" s="273" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D14" s="273"/>
       <c r="E14" s="286"/>
@@ -7962,10 +8282,10 @@
       <c r="D29" s="273" t="s">
         <v>285</v>
       </c>
-      <c r="E29" s="440"/>
-      <c r="F29" s="441"/>
-      <c r="G29" s="441"/>
-      <c r="H29" s="442"/>
+      <c r="E29" s="465"/>
+      <c r="F29" s="466"/>
+      <c r="G29" s="466"/>
+      <c r="H29" s="467"/>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B30" s="285"/>
@@ -7973,10 +8293,10 @@
       <c r="D30" s="273" t="s">
         <v>286</v>
       </c>
-      <c r="E30" s="443"/>
-      <c r="F30" s="444"/>
-      <c r="G30" s="444"/>
-      <c r="H30" s="445"/>
+      <c r="E30" s="468"/>
+      <c r="F30" s="469"/>
+      <c r="G30" s="469"/>
+      <c r="H30" s="470"/>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B31" s="285"/>
@@ -8054,14 +8374,15 @@
         <v>294</v>
       </c>
       <c r="F37" s="306">
-        <v>0</v>
+        <f>1</f>
+        <v>1</v>
       </c>
       <c r="G37" s="283">
         <v>4000</v>
       </c>
       <c r="H37" s="284">
         <f>F37*G37</f>
-        <v>0</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.3">
@@ -8074,7 +8395,7 @@
         <v>296</v>
       </c>
       <c r="F38" s="306">
-        <f>total_dur</f>
+        <f>MAX('Study Information'!B26-1, 0)</f>
         <v>0</v>
       </c>
       <c r="G38" s="283">
@@ -8092,12 +8413,12 @@
         <v>278</v>
       </c>
       <c r="D39" s="273"/>
-      <c r="E39" s="446" t="s">
+      <c r="E39" s="471" t="s">
         <v>297</v>
       </c>
-      <c r="F39" s="447"/>
-      <c r="G39" s="447"/>
-      <c r="H39" s="448"/>
+      <c r="F39" s="472"/>
+      <c r="G39" s="472"/>
+      <c r="H39" s="473"/>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B40" s="285"/>
@@ -8365,9 +8686,9 @@
       <c r="H61" s="316"/>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B62" s="449"/>
-      <c r="C62" s="450"/>
-      <c r="D62" s="451"/>
+      <c r="B62" s="474"/>
+      <c r="C62" s="475"/>
+      <c r="D62" s="476"/>
       <c r="E62" s="314"/>
       <c r="F62" s="314"/>
       <c r="G62" s="319"/>
@@ -8485,12 +8806,12 @@
       <c r="D71" s="271" t="s">
         <v>331</v>
       </c>
-      <c r="E71" s="452" t="s">
+      <c r="E71" s="477" t="s">
         <v>332</v>
       </c>
-      <c r="F71" s="452"/>
-      <c r="G71" s="452"/>
-      <c r="H71" s="453"/>
+      <c r="F71" s="477"/>
+      <c r="G71" s="477"/>
+      <c r="H71" s="478"/>
     </row>
     <row r="72" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B72" s="269"/>
@@ -8498,12 +8819,12 @@
       <c r="D72" s="271" t="s">
         <v>333</v>
       </c>
-      <c r="E72" s="433" t="s">
+      <c r="E72" s="458" t="s">
         <v>332</v>
       </c>
-      <c r="F72" s="433"/>
-      <c r="G72" s="433"/>
-      <c r="H72" s="434"/>
+      <c r="F72" s="458"/>
+      <c r="G72" s="458"/>
+      <c r="H72" s="459"/>
     </row>
     <row r="73" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B73" s="268"/>
@@ -8591,12 +8912,12 @@
       <c r="D79" s="271" t="s">
         <v>340</v>
       </c>
-      <c r="E79" s="435" t="s">
+      <c r="E79" s="460" t="s">
         <v>341</v>
       </c>
-      <c r="F79" s="435"/>
-      <c r="G79" s="435"/>
-      <c r="H79" s="436"/>
+      <c r="F79" s="460"/>
+      <c r="G79" s="460"/>
+      <c r="H79" s="461"/>
     </row>
     <row r="80" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B80" s="268"/>
@@ -8628,8 +8949,8 @@
       <c r="F82" s="346"/>
       <c r="G82" s="347"/>
       <c r="H82" s="348">
-        <f>SUM(H21,H38,H56)</f>
-        <v>90000</v>
+        <f>SUM(H13,H21,H38,H56)</f>
+        <v>105000</v>
       </c>
     </row>
   </sheetData>
